--- a/AAII_Financials/Quarterly/PGNY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/PGNY_QTR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="92">
   <si>
     <t>PGNY</t>
   </si>
@@ -305,7 +305,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -347,7 +347,7 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:K102"/>
+  <dimension ref="A5:M102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,143 +665,168 @@
     <col min="1" max="1" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E7" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F7" s="2">
         <v>43738</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>43646</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>43555</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43465</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43373</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43281</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43190</v>
       </c>
-      <c r="K7" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="M7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>81000</v>
+      </c>
+      <c r="E8" s="3">
+        <v>65100</v>
+      </c>
+      <c r="F8" s="3">
         <v>61200</v>
       </c>
-      <c r="E8" s="3">
+      <c r="G8" s="3">
         <v>103400</v>
       </c>
-      <c r="F8" s="3">
+      <c r="H8" s="3">
         <v>47200</v>
       </c>
-      <c r="G8" s="3">
+      <c r="I8" s="3">
         <v>29200</v>
       </c>
-      <c r="H8" s="3">
+      <c r="J8" s="3">
         <v>27800</v>
       </c>
-      <c r="I8" s="3">
+      <c r="K8" s="3">
         <v>26200</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>22300</v>
       </c>
-      <c r="K8" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="M8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>64400</v>
+      </c>
+      <c r="E9" s="3">
+        <v>53400</v>
+      </c>
+      <c r="F9" s="3">
         <v>48900</v>
       </c>
-      <c r="E9" s="3">
+      <c r="G9" s="3">
         <v>81900</v>
       </c>
-      <c r="F9" s="3">
+      <c r="H9" s="3">
         <v>37200</v>
       </c>
-      <c r="G9" s="3">
+      <c r="I9" s="3">
         <v>23800</v>
       </c>
-      <c r="H9" s="3">
+      <c r="J9" s="3">
         <v>22800</v>
       </c>
-      <c r="I9" s="3">
+      <c r="K9" s="3">
         <v>21100</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>18300</v>
       </c>
-      <c r="K9" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="M9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>16600</v>
+      </c>
+      <c r="E10" s="3">
+        <v>11700</v>
+      </c>
+      <c r="F10" s="3">
         <v>12300</v>
       </c>
-      <c r="E10" s="3">
+      <c r="G10" s="3">
         <v>21500</v>
       </c>
-      <c r="F10" s="3">
+      <c r="H10" s="3">
         <v>10000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="I10" s="3">
         <v>5400</v>
       </c>
-      <c r="H10" s="3">
+      <c r="J10" s="3">
         <v>5000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="K10" s="3">
         <v>5100</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>4000</v>
       </c>
-      <c r="K10" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="M10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -813,8 +838,10 @@
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L11" s="3"/>
+      <c r="M11" s="3"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -842,8 +869,14 @@
       <c r="K12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -871,23 +904,29 @@
       <c r="K13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L13" s="3">
+        <v>0</v>
+      </c>
+      <c r="M13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3">
+      <c r="D14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F14" s="3">
         <v>200</v>
       </c>
-      <c r="E14" s="3">
+      <c r="G14" s="3">
         <v>200</v>
       </c>
-      <c r="F14" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H14" s="3" t="s">
         <v>3</v>
       </c>
@@ -900,8 +939,14 @@
       <c r="K14" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M14" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -929,8 +974,14 @@
       <c r="K15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L15" s="3">
+        <v>0</v>
+      </c>
+      <c r="M15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -939,66 +990,80 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
-    </row>
-    <row r="17" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L16" s="3"/>
+      <c r="M16" s="3"/>
+    </row>
+    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>77200</v>
+      </c>
+      <c r="E17" s="3">
+        <v>64000</v>
+      </c>
+      <c r="F17" s="3">
         <v>58100</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>97900</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>44100</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>29900</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>28400</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>26500</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>24100</v>
       </c>
-      <c r="K17" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="M17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>3100</v>
+        <v>3800</v>
       </c>
       <c r="E18" s="3">
-        <v>5500</v>
+        <v>1100</v>
       </c>
       <c r="F18" s="3">
         <v>3100</v>
       </c>
       <c r="G18" s="3">
+        <v>5500</v>
+      </c>
+      <c r="H18" s="3">
+        <v>3100</v>
+      </c>
+      <c r="I18" s="3">
         <v>-700</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>-600</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>-300</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>-1800</v>
       </c>
-      <c r="K18" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="M18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1010,153 +1075,185 @@
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
-    </row>
-    <row r="20" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L19" s="3"/>
+      <c r="M19" s="3"/>
+    </row>
+    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>300</v>
+      </c>
+      <c r="E20" s="3">
+        <v>-5600</v>
+      </c>
+      <c r="F20" s="3">
         <v>-11200</v>
       </c>
-      <c r="E20" s="3">
+      <c r="G20" s="3">
         <v>-1200</v>
       </c>
-      <c r="F20" s="3">
+      <c r="H20" s="3">
         <v>-600</v>
       </c>
-      <c r="G20" s="3">
+      <c r="I20" s="3">
         <v>-1400</v>
       </c>
-      <c r="H20" s="3">
+      <c r="J20" s="3">
         <v>-900</v>
       </c>
-      <c r="I20" s="3">
+      <c r="K20" s="3">
         <v>-500</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>-200</v>
       </c>
-      <c r="K20" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="M20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>4700</v>
+      </c>
+      <c r="E21" s="3">
+        <v>-3900</v>
+      </c>
+      <c r="F21" s="3">
         <v>-7600</v>
       </c>
-      <c r="E21" s="3">
+      <c r="G21" s="3">
         <v>5300</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>3100</v>
       </c>
-      <c r="G21" s="3">
+      <c r="I21" s="3">
         <v>-1600</v>
       </c>
-      <c r="H21" s="3">
+      <c r="J21" s="3">
         <v>-1000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>-300</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>-1600</v>
       </c>
-      <c r="K21" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="22" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="M21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="3">
-        <v>0</v>
-      </c>
-      <c r="E22" s="3">
+      <c r="D22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F22" s="3">
+        <v>0</v>
+      </c>
+      <c r="G22" s="3">
         <v>200</v>
       </c>
-      <c r="F22" s="3">
-        <v>0</v>
-      </c>
-      <c r="G22" s="3">
-        <v>0</v>
-      </c>
       <c r="H22" s="3">
         <v>0</v>
       </c>
       <c r="I22" s="3">
+        <v>0</v>
+      </c>
+      <c r="J22" s="3">
+        <v>0</v>
+      </c>
+      <c r="K22" s="3">
         <v>300</v>
       </c>
-      <c r="J22" s="3">
+      <c r="L22" s="3">
         <v>100</v>
       </c>
-      <c r="K22" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="23" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="M22" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>4200</v>
+      </c>
+      <c r="E23" s="3">
+        <v>-4500</v>
+      </c>
+      <c r="F23" s="3">
         <v>-8200</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>4100</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>2500</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>-2100</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>-1500</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>-1100</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>-2100</v>
       </c>
-      <c r="K23" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="M23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E24" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F24" s="3">
+        <v>0</v>
+      </c>
+      <c r="G24" s="3">
         <v>100</v>
       </c>
-      <c r="F24" s="3">
-        <v>0</v>
-      </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
+        <v>0</v>
+      </c>
+      <c r="I24" s="3">
         <v>-500</v>
       </c>
-      <c r="H24" s="3">
+      <c r="J24" s="3">
         <v>-400</v>
       </c>
-      <c r="I24" s="3">
+      <c r="K24" s="3">
         <v>-300</v>
       </c>
-      <c r="J24" s="3">
+      <c r="L24" s="3">
         <v>-500</v>
       </c>
-      <c r="K24" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="25" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="M24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1184,66 +1281,84 @@
       <c r="K25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L25" s="3">
+        <v>0</v>
+      </c>
+      <c r="M25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>4100</v>
+      </c>
+      <c r="E26" s="3">
+        <v>-4400</v>
+      </c>
+      <c r="F26" s="3">
         <v>-8200</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>4000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>2500</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>-1600</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>-1100</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>-800</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>-1600</v>
       </c>
-      <c r="K26" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="27" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="M26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>4100</v>
+      </c>
+      <c r="E27" s="3">
+        <v>-4400</v>
+      </c>
+      <c r="F27" s="3">
         <v>-8200</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>4400</v>
       </c>
-      <c r="F27" s="3">
-        <v>0</v>
-      </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
+        <v>0</v>
+      </c>
+      <c r="I27" s="3">
         <v>-1600</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>-1100</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>-1300</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>-7300</v>
       </c>
-      <c r="K27" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="28" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="M27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1271,13 +1386,19 @@
       <c r="K28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L28" s="3">
+        <v>0</v>
+      </c>
+      <c r="M28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D29" s="3">
-        <v>0</v>
+      <c r="D29" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E29" s="3">
         <v>0</v>
@@ -1286,22 +1407,28 @@
         <v>0</v>
       </c>
       <c r="G29" s="3">
+        <v>0</v>
+      </c>
+      <c r="H29" s="3">
+        <v>0</v>
+      </c>
+      <c r="I29" s="3">
         <v>100</v>
       </c>
-      <c r="H29" s="3">
-        <v>0</v>
-      </c>
-      <c r="I29" s="3">
-        <v>0</v>
-      </c>
       <c r="J29" s="3">
+        <v>0</v>
+      </c>
+      <c r="K29" s="3">
+        <v>0</v>
+      </c>
+      <c r="L29" s="3">
         <v>5700</v>
       </c>
-      <c r="K29" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="30" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="M29" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1329,8 +1456,14 @@
       <c r="K30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L30" s="3">
+        <v>0</v>
+      </c>
+      <c r="M30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1358,66 +1491,84 @@
       <c r="K31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L31" s="3">
+        <v>0</v>
+      </c>
+      <c r="M31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E32" s="3">
+        <v>5600</v>
+      </c>
+      <c r="F32" s="3">
         <v>11200</v>
       </c>
-      <c r="E32" s="3">
+      <c r="G32" s="3">
         <v>1200</v>
       </c>
-      <c r="F32" s="3">
+      <c r="H32" s="3">
         <v>600</v>
       </c>
-      <c r="G32" s="3">
+      <c r="I32" s="3">
         <v>1400</v>
       </c>
-      <c r="H32" s="3">
+      <c r="J32" s="3">
         <v>900</v>
       </c>
-      <c r="I32" s="3">
+      <c r="K32" s="3">
         <v>500</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>200</v>
       </c>
-      <c r="K32" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="M32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>4100</v>
+      </c>
+      <c r="E33" s="3">
+        <v>-4400</v>
+      </c>
+      <c r="F33" s="3">
         <v>-8200</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>4400</v>
       </c>
-      <c r="F33" s="3">
-        <v>0</v>
-      </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
+        <v>0</v>
+      </c>
+      <c r="I33" s="3">
         <v>-1600</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>-1100</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>-1300</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>-1600</v>
       </c>
-      <c r="K33" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="M33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1445,71 +1596,89 @@
       <c r="K34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L34" s="3">
+        <v>0</v>
+      </c>
+      <c r="M34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>4100</v>
+      </c>
+      <c r="E35" s="3">
+        <v>-4400</v>
+      </c>
+      <c r="F35" s="3">
         <v>-8200</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>4400</v>
       </c>
-      <c r="F35" s="3">
-        <v>0</v>
-      </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
+        <v>0</v>
+      </c>
+      <c r="I35" s="3">
         <v>-1600</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>-1100</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>-1300</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>-1600</v>
       </c>
-      <c r="K35" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="M35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E38" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F38" s="2">
         <v>43738</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>43646</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>43555</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43465</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43373</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43281</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43190</v>
       </c>
-      <c r="K38" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="M38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1521,8 +1690,10 @@
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
-    </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L39" s="3"/>
+      <c r="M39" s="3"/>
+    </row>
+    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1534,26 +1705,28 @@
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
-    </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L40" s="3"/>
+      <c r="M40" s="3"/>
+    </row>
+    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>91600</v>
+      </c>
+      <c r="E41" s="3">
+        <v>80400</v>
+      </c>
+      <c r="F41" s="3">
         <v>7700</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>300</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>400</v>
       </c>
-      <c r="G41" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I41" s="3" t="s">
         <v>3</v>
       </c>
@@ -1563,8 +1736,14 @@
       <c r="K41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1592,26 +1771,32 @@
       <c r="K42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L42" s="3">
+        <v>0</v>
+      </c>
+      <c r="M42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>65900</v>
+      </c>
+      <c r="E43" s="3">
+        <v>47100</v>
+      </c>
+      <c r="F43" s="3">
         <v>44300</v>
       </c>
-      <c r="E43" s="3">
+      <c r="G43" s="3">
         <v>44200</v>
       </c>
-      <c r="F43" s="3">
+      <c r="H43" s="3">
         <v>40700</v>
       </c>
-      <c r="G43" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I43" s="3" t="s">
         <v>3</v>
       </c>
@@ -1621,8 +1806,14 @@
       <c r="K43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1650,25 +1841,31 @@
       <c r="K44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L44" s="3">
+        <v>0</v>
+      </c>
+      <c r="M44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>4400</v>
+      </c>
+      <c r="E45" s="3">
+        <v>5000</v>
+      </c>
+      <c r="F45" s="3">
         <v>1300</v>
       </c>
-      <c r="E45" s="3">
+      <c r="G45" s="3">
         <v>1300</v>
       </c>
-      <c r="F45" s="3">
-        <v>0</v>
-      </c>
-      <c r="G45" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H45" s="3" t="s">
-        <v>3</v>
+      <c r="H45" s="3">
+        <v>0</v>
       </c>
       <c r="I45" s="3" t="s">
         <v>3</v>
@@ -1679,26 +1876,32 @@
       <c r="K45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>161900</v>
+      </c>
+      <c r="E46" s="3">
+        <v>132400</v>
+      </c>
+      <c r="F46" s="3">
         <v>53300</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>45800</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>41100</v>
       </c>
-      <c r="G46" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I46" s="3" t="s">
         <v>3</v>
       </c>
@@ -1708,8 +1911,14 @@
       <c r="K46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L46" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -1737,26 +1946,32 @@
       <c r="K47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L47" s="3">
+        <v>0</v>
+      </c>
+      <c r="M47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>3700</v>
+      </c>
+      <c r="E48" s="3">
+        <v>3100</v>
+      </c>
+      <c r="F48" s="3">
         <v>1000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="G48" s="3">
         <v>700</v>
       </c>
-      <c r="F48" s="3">
+      <c r="H48" s="3">
         <v>800</v>
       </c>
-      <c r="G48" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I48" s="3" t="s">
         <v>3</v>
       </c>
@@ -1766,26 +1981,32 @@
       <c r="K48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>13900</v>
+      </c>
+      <c r="E49" s="3">
+        <v>14300</v>
+      </c>
+      <c r="F49" s="3">
         <v>14600</v>
       </c>
-      <c r="E49" s="3">
+      <c r="G49" s="3">
         <v>15000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="H49" s="3">
         <v>15400</v>
       </c>
-      <c r="G49" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I49" s="3" t="s">
         <v>3</v>
       </c>
@@ -1795,8 +2016,14 @@
       <c r="K49" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1824,8 +2051,14 @@
       <c r="K50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L50" s="3">
+        <v>0</v>
+      </c>
+      <c r="M50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1853,26 +2086,32 @@
       <c r="K51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L51" s="3">
+        <v>0</v>
+      </c>
+      <c r="M51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>600</v>
+      </c>
+      <c r="E52" s="3">
+        <v>700</v>
+      </c>
+      <c r="F52" s="3">
         <v>3600</v>
       </c>
-      <c r="E52" s="3">
+      <c r="G52" s="3">
         <v>1600</v>
       </c>
-      <c r="F52" s="3">
+      <c r="H52" s="3">
         <v>300</v>
       </c>
-      <c r="G52" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I52" s="3" t="s">
         <v>3</v>
       </c>
@@ -1882,8 +2121,14 @@
       <c r="K52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1911,26 +2156,32 @@
       <c r="K53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L53" s="3">
+        <v>0</v>
+      </c>
+      <c r="M53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>180100</v>
+      </c>
+      <c r="E54" s="3">
+        <v>150400</v>
+      </c>
+      <c r="F54" s="3">
         <v>72600</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>63100</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>57500</v>
       </c>
-      <c r="G54" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I54" s="3" t="s">
         <v>3</v>
       </c>
@@ -1940,8 +2191,14 @@
       <c r="K54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1953,8 +2210,10 @@
       <c r="I55" s="3"/>
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
-    </row>
-    <row r="56" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L55" s="3"/>
+      <c r="M55" s="3"/>
+    </row>
+    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -1966,26 +2225,28 @@
       <c r="I56" s="3"/>
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
-    </row>
-    <row r="57" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L56" s="3"/>
+      <c r="M56" s="3"/>
+    </row>
+    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>39400</v>
+      </c>
+      <c r="E57" s="3">
+        <v>19400</v>
+      </c>
+      <c r="F57" s="3">
         <v>23500</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>23500</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>19000</v>
       </c>
-      <c r="G57" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I57" s="3" t="s">
         <v>3</v>
       </c>
@@ -1995,26 +2256,32 @@
       <c r="K57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D58" s="3">
-        <v>0</v>
+      <c r="D58" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E58" s="3">
+        <v>0</v>
+      </c>
+      <c r="F58" s="3">
+        <v>0</v>
+      </c>
+      <c r="G58" s="3">
         <v>3100</v>
       </c>
-      <c r="F58" s="3">
+      <c r="H58" s="3">
         <v>6600</v>
       </c>
-      <c r="G58" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I58" s="3" t="s">
         <v>3</v>
       </c>
@@ -2024,26 +2291,32 @@
       <c r="K58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>19600</v>
+      </c>
+      <c r="E59" s="3">
+        <v>16800</v>
+      </c>
+      <c r="F59" s="3">
         <v>34100</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>19700</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>17800</v>
       </c>
-      <c r="G59" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I59" s="3" t="s">
         <v>3</v>
       </c>
@@ -2053,26 +2326,32 @@
       <c r="K59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>59100</v>
+      </c>
+      <c r="E60" s="3">
+        <v>36200</v>
+      </c>
+      <c r="F60" s="3">
         <v>57600</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>46400</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>43300</v>
       </c>
-      <c r="G60" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I60" s="3" t="s">
         <v>3</v>
       </c>
@@ -2082,8 +2361,14 @@
       <c r="K60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L60" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2111,8 +2396,14 @@
       <c r="K61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L61" s="3">
+        <v>0</v>
+      </c>
+      <c r="M61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2140,8 +2431,14 @@
       <c r="K62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L62" s="3">
+        <v>0</v>
+      </c>
+      <c r="M62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2169,8 +2466,14 @@
       <c r="K63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L63" s="3">
+        <v>0</v>
+      </c>
+      <c r="M63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2198,8 +2501,14 @@
       <c r="K64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L64" s="3">
+        <v>0</v>
+      </c>
+      <c r="M64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2227,26 +2536,32 @@
       <c r="K65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L65" s="3">
+        <v>0</v>
+      </c>
+      <c r="M65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>59100</v>
+      </c>
+      <c r="E66" s="3">
+        <v>36200</v>
+      </c>
+      <c r="F66" s="3">
         <v>57600</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>46400</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>43300</v>
       </c>
-      <c r="G66" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I66" s="3" t="s">
         <v>3</v>
       </c>
@@ -2256,8 +2571,14 @@
       <c r="K66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2269,8 +2590,10 @@
       <c r="I67" s="3"/>
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
-    </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L67" s="3"/>
+      <c r="M67" s="3"/>
+    </row>
+    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2298,8 +2621,14 @@
       <c r="K68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L68" s="3">
+        <v>0</v>
+      </c>
+      <c r="M68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2327,25 +2656,31 @@
       <c r="K69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L69" s="3">
+        <v>0</v>
+      </c>
+      <c r="M69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
       <c r="D70" s="3">
-        <v>106200</v>
+        <v>0</v>
       </c>
       <c r="E70" s="3">
-        <v>106200</v>
+        <v>0</v>
       </c>
       <c r="F70" s="3">
         <v>106200</v>
       </c>
       <c r="G70" s="3">
-        <v>0</v>
+        <v>106200</v>
       </c>
       <c r="H70" s="3">
-        <v>0</v>
+        <v>106200</v>
       </c>
       <c r="I70" s="3">
         <v>0</v>
@@ -2356,8 +2691,14 @@
       <c r="K70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L70" s="3">
+        <v>0</v>
+      </c>
+      <c r="M70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2385,26 +2726,32 @@
       <c r="K71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L71" s="3">
+        <v>0</v>
+      </c>
+      <c r="M71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-109400</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-113500</v>
+      </c>
+      <c r="F72" s="3">
         <v>-109100</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-100800</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-102300</v>
       </c>
-      <c r="G72" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I72" s="3" t="s">
         <v>3</v>
       </c>
@@ -2414,8 +2761,14 @@
       <c r="K72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2443,8 +2796,14 @@
       <c r="K73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L73" s="3">
+        <v>0</v>
+      </c>
+      <c r="M73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2472,8 +2831,14 @@
       <c r="K74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L74" s="3">
+        <v>0</v>
+      </c>
+      <c r="M74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2501,26 +2866,32 @@
       <c r="K75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L75" s="3">
+        <v>0</v>
+      </c>
+      <c r="M75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>121100</v>
+      </c>
+      <c r="E76" s="3">
+        <v>114300</v>
+      </c>
+      <c r="F76" s="3">
         <v>-91300</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>-89500</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>-92100</v>
       </c>
-      <c r="G76" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I76" s="3" t="s">
         <v>3</v>
       </c>
@@ -2530,8 +2901,14 @@
       <c r="K76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2559,71 +2936,89 @@
       <c r="K77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L77" s="3">
+        <v>0</v>
+      </c>
+      <c r="M77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E80" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F80" s="2">
         <v>43738</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>43646</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>43555</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43465</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43373</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43281</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43190</v>
       </c>
-      <c r="K80" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="81" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="M80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>4100</v>
+      </c>
+      <c r="E81" s="3">
+        <v>-4400</v>
+      </c>
+      <c r="F81" s="3">
         <v>-8200</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>4400</v>
       </c>
-      <c r="F81" s="3">
-        <v>0</v>
-      </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
+        <v>0</v>
+      </c>
+      <c r="I81" s="3">
         <v>-1600</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>-1100</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>-1300</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>-1600</v>
       </c>
-      <c r="K81" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="82" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="M81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2635,8 +3030,10 @@
       <c r="I82" s="3"/>
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
-    </row>
-    <row r="83" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L82" s="3"/>
+      <c r="M82" s="3"/>
+    </row>
+    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -2644,13 +3041,13 @@
         <v>500</v>
       </c>
       <c r="E83" s="3">
-        <v>1100</v>
+        <v>500</v>
       </c>
       <c r="F83" s="3">
         <v>500</v>
       </c>
       <c r="G83" s="3">
-        <v>500</v>
+        <v>1100</v>
       </c>
       <c r="H83" s="3">
         <v>500</v>
@@ -2659,13 +3056,19 @@
         <v>500</v>
       </c>
       <c r="J83" s="3">
+        <v>500</v>
+      </c>
+      <c r="K83" s="3">
+        <v>500</v>
+      </c>
+      <c r="L83" s="3">
         <v>400</v>
       </c>
-      <c r="K83" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="84" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="M83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2693,8 +3096,14 @@
       <c r="K84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L84" s="3">
+        <v>0</v>
+      </c>
+      <c r="M84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2722,8 +3131,14 @@
       <c r="K85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L85" s="3">
+        <v>0</v>
+      </c>
+      <c r="M85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2751,8 +3166,14 @@
       <c r="K86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L86" s="3">
+        <v>0</v>
+      </c>
+      <c r="M86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2780,8 +3201,14 @@
       <c r="K87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L87" s="3">
+        <v>0</v>
+      </c>
+      <c r="M87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2809,37 +3236,49 @@
       <c r="K88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L88" s="3">
+        <v>0</v>
+      </c>
+      <c r="M88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>12100</v>
+      </c>
+      <c r="E89" s="3">
+        <v>-5500</v>
+      </c>
+      <c r="F89" s="3">
         <v>5900</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>-1900</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>-6200</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>4100</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>-500</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>3100</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>-4300</v>
       </c>
-      <c r="K89" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="90" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="M89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2851,37 +3290,45 @@
       <c r="I90" s="3"/>
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
-    </row>
-    <row r="91" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L90" s="3"/>
+      <c r="M90" s="3"/>
+    </row>
+    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-700</v>
+      </c>
+      <c r="E91" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="F91" s="3">
         <v>-400</v>
       </c>
-      <c r="E91" s="3">
+      <c r="G91" s="3">
         <v>-300</v>
       </c>
-      <c r="F91" s="3">
+      <c r="H91" s="3">
         <v>-100</v>
       </c>
-      <c r="G91" s="3">
+      <c r="I91" s="3">
         <v>-200</v>
       </c>
-      <c r="H91" s="3">
-        <v>0</v>
-      </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
+        <v>0</v>
+      </c>
+      <c r="K91" s="3">
         <v>-100</v>
       </c>
-      <c r="J91" s="3">
+      <c r="L91" s="3">
         <v>-300</v>
       </c>
-      <c r="K91" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="92" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="M91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2909,8 +3356,14 @@
       <c r="K92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L92" s="3">
+        <v>0</v>
+      </c>
+      <c r="M92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -2938,37 +3391,49 @@
       <c r="K93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L93" s="3">
+        <v>0</v>
+      </c>
+      <c r="M93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-700</v>
+      </c>
+      <c r="E94" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="F94" s="3">
         <v>-400</v>
-      </c>
-      <c r="E94" s="3">
-        <v>-100</v>
-      </c>
-      <c r="F94" s="3">
-        <v>100</v>
       </c>
       <c r="G94" s="3">
         <v>-100</v>
       </c>
       <c r="H94" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I94" s="3">
         <v>-100</v>
       </c>
       <c r="J94" s="3">
+        <v>0</v>
+      </c>
+      <c r="K94" s="3">
+        <v>-100</v>
+      </c>
+      <c r="L94" s="3">
         <v>2200</v>
       </c>
-      <c r="K94" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="95" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="M94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -2980,8 +3445,10 @@
       <c r="I95" s="3"/>
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
-    </row>
-    <row r="96" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L95" s="3"/>
+      <c r="M95" s="3"/>
+    </row>
+    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3009,8 +3476,14 @@
       <c r="K96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L96" s="3">
+        <v>0</v>
+      </c>
+      <c r="M96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3038,8 +3511,14 @@
       <c r="K97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L97" s="3">
+        <v>0</v>
+      </c>
+      <c r="M97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3067,8 +3546,14 @@
       <c r="K98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L98" s="3">
+        <v>0</v>
+      </c>
+      <c r="M98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3096,37 +3581,49 @@
       <c r="K99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L99" s="3">
+        <v>0</v>
+      </c>
+      <c r="M99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E100" s="3">
+        <v>80500</v>
+      </c>
+      <c r="F100" s="3">
         <v>1900</v>
       </c>
-      <c r="E100" s="3">
+      <c r="G100" s="3">
         <v>2200</v>
       </c>
-      <c r="F100" s="3">
+      <c r="H100" s="3">
         <v>6300</v>
       </c>
-      <c r="G100" s="3">
+      <c r="I100" s="3">
         <v>-4000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="J100" s="3">
         <v>400</v>
       </c>
-      <c r="I100" s="3">
+      <c r="K100" s="3">
         <v>-4200</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>-900</v>
       </c>
-      <c r="K100" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="101" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="M100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3154,33 +3651,45 @@
       <c r="K101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L101" s="3">
+        <v>0</v>
+      </c>
+      <c r="M101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>11300</v>
+      </c>
+      <c r="E102" s="3">
+        <v>72700</v>
+      </c>
+      <c r="F102" s="3">
         <v>7400</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>200</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>200</v>
       </c>
-      <c r="G102" s="3">
-        <v>0</v>
-      </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
+        <v>0</v>
+      </c>
+      <c r="J102" s="3">
         <v>-200</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>-1200</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>-3100</v>
       </c>
-      <c r="K102" s="3" t="s">
+      <c r="M102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/PGNY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/PGNY_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="92">
   <si>
     <t>PGNY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:M102"/>
+  <dimension ref="A5:N102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,168 +665,181 @@
     <col min="1" max="1" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E7" s="2">
         <v>43921</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43830</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43738</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43646</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43555</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43465</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43373</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43281</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43190</v>
       </c>
-      <c r="M7" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>64600</v>
+      </c>
+      <c r="E8" s="3">
         <v>81000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>65100</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>61200</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>103400</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>47200</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>29200</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>27800</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>26200</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>22300</v>
       </c>
-      <c r="M8" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>52700</v>
+      </c>
+      <c r="E9" s="3">
         <v>64400</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>53400</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>48900</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>81900</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>37200</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>23800</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>22800</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>21100</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>18300</v>
       </c>
-      <c r="M9" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>12000</v>
+      </c>
+      <c r="E10" s="3">
         <v>16600</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>11700</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>12300</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>21500</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>10000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>5400</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>5000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>5100</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>4000</v>
       </c>
-      <c r="M10" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -840,8 +853,9 @@
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N11" s="3"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -875,8 +889,11 @@
       <c r="M12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -910,8 +927,11 @@
       <c r="M13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -921,14 +941,14 @@
       <c r="E14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F14" s="3">
-        <v>200</v>
+      <c r="F14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="G14" s="3">
         <v>200</v>
       </c>
-      <c r="H14" s="3" t="s">
-        <v>3</v>
+      <c r="H14" s="3">
+        <v>200</v>
       </c>
       <c r="I14" s="3" t="s">
         <v>3</v>
@@ -945,8 +965,11 @@
       <c r="M14" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N14" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -980,8 +1003,11 @@
       <c r="M15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -992,78 +1018,85 @@
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
-    </row>
-    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N16" s="3"/>
+    </row>
+    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>66400</v>
+      </c>
+      <c r="E17" s="3">
         <v>77200</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>64000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>58100</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>97900</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>44100</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>29900</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>28400</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>26500</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>24100</v>
       </c>
-      <c r="M17" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="E18" s="3">
         <v>3800</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>1100</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>3100</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>5500</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>3100</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-700</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-600</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-300</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-1800</v>
       </c>
-      <c r="M18" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1077,78 +1110,85 @@
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
-    </row>
-    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N19" s="3"/>
+    </row>
+    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>0</v>
+      </c>
+      <c r="E20" s="3">
         <v>300</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-5600</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-11200</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-1200</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-600</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-1400</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-900</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-500</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-200</v>
       </c>
-      <c r="M20" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="E21" s="3">
         <v>4700</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-3900</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-7600</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>5300</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>3100</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-1600</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-1000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-300</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-1600</v>
       </c>
-      <c r="M21" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1158,15 +1198,15 @@
       <c r="E22" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F22" s="3">
-        <v>0</v>
+      <c r="F22" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="G22" s="3">
+        <v>0</v>
+      </c>
+      <c r="H22" s="3">
         <v>200</v>
       </c>
-      <c r="H22" s="3">
-        <v>0</v>
-      </c>
       <c r="I22" s="3">
         <v>0</v>
       </c>
@@ -1174,86 +1214,95 @@
         <v>0</v>
       </c>
       <c r="K22" s="3">
+        <v>0</v>
+      </c>
+      <c r="L22" s="3">
         <v>300</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>100</v>
       </c>
-      <c r="M22" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N22" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="E23" s="3">
         <v>4200</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-4500</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-8200</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>4100</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>2500</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-2100</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-1500</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-1100</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-2100</v>
       </c>
-      <c r="M23" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>0</v>
+      </c>
+      <c r="E24" s="3">
         <v>100</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>-100</v>
       </c>
-      <c r="F24" s="3">
-        <v>0</v>
-      </c>
       <c r="G24" s="3">
+        <v>0</v>
+      </c>
+      <c r="H24" s="3">
         <v>100</v>
       </c>
-      <c r="H24" s="3">
-        <v>0</v>
-      </c>
       <c r="I24" s="3">
+        <v>0</v>
+      </c>
+      <c r="J24" s="3">
         <v>-500</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>-400</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>-300</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>-500</v>
       </c>
-      <c r="M24" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1287,78 +1336,87 @@
       <c r="M25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="E26" s="3">
         <v>4100</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-4400</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-8200</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>4000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>2500</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-1600</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-1100</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-800</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-1600</v>
       </c>
-      <c r="M26" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="E27" s="3">
         <v>4100</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-4400</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-8200</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>4400</v>
       </c>
-      <c r="H27" s="3">
-        <v>0</v>
-      </c>
       <c r="I27" s="3">
+        <v>0</v>
+      </c>
+      <c r="J27" s="3">
         <v>-1600</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-1100</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-1300</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-7300</v>
       </c>
-      <c r="M27" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1392,16 +1450,19 @@
       <c r="M28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E29" s="3">
-        <v>0</v>
+      <c r="E29" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="F29" s="3">
         <v>0</v>
@@ -1413,22 +1474,25 @@
         <v>0</v>
       </c>
       <c r="I29" s="3">
+        <v>0</v>
+      </c>
+      <c r="J29" s="3">
         <v>100</v>
       </c>
-      <c r="J29" s="3">
-        <v>0</v>
-      </c>
       <c r="K29" s="3">
         <v>0</v>
       </c>
       <c r="L29" s="3">
+        <v>0</v>
+      </c>
+      <c r="M29" s="3">
         <v>5700</v>
       </c>
-      <c r="M29" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N29" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1462,8 +1526,11 @@
       <c r="M30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1497,78 +1564,87 @@
       <c r="M31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>0</v>
+      </c>
+      <c r="E32" s="3">
         <v>-300</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>5600</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>11200</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>1200</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>600</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>1400</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>900</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>500</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>200</v>
       </c>
-      <c r="M32" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="E33" s="3">
         <v>4100</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-4400</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-8200</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>4400</v>
       </c>
-      <c r="H33" s="3">
-        <v>0</v>
-      </c>
       <c r="I33" s="3">
+        <v>0</v>
+      </c>
+      <c r="J33" s="3">
         <v>-1600</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-1100</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-1300</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-1600</v>
       </c>
-      <c r="M33" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1602,83 +1678,92 @@
       <c r="M34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="E35" s="3">
         <v>4100</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-4400</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-8200</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>4400</v>
       </c>
-      <c r="H35" s="3">
-        <v>0</v>
-      </c>
       <c r="I35" s="3">
+        <v>0</v>
+      </c>
+      <c r="J35" s="3">
         <v>-1600</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-1100</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-1300</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-1600</v>
       </c>
-      <c r="M35" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E38" s="2">
         <v>43921</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43830</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43738</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43646</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43555</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43465</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43373</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43281</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43190</v>
       </c>
-      <c r="M38" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1692,8 +1777,9 @@
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
-    </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N39" s="3"/>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1707,29 +1793,30 @@
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
-    </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N40" s="3"/>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>91400</v>
+      </c>
+      <c r="E41" s="3">
         <v>91600</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>80400</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>7700</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>300</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>400</v>
       </c>
-      <c r="I41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J41" s="3" t="s">
         <v>3</v>
       </c>
@@ -1742,8 +1829,11 @@
       <c r="M41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1777,29 +1867,32 @@
       <c r="M42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>65000</v>
+      </c>
+      <c r="E43" s="3">
         <v>65900</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>47100</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>44300</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>44200</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>40700</v>
       </c>
-      <c r="I43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J43" s="3" t="s">
         <v>3</v>
       </c>
@@ -1812,8 +1905,11 @@
       <c r="M43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1847,28 +1943,31 @@
       <c r="M44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>3300</v>
+      </c>
+      <c r="E45" s="3">
         <v>4400</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>5000</v>
-      </c>
-      <c r="F45" s="3">
-        <v>1300</v>
       </c>
       <c r="G45" s="3">
         <v>1300</v>
       </c>
       <c r="H45" s="3">
-        <v>0</v>
-      </c>
-      <c r="I45" s="3" t="s">
-        <v>3</v>
+        <v>1300</v>
+      </c>
+      <c r="I45" s="3">
+        <v>0</v>
       </c>
       <c r="J45" s="3" t="s">
         <v>3</v>
@@ -1882,29 +1981,32 @@
       <c r="M45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>159700</v>
+      </c>
+      <c r="E46" s="3">
         <v>161900</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>132400</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>53300</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>45800</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>41100</v>
       </c>
-      <c r="I46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J46" s="3" t="s">
         <v>3</v>
       </c>
@@ -1917,8 +2019,11 @@
       <c r="M46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -1952,29 +2057,32 @@
       <c r="M47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>3600</v>
+      </c>
+      <c r="E48" s="3">
         <v>3700</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>3100</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>1000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>700</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>800</v>
       </c>
-      <c r="I48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J48" s="3" t="s">
         <v>3</v>
       </c>
@@ -1987,29 +2095,32 @@
       <c r="M48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>13600</v>
+      </c>
+      <c r="E49" s="3">
         <v>13900</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>14300</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>14600</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>15000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>15400</v>
       </c>
-      <c r="I49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J49" s="3" t="s">
         <v>3</v>
       </c>
@@ -2022,8 +2133,11 @@
       <c r="M49" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2057,8 +2171,11 @@
       <c r="M50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2092,8 +2209,11 @@
       <c r="M51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2101,20 +2221,20 @@
         <v>600</v>
       </c>
       <c r="E52" s="3">
+        <v>600</v>
+      </c>
+      <c r="F52" s="3">
         <v>700</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>3600</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>1600</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>300</v>
       </c>
-      <c r="I52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2127,8 +2247,11 @@
       <c r="M52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2162,29 +2285,32 @@
       <c r="M53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>177600</v>
+      </c>
+      <c r="E54" s="3">
         <v>180100</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>150400</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>72600</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>63100</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>57500</v>
       </c>
-      <c r="I54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2197,8 +2323,11 @@
       <c r="M54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2212,8 +2341,9 @@
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
-    </row>
-    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N55" s="3"/>
+    </row>
+    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2227,29 +2357,30 @@
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
-    </row>
-    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N56" s="3"/>
+    </row>
+    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>31900</v>
+      </c>
+      <c r="E57" s="3">
         <v>39400</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>19400</v>
-      </c>
-      <c r="F57" s="3">
-        <v>23500</v>
       </c>
       <c r="G57" s="3">
         <v>23500</v>
       </c>
       <c r="H57" s="3">
+        <v>23500</v>
+      </c>
+      <c r="I57" s="3">
         <v>19000</v>
       </c>
-      <c r="I57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J57" s="3" t="s">
         <v>3</v>
       </c>
@@ -2262,29 +2393,32 @@
       <c r="M57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E58" s="3">
-        <v>0</v>
+      <c r="E58" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="F58" s="3">
         <v>0</v>
       </c>
       <c r="G58" s="3">
+        <v>0</v>
+      </c>
+      <c r="H58" s="3">
         <v>3100</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>6600</v>
       </c>
-      <c r="I58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J58" s="3" t="s">
         <v>3</v>
       </c>
@@ -2297,29 +2431,32 @@
       <c r="M58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>25700</v>
+      </c>
+      <c r="E59" s="3">
         <v>19600</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>16800</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>34100</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>19700</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>17800</v>
       </c>
-      <c r="I59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J59" s="3" t="s">
         <v>3</v>
       </c>
@@ -2332,29 +2469,32 @@
       <c r="M59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>57700</v>
+      </c>
+      <c r="E60" s="3">
         <v>59100</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>36200</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>57600</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>46400</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>43300</v>
       </c>
-      <c r="I60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J60" s="3" t="s">
         <v>3</v>
       </c>
@@ -2367,8 +2507,11 @@
       <c r="M60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2402,22 +2545,25 @@
       <c r="M61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>0</v>
-      </c>
-      <c r="E62" s="3">
-        <v>0</v>
-      </c>
-      <c r="F62" s="3">
-        <v>0</v>
-      </c>
-      <c r="G62" s="3">
-        <v>0</v>
+        <v>300</v>
+      </c>
+      <c r="E62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G62" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="H62" s="3">
         <v>0</v>
@@ -2425,8 +2571,8 @@
       <c r="I62" s="3">
         <v>0</v>
       </c>
-      <c r="J62" s="3">
-        <v>0</v>
+      <c r="J62" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K62" s="3">
         <v>0</v>
@@ -2437,8 +2583,11 @@
       <c r="M62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2472,8 +2621,11 @@
       <c r="M63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2507,8 +2659,11 @@
       <c r="M64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2542,29 +2697,32 @@
       <c r="M65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>58000</v>
+      </c>
+      <c r="E66" s="3">
         <v>59100</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>36200</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>57600</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>46400</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>43300</v>
       </c>
-      <c r="I66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J66" s="3" t="s">
         <v>3</v>
       </c>
@@ -2577,8 +2735,11 @@
       <c r="M66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2592,8 +2753,9 @@
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
-    </row>
-    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N67" s="3"/>
+    </row>
+    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2627,8 +2789,11 @@
       <c r="M68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2662,8 +2827,11 @@
       <c r="M69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2674,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="F70" s="3">
-        <v>106200</v>
+        <v>0</v>
       </c>
       <c r="G70" s="3">
         <v>106200</v>
@@ -2683,7 +2851,7 @@
         <v>106200</v>
       </c>
       <c r="I70" s="3">
-        <v>0</v>
+        <v>106200</v>
       </c>
       <c r="J70" s="3">
         <v>0</v>
@@ -2697,8 +2865,11 @@
       <c r="M70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2732,29 +2903,32 @@
       <c r="M71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-111200</v>
+      </c>
+      <c r="E72" s="3">
         <v>-109400</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-113500</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-109100</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-100800</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-102300</v>
       </c>
-      <c r="I72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J72" s="3" t="s">
         <v>3</v>
       </c>
@@ -2767,8 +2941,11 @@
       <c r="M72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2802,8 +2979,11 @@
       <c r="M73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2837,8 +3017,11 @@
       <c r="M74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2872,29 +3055,32 @@
       <c r="M75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>119600</v>
+      </c>
+      <c r="E76" s="3">
         <v>121100</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>114300</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>-91300</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>-89500</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>-92100</v>
       </c>
-      <c r="I76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J76" s="3" t="s">
         <v>3</v>
       </c>
@@ -2907,8 +3093,11 @@
       <c r="M76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2942,83 +3131,92 @@
       <c r="M77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E80" s="2">
         <v>43921</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43830</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43738</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43646</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43555</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43465</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43373</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43281</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43190</v>
       </c>
-      <c r="M80" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="E81" s="3">
         <v>4100</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-4400</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-8200</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>4400</v>
       </c>
-      <c r="H81" s="3">
-        <v>0</v>
-      </c>
       <c r="I81" s="3">
+        <v>0</v>
+      </c>
+      <c r="J81" s="3">
         <v>-1600</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-1100</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-1300</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-1600</v>
       </c>
-      <c r="M81" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3032,8 +3230,9 @@
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
-    </row>
-    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N82" s="3"/>
+    </row>
+    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3047,10 +3246,10 @@
         <v>500</v>
       </c>
       <c r="G83" s="3">
+        <v>500</v>
+      </c>
+      <c r="H83" s="3">
         <v>1100</v>
-      </c>
-      <c r="H83" s="3">
-        <v>500</v>
       </c>
       <c r="I83" s="3">
         <v>500</v>
@@ -3062,13 +3261,16 @@
         <v>500</v>
       </c>
       <c r="L83" s="3">
+        <v>500</v>
+      </c>
+      <c r="M83" s="3">
         <v>400</v>
       </c>
-      <c r="M83" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3102,8 +3304,11 @@
       <c r="M84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3137,8 +3342,11 @@
       <c r="M85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3172,8 +3380,11 @@
       <c r="M86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3207,8 +3418,11 @@
       <c r="M87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3242,43 +3456,49 @@
       <c r="M88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>2200</v>
+      </c>
+      <c r="E89" s="3">
         <v>12100</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-5500</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>5900</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-1900</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-6200</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>4100</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-500</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>3100</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-4300</v>
       </c>
-      <c r="M89" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3292,43 +3512,47 @@
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
-    </row>
-    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N90" s="3"/>
+    </row>
+    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E91" s="3">
         <v>-700</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-2300</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-400</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-300</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-100</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-200</v>
       </c>
-      <c r="J91" s="3">
-        <v>0</v>
-      </c>
       <c r="K91" s="3">
+        <v>0</v>
+      </c>
+      <c r="L91" s="3">
         <v>-100</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-300</v>
       </c>
-      <c r="M91" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3362,8 +3586,11 @@
       <c r="M92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3397,43 +3624,49 @@
       <c r="M93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-42100</v>
+      </c>
+      <c r="E94" s="3">
         <v>-700</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-2300</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-400</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-100</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>100</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-100</v>
       </c>
-      <c r="J94" s="3">
-        <v>0</v>
-      </c>
       <c r="K94" s="3">
+        <v>0</v>
+      </c>
+      <c r="L94" s="3">
         <v>-100</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>2200</v>
       </c>
-      <c r="M94" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3447,8 +3680,9 @@
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
-    </row>
-    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N95" s="3"/>
+    </row>
+    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3482,8 +3716,11 @@
       <c r="M96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3517,8 +3754,11 @@
       <c r="M97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3552,8 +3792,11 @@
       <c r="M98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3587,43 +3830,49 @@
       <c r="M99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-2400</v>
+      </c>
+      <c r="E100" s="3">
         <v>-200</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>80500</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>1900</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>2200</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>6300</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-4000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>400</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-4200</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-900</v>
       </c>
-      <c r="M100" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3657,39 +3906,45 @@
       <c r="M101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-42200</v>
+      </c>
+      <c r="E102" s="3">
         <v>11300</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>72700</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>7400</v>
-      </c>
-      <c r="G102" s="3">
-        <v>200</v>
       </c>
       <c r="H102" s="3">
         <v>200</v>
       </c>
       <c r="I102" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="J102" s="3">
+        <v>0</v>
+      </c>
+      <c r="K102" s="3">
         <v>-200</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-1200</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-3100</v>
       </c>
-      <c r="M102" s="3" t="s">
+      <c r="N102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/PGNY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/PGNY_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="92">
   <si>
     <t>PGNY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:N102"/>
+  <dimension ref="A5:O102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,181 +665,194 @@
     <col min="1" max="1" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E7" s="2">
         <v>44012</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43921</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43830</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43738</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43646</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43555</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43465</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43373</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43281</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43190</v>
       </c>
-      <c r="N7" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>98900</v>
+      </c>
+      <c r="E8" s="3">
         <v>64600</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>81000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>65100</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>61200</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>103400</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>47200</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>29200</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>27800</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>26200</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>22300</v>
       </c>
-      <c r="N8" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>78100</v>
+      </c>
+      <c r="E9" s="3">
         <v>52700</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>64400</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>53400</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>48900</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>81900</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>37200</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>23800</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>22800</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>21100</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>18300</v>
       </c>
-      <c r="N9" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>20800</v>
+      </c>
+      <c r="E10" s="3">
         <v>12000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>16600</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>11700</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>12300</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>21500</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>10000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>5400</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>5000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>5100</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>4000</v>
       </c>
-      <c r="N10" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -854,8 +867,9 @@
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O11" s="3"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -892,8 +906,11 @@
       <c r="N12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -930,8 +947,11 @@
       <c r="N13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -945,13 +965,13 @@
         <v>3</v>
       </c>
       <c r="G14" s="3">
-        <v>200</v>
+        <v>2000</v>
       </c>
       <c r="H14" s="3">
         <v>200</v>
       </c>
-      <c r="I14" s="3" t="s">
-        <v>3</v>
+      <c r="I14" s="3">
+        <v>200</v>
       </c>
       <c r="J14" s="3" t="s">
         <v>3</v>
@@ -968,8 +988,11 @@
       <c r="N14" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O14" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1006,8 +1029,11 @@
       <c r="N15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1019,84 +1045,91 @@
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
-    </row>
-    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O16" s="3"/>
+    </row>
+    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>93600</v>
+      </c>
+      <c r="E17" s="3">
         <v>66400</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>77200</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>64000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>58100</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>97900</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>44100</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>29900</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>28400</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>26500</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>24100</v>
       </c>
-      <c r="N17" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>5300</v>
+      </c>
+      <c r="E18" s="3">
         <v>-1800</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>3800</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>1100</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>3100</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>5500</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>3100</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-700</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-600</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-300</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-1800</v>
       </c>
-      <c r="N18" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1111,8 +1144,9 @@
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
-    </row>
-    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O19" s="3"/>
+    </row>
+    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1120,75 +1154,81 @@
         <v>0</v>
       </c>
       <c r="E20" s="3">
+        <v>0</v>
+      </c>
+      <c r="F20" s="3">
         <v>300</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-5600</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-11200</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-1200</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-600</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-1400</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-900</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-500</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-200</v>
       </c>
-      <c r="N20" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>5800</v>
+      </c>
+      <c r="E21" s="3">
         <v>-1400</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>4700</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-3900</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-7600</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>5300</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>3100</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-1600</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-1000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-300</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-1600</v>
       </c>
-      <c r="N21" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1201,15 +1241,15 @@
       <c r="F22" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G22" s="3">
-        <v>0</v>
+      <c r="G22" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="H22" s="3">
+        <v>0</v>
+      </c>
+      <c r="I22" s="3">
         <v>200</v>
       </c>
-      <c r="I22" s="3">
-        <v>0</v>
-      </c>
       <c r="J22" s="3">
         <v>0</v>
       </c>
@@ -1217,54 +1257,60 @@
         <v>0</v>
       </c>
       <c r="L22" s="3">
+        <v>0</v>
+      </c>
+      <c r="M22" s="3">
         <v>300</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>100</v>
       </c>
-      <c r="N22" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O22" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>5400</v>
+      </c>
+      <c r="E23" s="3">
         <v>-1800</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>4200</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-4500</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-8200</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>4100</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>2500</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-2100</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-1500</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-1100</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-2100</v>
       </c>
-      <c r="N23" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1272,37 +1318,40 @@
         <v>0</v>
       </c>
       <c r="E24" s="3">
+        <v>0</v>
+      </c>
+      <c r="F24" s="3">
         <v>100</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>-100</v>
       </c>
-      <c r="G24" s="3">
-        <v>0</v>
-      </c>
       <c r="H24" s="3">
+        <v>0</v>
+      </c>
+      <c r="I24" s="3">
         <v>100</v>
       </c>
-      <c r="I24" s="3">
-        <v>0</v>
-      </c>
       <c r="J24" s="3">
+        <v>0</v>
+      </c>
+      <c r="K24" s="3">
         <v>-500</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>-400</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>-300</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>-500</v>
       </c>
-      <c r="N24" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1339,84 +1388,93 @@
       <c r="N25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>5400</v>
+      </c>
+      <c r="E26" s="3">
         <v>-1800</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>4100</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-4400</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-8200</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>4000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>2500</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-1600</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-1100</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-800</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-1600</v>
       </c>
-      <c r="N26" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>5400</v>
+      </c>
+      <c r="E27" s="3">
         <v>-1800</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>4100</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-4400</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-8200</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>4400</v>
       </c>
-      <c r="I27" s="3">
-        <v>0</v>
-      </c>
       <c r="J27" s="3">
+        <v>0</v>
+      </c>
+      <c r="K27" s="3">
         <v>-1600</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-1100</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-1300</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-7300</v>
       </c>
-      <c r="N27" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1453,8 +1511,11 @@
       <c r="N28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1464,8 +1525,8 @@
       <c r="E29" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F29" s="3">
-        <v>0</v>
+      <c r="F29" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="G29" s="3">
         <v>0</v>
@@ -1477,22 +1538,25 @@
         <v>0</v>
       </c>
       <c r="J29" s="3">
+        <v>0</v>
+      </c>
+      <c r="K29" s="3">
         <v>100</v>
       </c>
-      <c r="K29" s="3">
-        <v>0</v>
-      </c>
       <c r="L29" s="3">
         <v>0</v>
       </c>
       <c r="M29" s="3">
+        <v>0</v>
+      </c>
+      <c r="N29" s="3">
         <v>5700</v>
       </c>
-      <c r="N29" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O29" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1529,8 +1593,11 @@
       <c r="N30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1567,8 +1634,11 @@
       <c r="N31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1576,75 +1646,81 @@
         <v>0</v>
       </c>
       <c r="E32" s="3">
+        <v>0</v>
+      </c>
+      <c r="F32" s="3">
         <v>-300</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>5600</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>11200</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>1200</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>600</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>1400</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>900</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>500</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>200</v>
       </c>
-      <c r="N32" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>5400</v>
+      </c>
+      <c r="E33" s="3">
         <v>-1800</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>4100</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-4400</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-8200</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>4400</v>
       </c>
-      <c r="I33" s="3">
-        <v>0</v>
-      </c>
       <c r="J33" s="3">
+        <v>0</v>
+      </c>
+      <c r="K33" s="3">
         <v>-1600</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-1100</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-1300</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-1600</v>
       </c>
-      <c r="N33" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1681,89 +1757,98 @@
       <c r="N34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>5400</v>
+      </c>
+      <c r="E35" s="3">
         <v>-1800</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>4100</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-4400</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-8200</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>4400</v>
       </c>
-      <c r="I35" s="3">
-        <v>0</v>
-      </c>
       <c r="J35" s="3">
+        <v>0</v>
+      </c>
+      <c r="K35" s="3">
         <v>-1600</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-1100</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-1300</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-1600</v>
       </c>
-      <c r="N35" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E38" s="2">
         <v>44012</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43921</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43830</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43738</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43646</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43555</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43465</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43373</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43281</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43190</v>
       </c>
-      <c r="N38" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1778,8 +1863,9 @@
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
-    </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O39" s="3"/>
+    </row>
+    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1794,32 +1880,33 @@
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
-    </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O40" s="3"/>
+    </row>
+    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>91400</v>
+        <v>54000</v>
       </c>
       <c r="E41" s="3">
+        <v>49400</v>
+      </c>
+      <c r="F41" s="3">
         <v>91600</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>80400</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>7700</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>300</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>400</v>
       </c>
-      <c r="J41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K41" s="3" t="s">
         <v>3</v>
       </c>
@@ -1832,31 +1919,34 @@
       <c r="N41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>0</v>
+        <v>51000</v>
       </c>
       <c r="E42" s="3">
-        <v>0</v>
-      </c>
-      <c r="F42" s="3">
-        <v>0</v>
-      </c>
-      <c r="G42" s="3">
-        <v>0</v>
-      </c>
-      <c r="H42" s="3">
-        <v>0</v>
-      </c>
-      <c r="I42" s="3">
-        <v>0</v>
-      </c>
-      <c r="J42" s="3">
-        <v>0</v>
+        <v>42000</v>
+      </c>
+      <c r="F42" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G42" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H42" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I42" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J42" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K42" s="3">
         <v>0</v>
@@ -1870,32 +1960,35 @@
       <c r="N42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>78300</v>
+      </c>
+      <c r="E43" s="3">
         <v>65000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>65900</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>47100</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>44300</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>44200</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>40700</v>
       </c>
-      <c r="J43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K43" s="3" t="s">
         <v>3</v>
       </c>
@@ -1908,8 +2001,11 @@
       <c r="N43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1946,31 +2042,34 @@
       <c r="N44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E45" s="3">
         <v>3300</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>4400</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>5000</v>
-      </c>
-      <c r="G45" s="3">
-        <v>1300</v>
       </c>
       <c r="H45" s="3">
         <v>1300</v>
       </c>
       <c r="I45" s="3">
-        <v>0</v>
-      </c>
-      <c r="J45" s="3" t="s">
-        <v>3</v>
+        <v>1300</v>
+      </c>
+      <c r="J45" s="3">
+        <v>0</v>
       </c>
       <c r="K45" s="3" t="s">
         <v>3</v>
@@ -1984,32 +2083,35 @@
       <c r="N45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>184600</v>
+      </c>
+      <c r="E46" s="3">
         <v>159700</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>161900</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>132400</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>53300</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>45800</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>41100</v>
       </c>
-      <c r="J46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2022,8 +2124,11 @@
       <c r="N46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2060,32 +2165,35 @@
       <c r="N47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>3500</v>
+      </c>
+      <c r="E48" s="3">
         <v>3600</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>3700</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>3100</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>1000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>700</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>800</v>
       </c>
-      <c r="J48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K48" s="3" t="s">
         <v>3</v>
       </c>
@@ -2098,32 +2206,35 @@
       <c r="N48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>13400</v>
+      </c>
+      <c r="E49" s="3">
         <v>13600</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>13900</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>14300</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>14600</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>15000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>15400</v>
       </c>
-      <c r="J49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K49" s="3" t="s">
         <v>3</v>
       </c>
@@ -2136,8 +2247,11 @@
       <c r="N49" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2174,8 +2288,11 @@
       <c r="N50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2212,8 +2329,11 @@
       <c r="N51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2224,20 +2344,20 @@
         <v>600</v>
       </c>
       <c r="F52" s="3">
+        <v>600</v>
+      </c>
+      <c r="G52" s="3">
         <v>700</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>3600</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>1600</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>300</v>
       </c>
-      <c r="J52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2250,8 +2370,11 @@
       <c r="N52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2288,32 +2411,35 @@
       <c r="N53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>202100</v>
+      </c>
+      <c r="E54" s="3">
         <v>177600</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>180100</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>150400</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>72600</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>63100</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>57500</v>
       </c>
-      <c r="J54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2326,8 +2452,11 @@
       <c r="N54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2342,8 +2471,9 @@
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
-    </row>
-    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O55" s="3"/>
+    </row>
+    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2358,32 +2488,33 @@
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
-    </row>
-    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O56" s="3"/>
+    </row>
+    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>42200</v>
+      </c>
+      <c r="E57" s="3">
         <v>31900</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>39400</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>19400</v>
-      </c>
-      <c r="G57" s="3">
-        <v>23500</v>
       </c>
       <c r="H57" s="3">
         <v>23500</v>
       </c>
       <c r="I57" s="3">
+        <v>23500</v>
+      </c>
+      <c r="J57" s="3">
         <v>19000</v>
       </c>
-      <c r="J57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K57" s="3" t="s">
         <v>3</v>
       </c>
@@ -2396,8 +2527,11 @@
       <c r="N57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2407,21 +2541,21 @@
       <c r="E58" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F58" s="3">
-        <v>0</v>
+      <c r="F58" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="G58" s="3">
         <v>0</v>
       </c>
       <c r="H58" s="3">
+        <v>0</v>
+      </c>
+      <c r="I58" s="3">
         <v>3100</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>6600</v>
       </c>
-      <c r="J58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K58" s="3" t="s">
         <v>3</v>
       </c>
@@ -2434,32 +2568,35 @@
       <c r="N58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>32000</v>
+      </c>
+      <c r="E59" s="3">
         <v>25700</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>19600</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>16800</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>34100</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>19700</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>17800</v>
       </c>
-      <c r="J59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K59" s="3" t="s">
         <v>3</v>
       </c>
@@ -2472,32 +2609,35 @@
       <c r="N59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>74200</v>
+      </c>
+      <c r="E60" s="3">
         <v>57700</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>59100</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>36200</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>57600</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>46400</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>43300</v>
       </c>
-      <c r="J60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K60" s="3" t="s">
         <v>3</v>
       </c>
@@ -2510,8 +2650,11 @@
       <c r="N60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2548,34 +2691,37 @@
       <c r="N61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>600</v>
+      </c>
+      <c r="E62" s="3">
         <v>300</v>
       </c>
-      <c r="E62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F62" s="3" t="s">
         <v>3</v>
       </c>
       <c r="G62" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H62" s="3">
-        <v>0</v>
+      <c r="H62" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="I62" s="3">
         <v>0</v>
       </c>
-      <c r="J62" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K62" s="3">
-        <v>0</v>
+      <c r="J62" s="3">
+        <v>0</v>
+      </c>
+      <c r="K62" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="L62" s="3">
         <v>0</v>
@@ -2586,8 +2732,11 @@
       <c r="N62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2624,8 +2773,11 @@
       <c r="N63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2662,8 +2814,11 @@
       <c r="N64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2700,32 +2855,35 @@
       <c r="N65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>74800</v>
+      </c>
+      <c r="E66" s="3">
         <v>58000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>59100</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>36200</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>57600</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>46400</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>43300</v>
       </c>
-      <c r="J66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K66" s="3" t="s">
         <v>3</v>
       </c>
@@ -2738,8 +2896,11 @@
       <c r="N66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2754,8 +2915,9 @@
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
-    </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O67" s="3"/>
+    </row>
+    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2792,8 +2954,11 @@
       <c r="N68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2830,8 +2995,11 @@
       <c r="N69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2845,7 +3013,7 @@
         <v>0</v>
       </c>
       <c r="G70" s="3">
-        <v>106200</v>
+        <v>0</v>
       </c>
       <c r="H70" s="3">
         <v>106200</v>
@@ -2854,7 +3022,7 @@
         <v>106200</v>
       </c>
       <c r="J70" s="3">
-        <v>0</v>
+        <v>106200</v>
       </c>
       <c r="K70" s="3">
         <v>0</v>
@@ -2868,8 +3036,11 @@
       <c r="N70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2906,32 +3077,35 @@
       <c r="N71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-105900</v>
+      </c>
+      <c r="E72" s="3">
         <v>-111200</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-109400</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-113500</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-109100</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-100800</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-102300</v>
       </c>
-      <c r="J72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K72" s="3" t="s">
         <v>3</v>
       </c>
@@ -2944,8 +3118,11 @@
       <c r="N72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2982,8 +3159,11 @@
       <c r="N73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3020,8 +3200,11 @@
       <c r="N74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3058,32 +3241,35 @@
       <c r="N75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>127300</v>
+      </c>
+      <c r="E76" s="3">
         <v>119600</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>121100</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>114300</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>-91300</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>-89500</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>-92100</v>
       </c>
-      <c r="J76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K76" s="3" t="s">
         <v>3</v>
       </c>
@@ -3096,8 +3282,11 @@
       <c r="N76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3134,89 +3323,98 @@
       <c r="N77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E80" s="2">
         <v>44012</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43921</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43830</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43738</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43646</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43555</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43465</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43373</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43281</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43190</v>
       </c>
-      <c r="N80" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>5400</v>
+      </c>
+      <c r="E81" s="3">
         <v>-1800</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>4100</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-4400</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-8200</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>4400</v>
       </c>
-      <c r="I81" s="3">
-        <v>0</v>
-      </c>
       <c r="J81" s="3">
+        <v>0</v>
+      </c>
+      <c r="K81" s="3">
         <v>-1600</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-1100</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-1300</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-1600</v>
       </c>
-      <c r="N81" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3231,8 +3429,9 @@
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
-    </row>
-    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O82" s="3"/>
+    </row>
+    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3249,10 +3448,10 @@
         <v>500</v>
       </c>
       <c r="H83" s="3">
+        <v>500</v>
+      </c>
+      <c r="I83" s="3">
         <v>1100</v>
-      </c>
-      <c r="I83" s="3">
-        <v>500</v>
       </c>
       <c r="J83" s="3">
         <v>500</v>
@@ -3264,13 +3463,16 @@
         <v>500</v>
       </c>
       <c r="M83" s="3">
+        <v>500</v>
+      </c>
+      <c r="N83" s="3">
         <v>400</v>
       </c>
-      <c r="N83" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3307,8 +3509,11 @@
       <c r="N84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3345,8 +3550,11 @@
       <c r="N85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3383,8 +3591,11 @@
       <c r="N86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3421,8 +3632,11 @@
       <c r="N87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3459,46 +3673,52 @@
       <c r="N88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>15300</v>
+      </c>
+      <c r="E89" s="3">
         <v>2200</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>12100</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-5500</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>5900</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-1900</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-6200</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>4100</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-500</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>3100</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-4300</v>
       </c>
-      <c r="N89" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3513,8 +3733,9 @@
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
-    </row>
-    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O90" s="3"/>
+    </row>
+    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3522,37 +3743,40 @@
         <v>-100</v>
       </c>
       <c r="E91" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F91" s="3">
         <v>-700</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-2300</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-400</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-300</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-100</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-200</v>
       </c>
-      <c r="K91" s="3">
-        <v>0</v>
-      </c>
       <c r="L91" s="3">
+        <v>0</v>
+      </c>
+      <c r="M91" s="3">
         <v>-100</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-300</v>
       </c>
-      <c r="N91" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3589,8 +3813,11 @@
       <c r="N92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3627,46 +3854,52 @@
       <c r="N93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-9100</v>
+      </c>
+      <c r="E94" s="3">
         <v>-42100</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-700</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-2300</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-400</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-100</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>100</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-100</v>
       </c>
-      <c r="K94" s="3">
-        <v>0</v>
-      </c>
       <c r="L94" s="3">
+        <v>0</v>
+      </c>
+      <c r="M94" s="3">
         <v>-100</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>2200</v>
       </c>
-      <c r="N94" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3681,8 +3914,9 @@
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
-    </row>
-    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O95" s="3"/>
+    </row>
+    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3719,8 +3953,11 @@
       <c r="N96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3757,8 +3994,11 @@
       <c r="N97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3795,8 +4035,11 @@
       <c r="N98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3833,46 +4076,52 @@
       <c r="N99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="E100" s="3">
         <v>-2400</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-200</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>80500</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>1900</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>2200</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>6300</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-4000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>400</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-4200</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-900</v>
       </c>
-      <c r="N100" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3909,42 +4158,48 @@
       <c r="N101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>4600</v>
+      </c>
+      <c r="E102" s="3">
         <v>-42200</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>11300</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>72700</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>7400</v>
-      </c>
-      <c r="H102" s="3">
-        <v>200</v>
       </c>
       <c r="I102" s="3">
         <v>200</v>
       </c>
       <c r="J102" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="K102" s="3">
+        <v>0</v>
+      </c>
+      <c r="L102" s="3">
         <v>-200</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-1200</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-3100</v>
       </c>
-      <c r="N102" s="3" t="s">
+      <c r="O102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/PGNY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/PGNY_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="92">
   <si>
     <t>PGNY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:O102"/>
+  <dimension ref="A5:P102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,194 +665,206 @@
     <col min="1" max="1" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E7" s="2">
         <v>44104</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44012</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43921</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43830</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43738</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43646</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43555</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43465</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43373</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43281</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43190</v>
       </c>
-      <c r="O7" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>100300</v>
+      </c>
+      <c r="E8" s="3">
         <v>98900</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>64600</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>81000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>65100</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>61200</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>103400</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>47200</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>29200</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>27800</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>26200</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>22300</v>
       </c>
-      <c r="O8" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>79600</v>
+      </c>
+      <c r="E9" s="3">
         <v>78100</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>52700</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>64400</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>53400</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>48900</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>81900</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>37200</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>23800</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>22800</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>21100</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>18300</v>
       </c>
-      <c r="O9" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>20700</v>
+      </c>
+      <c r="E10" s="3">
         <v>20800</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>12000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>16600</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>11700</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>12300</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>21500</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>10000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>5400</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>5000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>5100</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>4000</v>
       </c>
-      <c r="O10" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -868,8 +880,9 @@
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P11" s="3"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -909,8 +922,11 @@
       <c r="O12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -950,13 +966,16 @@
       <c r="O13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>3</v>
+      <c r="D14" s="3">
+        <v>900</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>3</v>
@@ -964,17 +983,17 @@
       <c r="F14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G14" s="3">
+      <c r="G14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H14" s="3">
         <v>2000</v>
-      </c>
-      <c r="H14" s="3">
-        <v>200</v>
       </c>
       <c r="I14" s="3">
         <v>200</v>
       </c>
-      <c r="J14" s="3" t="s">
-        <v>3</v>
+      <c r="J14" s="3">
+        <v>200</v>
       </c>
       <c r="K14" s="3" t="s">
         <v>3</v>
@@ -991,8 +1010,11 @@
       <c r="O14" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P14" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1032,8 +1054,11 @@
       <c r="O15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1046,90 +1071,97 @@
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
-    </row>
-    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P16" s="3"/>
+    </row>
+    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>99400</v>
+      </c>
+      <c r="E17" s="3">
         <v>93600</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>66400</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>77200</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>64000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>58100</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>97900</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>44100</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>29900</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>28400</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>26500</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>24100</v>
       </c>
-      <c r="O17" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>900</v>
+      </c>
+      <c r="E18" s="3">
         <v>5300</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-1800</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>3800</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>1100</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>3100</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>5500</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>3100</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-700</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-600</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-300</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-1800</v>
       </c>
-      <c r="O18" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1145,8 +1177,9 @@
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
-    </row>
-    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P19" s="3"/>
+    </row>
+    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1157,78 +1190,84 @@
         <v>0</v>
       </c>
       <c r="F20" s="3">
+        <v>0</v>
+      </c>
+      <c r="G20" s="3">
         <v>300</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-5600</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-11200</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-1200</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-600</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-1400</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-900</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-500</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-200</v>
       </c>
-      <c r="O20" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E21" s="3">
         <v>5800</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-1400</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>4700</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-3900</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-7600</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>5300</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>3100</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-1600</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-1000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-300</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-1600</v>
       </c>
-      <c r="O21" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1244,15 +1283,15 @@
       <c r="G22" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H22" s="3">
-        <v>0</v>
+      <c r="H22" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="I22" s="3">
+        <v>0</v>
+      </c>
+      <c r="J22" s="3">
         <v>200</v>
       </c>
-      <c r="J22" s="3">
-        <v>0</v>
-      </c>
       <c r="K22" s="3">
         <v>0</v>
       </c>
@@ -1260,98 +1299,107 @@
         <v>0</v>
       </c>
       <c r="M22" s="3">
+        <v>0</v>
+      </c>
+      <c r="N22" s="3">
         <v>300</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>100</v>
       </c>
-      <c r="O22" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P22" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E23" s="3">
         <v>5400</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-1800</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>4200</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-4500</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-8200</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>4100</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>2500</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-2100</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-1500</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-1100</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-2100</v>
       </c>
-      <c r="O23" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>0</v>
+        <v>-37900</v>
       </c>
       <c r="E24" s="3">
         <v>0</v>
       </c>
       <c r="F24" s="3">
+        <v>0</v>
+      </c>
+      <c r="G24" s="3">
         <v>100</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>-100</v>
       </c>
-      <c r="H24" s="3">
-        <v>0</v>
-      </c>
       <c r="I24" s="3">
+        <v>0</v>
+      </c>
+      <c r="J24" s="3">
         <v>100</v>
       </c>
-      <c r="J24" s="3">
-        <v>0</v>
-      </c>
       <c r="K24" s="3">
+        <v>0</v>
+      </c>
+      <c r="L24" s="3">
         <v>-500</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>-400</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>-300</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>-500</v>
       </c>
-      <c r="O24" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1391,90 +1439,99 @@
       <c r="O25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>38900</v>
+      </c>
+      <c r="E26" s="3">
         <v>5400</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-1800</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>4100</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-4400</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-8200</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>4000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>2500</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-1600</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-1100</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-800</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-1600</v>
       </c>
-      <c r="O26" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>38900</v>
+      </c>
+      <c r="E27" s="3">
         <v>5400</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-1800</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>4100</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-4400</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-8200</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>4400</v>
       </c>
-      <c r="J27" s="3">
-        <v>0</v>
-      </c>
       <c r="K27" s="3">
+        <v>0</v>
+      </c>
+      <c r="L27" s="3">
         <v>-1600</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-1100</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-1300</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-7300</v>
       </c>
-      <c r="O27" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1514,8 +1571,11 @@
       <c r="O28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1528,8 +1588,8 @@
       <c r="F29" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G29" s="3">
-        <v>0</v>
+      <c r="G29" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="H29" s="3">
         <v>0</v>
@@ -1541,22 +1601,25 @@
         <v>0</v>
       </c>
       <c r="K29" s="3">
+        <v>0</v>
+      </c>
+      <c r="L29" s="3">
         <v>100</v>
       </c>
-      <c r="L29" s="3">
-        <v>0</v>
-      </c>
       <c r="M29" s="3">
         <v>0</v>
       </c>
       <c r="N29" s="3">
+        <v>0</v>
+      </c>
+      <c r="O29" s="3">
         <v>5700</v>
       </c>
-      <c r="O29" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P29" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1596,8 +1659,11 @@
       <c r="O30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1637,8 +1703,11 @@
       <c r="O31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1649,78 +1718,84 @@
         <v>0</v>
       </c>
       <c r="F32" s="3">
+        <v>0</v>
+      </c>
+      <c r="G32" s="3">
         <v>-300</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>5600</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>11200</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>1200</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>600</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>1400</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>900</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>500</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>200</v>
       </c>
-      <c r="O32" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>38900</v>
+      </c>
+      <c r="E33" s="3">
         <v>5400</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-1800</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>4100</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-4400</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-8200</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>4400</v>
       </c>
-      <c r="J33" s="3">
-        <v>0</v>
-      </c>
       <c r="K33" s="3">
+        <v>0</v>
+      </c>
+      <c r="L33" s="3">
         <v>-1600</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-1100</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-1300</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-1600</v>
       </c>
-      <c r="O33" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1760,95 +1835,104 @@
       <c r="O34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>38900</v>
+      </c>
+      <c r="E35" s="3">
         <v>5400</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-1800</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>4100</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-4400</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-8200</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>4400</v>
       </c>
-      <c r="J35" s="3">
-        <v>0</v>
-      </c>
       <c r="K35" s="3">
+        <v>0</v>
+      </c>
+      <c r="L35" s="3">
         <v>-1600</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-1100</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-1300</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-1600</v>
       </c>
-      <c r="O35" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E38" s="2">
         <v>44104</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44012</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43921</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43830</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43738</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43646</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43555</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43465</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43373</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43281</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43190</v>
       </c>
-      <c r="O38" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1864,8 +1948,9 @@
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
-    </row>
-    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P39" s="3"/>
+    </row>
+    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1881,35 +1966,36 @@
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
-    </row>
-    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P40" s="3"/>
+    </row>
+    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>70300</v>
+      </c>
+      <c r="E41" s="3">
         <v>54000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>49400</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>91600</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>80400</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>7700</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>300</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>400</v>
       </c>
-      <c r="K41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L41" s="3" t="s">
         <v>3</v>
       </c>
@@ -1922,20 +2008,23 @@
       <c r="O41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>39000</v>
+      </c>
+      <c r="E42" s="3">
         <v>51000</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>42000</v>
       </c>
-      <c r="F42" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G42" s="3" t="s">
         <v>3</v>
       </c>
@@ -1948,8 +2037,8 @@
       <c r="J42" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K42" s="3">
-        <v>0</v>
+      <c r="K42" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="L42" s="3">
         <v>0</v>
@@ -1963,35 +2052,38 @@
       <c r="O42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>75700</v>
+      </c>
+      <c r="E43" s="3">
         <v>78300</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>65000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>65900</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>47100</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>44300</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>44200</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>40700</v>
       </c>
-      <c r="K43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L43" s="3" t="s">
         <v>3</v>
       </c>
@@ -2004,8 +2096,11 @@
       <c r="O43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2045,34 +2140,37 @@
       <c r="O44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>5300</v>
+      </c>
+      <c r="E45" s="3">
         <v>1300</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>3300</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>4400</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>5000</v>
-      </c>
-      <c r="H45" s="3">
-        <v>1300</v>
       </c>
       <c r="I45" s="3">
         <v>1300</v>
       </c>
       <c r="J45" s="3">
-        <v>0</v>
-      </c>
-      <c r="K45" s="3" t="s">
-        <v>3</v>
+        <v>1300</v>
+      </c>
+      <c r="K45" s="3">
+        <v>0</v>
       </c>
       <c r="L45" s="3" t="s">
         <v>3</v>
@@ -2086,35 +2184,38 @@
       <c r="O45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>190200</v>
+      </c>
+      <c r="E46" s="3">
         <v>184600</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>159700</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>161900</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>132400</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>53300</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>45800</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>41100</v>
       </c>
-      <c r="K46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2127,8 +2228,11 @@
       <c r="O46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2168,35 +2272,38 @@
       <c r="O47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>12100</v>
+      </c>
+      <c r="E48" s="3">
         <v>3500</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>3600</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>3700</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>3100</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>1000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>700</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>800</v>
       </c>
-      <c r="K48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L48" s="3" t="s">
         <v>3</v>
       </c>
@@ -2209,35 +2316,38 @@
       <c r="O48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>13100</v>
+      </c>
+      <c r="E49" s="3">
         <v>13400</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>13600</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>13900</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>14300</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>14600</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>15000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>15400</v>
       </c>
-      <c r="K49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L49" s="3" t="s">
         <v>3</v>
       </c>
@@ -2250,8 +2360,11 @@
       <c r="O49" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2291,8 +2404,11 @@
       <c r="O50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2332,13 +2448,16 @@
       <c r="O51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>600</v>
+        <v>38500</v>
       </c>
       <c r="E52" s="3">
         <v>600</v>
@@ -2347,20 +2466,20 @@
         <v>600</v>
       </c>
       <c r="G52" s="3">
+        <v>600</v>
+      </c>
+      <c r="H52" s="3">
         <v>700</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>3600</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>1600</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>300</v>
       </c>
-      <c r="K52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2373,8 +2492,11 @@
       <c r="O52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2414,35 +2536,38 @@
       <c r="O53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>253900</v>
+      </c>
+      <c r="E54" s="3">
         <v>202100</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>177600</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>180100</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>150400</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>72600</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>63100</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>57500</v>
       </c>
-      <c r="K54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2455,8 +2580,11 @@
       <c r="O54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2472,8 +2600,9 @@
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
-    </row>
-    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P55" s="3"/>
+    </row>
+    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2489,35 +2618,36 @@
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
-    </row>
-    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P56" s="3"/>
+    </row>
+    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>43500</v>
+      </c>
+      <c r="E57" s="3">
         <v>42200</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>31900</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>39400</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>19400</v>
-      </c>
-      <c r="H57" s="3">
-        <v>23500</v>
       </c>
       <c r="I57" s="3">
         <v>23500</v>
       </c>
       <c r="J57" s="3">
+        <v>23500</v>
+      </c>
+      <c r="K57" s="3">
         <v>19000</v>
       </c>
-      <c r="K57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L57" s="3" t="s">
         <v>3</v>
       </c>
@@ -2530,8 +2660,11 @@
       <c r="O57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2544,21 +2677,21 @@
       <c r="F58" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G58" s="3">
-        <v>0</v>
+      <c r="G58" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="H58" s="3">
         <v>0</v>
       </c>
       <c r="I58" s="3">
+        <v>0</v>
+      </c>
+      <c r="J58" s="3">
         <v>3100</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>6600</v>
       </c>
-      <c r="K58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L58" s="3" t="s">
         <v>3</v>
       </c>
@@ -2571,35 +2704,38 @@
       <c r="O58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>34300</v>
+      </c>
+      <c r="E59" s="3">
         <v>32000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>25700</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>19600</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>16800</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>34100</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>19700</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>17800</v>
       </c>
-      <c r="K59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L59" s="3" t="s">
         <v>3</v>
       </c>
@@ -2612,35 +2748,38 @@
       <c r="O59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>77800</v>
+      </c>
+      <c r="E60" s="3">
         <v>74200</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>57700</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>59100</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>36200</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>57600</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>46400</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>43300</v>
       </c>
-      <c r="K60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L60" s="3" t="s">
         <v>3</v>
       </c>
@@ -2653,8 +2792,11 @@
       <c r="O60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2694,37 +2836,40 @@
       <c r="O61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>9200</v>
+      </c>
+      <c r="E62" s="3">
         <v>600</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>300</v>
       </c>
-      <c r="F62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G62" s="3" t="s">
         <v>3</v>
       </c>
       <c r="H62" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="I62" s="3">
-        <v>0</v>
+      <c r="I62" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="J62" s="3">
         <v>0</v>
       </c>
-      <c r="K62" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L62" s="3">
-        <v>0</v>
+      <c r="K62" s="3">
+        <v>0</v>
+      </c>
+      <c r="L62" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="M62" s="3">
         <v>0</v>
@@ -2735,8 +2880,11 @@
       <c r="O62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2776,8 +2924,11 @@
       <c r="O63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2817,8 +2968,11 @@
       <c r="O64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2858,35 +3012,38 @@
       <c r="O65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>87000</v>
+      </c>
+      <c r="E66" s="3">
         <v>74800</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>58000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>59100</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>36200</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>57600</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>46400</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>43300</v>
       </c>
-      <c r="K66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L66" s="3" t="s">
         <v>3</v>
       </c>
@@ -2899,8 +3056,11 @@
       <c r="O66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2916,8 +3076,9 @@
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
-    </row>
-    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P67" s="3"/>
+    </row>
+    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2957,8 +3118,11 @@
       <c r="O68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2998,8 +3162,11 @@
       <c r="O69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3016,7 +3183,7 @@
         <v>0</v>
       </c>
       <c r="H70" s="3">
-        <v>106200</v>
+        <v>0</v>
       </c>
       <c r="I70" s="3">
         <v>106200</v>
@@ -3025,7 +3192,7 @@
         <v>106200</v>
       </c>
       <c r="K70" s="3">
-        <v>0</v>
+        <v>106200</v>
       </c>
       <c r="L70" s="3">
         <v>0</v>
@@ -3039,8 +3206,11 @@
       <c r="O70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3080,35 +3250,38 @@
       <c r="O71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-68200</v>
+      </c>
+      <c r="E72" s="3">
         <v>-105900</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-111200</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-109400</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-113500</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-109100</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-100800</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-102300</v>
       </c>
-      <c r="K72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L72" s="3" t="s">
         <v>3</v>
       </c>
@@ -3121,8 +3294,11 @@
       <c r="O72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3162,8 +3338,11 @@
       <c r="O73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3203,8 +3382,11 @@
       <c r="O74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3244,35 +3426,38 @@
       <c r="O75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>166900</v>
+      </c>
+      <c r="E76" s="3">
         <v>127300</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>119600</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>121100</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>114300</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>-91300</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>-89500</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>-92100</v>
       </c>
-      <c r="K76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L76" s="3" t="s">
         <v>3</v>
       </c>
@@ -3285,8 +3470,11 @@
       <c r="O76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3326,95 +3514,104 @@
       <c r="O77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E80" s="2">
         <v>44104</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44012</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43921</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43830</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43738</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43646</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43555</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43465</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43373</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43281</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43190</v>
       </c>
-      <c r="O80" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>38900</v>
+      </c>
+      <c r="E81" s="3">
         <v>5400</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-1800</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>4100</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-4400</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-8200</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>4400</v>
       </c>
-      <c r="J81" s="3">
-        <v>0</v>
-      </c>
       <c r="K81" s="3">
+        <v>0</v>
+      </c>
+      <c r="L81" s="3">
         <v>-1600</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-1100</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-1300</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-1600</v>
       </c>
-      <c r="O81" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3430,8 +3627,9 @@
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
-    </row>
-    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P82" s="3"/>
+    </row>
+    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3451,10 +3649,10 @@
         <v>500</v>
       </c>
       <c r="I83" s="3">
+        <v>500</v>
+      </c>
+      <c r="J83" s="3">
         <v>1100</v>
-      </c>
-      <c r="J83" s="3">
-        <v>500</v>
       </c>
       <c r="K83" s="3">
         <v>500</v>
@@ -3466,13 +3664,16 @@
         <v>500</v>
       </c>
       <c r="N83" s="3">
+        <v>500</v>
+      </c>
+      <c r="O83" s="3">
         <v>400</v>
       </c>
-      <c r="O83" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3512,8 +3713,11 @@
       <c r="O84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3553,8 +3757,11 @@
       <c r="O85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3594,8 +3801,11 @@
       <c r="O86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3635,8 +3845,11 @@
       <c r="O87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3676,49 +3889,55 @@
       <c r="O88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>6500</v>
+      </c>
+      <c r="E89" s="3">
         <v>15300</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>2200</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>12100</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-5500</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>5900</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-1900</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-6200</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>4100</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-500</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>3100</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-4300</v>
       </c>
-      <c r="O89" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3734,8 +3953,9 @@
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
-    </row>
-    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P90" s="3"/>
+    </row>
+    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3746,37 +3966,40 @@
         <v>-100</v>
       </c>
       <c r="F91" s="3">
+        <v>-100</v>
+      </c>
+      <c r="G91" s="3">
         <v>-700</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-2300</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-400</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-300</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-100</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-200</v>
       </c>
-      <c r="L91" s="3">
-        <v>0</v>
-      </c>
       <c r="M91" s="3">
+        <v>0</v>
+      </c>
+      <c r="N91" s="3">
         <v>-100</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-300</v>
       </c>
-      <c r="O91" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3816,8 +4039,11 @@
       <c r="O92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3857,49 +4083,55 @@
       <c r="O93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>11900</v>
+      </c>
+      <c r="E94" s="3">
         <v>-9100</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-42100</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-700</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-2300</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-400</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-100</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>100</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-100</v>
       </c>
-      <c r="L94" s="3">
-        <v>0</v>
-      </c>
       <c r="M94" s="3">
+        <v>0</v>
+      </c>
+      <c r="N94" s="3">
         <v>-100</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>2200</v>
       </c>
-      <c r="O94" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3915,8 +4147,9 @@
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
-    </row>
-    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P95" s="3"/>
+    </row>
+    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3956,8 +4189,11 @@
       <c r="O96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3997,8 +4233,11 @@
       <c r="O97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4038,8 +4277,11 @@
       <c r="O98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4079,49 +4321,55 @@
       <c r="O99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="E100" s="3">
         <v>-1600</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-2400</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-200</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>80500</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>1900</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>2200</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>6300</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-4000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>400</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-4200</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-900</v>
       </c>
-      <c r="O100" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4161,45 +4409,51 @@
       <c r="O101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>16300</v>
+      </c>
+      <c r="E102" s="3">
         <v>4600</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-42200</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>11300</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>72700</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>7400</v>
-      </c>
-      <c r="I102" s="3">
-        <v>200</v>
       </c>
       <c r="J102" s="3">
         <v>200</v>
       </c>
       <c r="K102" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="L102" s="3">
+        <v>0</v>
+      </c>
+      <c r="M102" s="3">
         <v>-200</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-1200</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-3100</v>
       </c>
-      <c r="O102" s="3" t="s">
+      <c r="P102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/PGNY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/PGNY_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="92">
   <si>
     <t>PGNY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:P102"/>
+  <dimension ref="A5:Q102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,206 +665,219 @@
     <col min="1" max="1" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E7" s="2">
         <v>44196</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44104</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44012</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43921</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43830</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43738</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43646</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43555</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43465</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43373</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43281</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43190</v>
       </c>
-      <c r="P7" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>122100</v>
+      </c>
+      <c r="E8" s="3">
         <v>100300</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>98900</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>64600</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>81000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>65100</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>61200</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>103400</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>47200</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>29200</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>27800</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>26200</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>22300</v>
       </c>
-      <c r="P8" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>93200</v>
+      </c>
+      <c r="E9" s="3">
         <v>79600</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>78100</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>52700</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>64400</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>53400</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>48900</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>81900</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>37200</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>23800</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>22800</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>21100</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>18300</v>
       </c>
-      <c r="P9" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>28900</v>
+      </c>
+      <c r="E10" s="3">
         <v>20700</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>20800</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>12000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>16600</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>11700</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>12300</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>21500</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>10000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>5400</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>5000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>5100</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>4000</v>
       </c>
-      <c r="P10" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -881,8 +894,9 @@
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q11" s="3"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -925,8 +939,11 @@
       <c r="P12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -969,34 +986,37 @@
       <c r="P13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3">
+      <c r="D14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E14" s="3">
         <v>900</v>
       </c>
-      <c r="E14" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F14" s="3" t="s">
         <v>3</v>
       </c>
       <c r="G14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H14" s="3">
+      <c r="H14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I14" s="3">
         <v>2000</v>
-      </c>
-      <c r="I14" s="3">
-        <v>200</v>
       </c>
       <c r="J14" s="3">
         <v>200</v>
       </c>
-      <c r="K14" s="3" t="s">
-        <v>3</v>
+      <c r="K14" s="3">
+        <v>200</v>
       </c>
       <c r="L14" s="3" t="s">
         <v>3</v>
@@ -1013,8 +1033,11 @@
       <c r="P14" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q14" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1057,8 +1080,11 @@
       <c r="P15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1072,96 +1098,103 @@
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
-    </row>
-    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q16" s="3"/>
+    </row>
+    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>110300</v>
+      </c>
+      <c r="E17" s="3">
         <v>99400</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>93600</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>66400</v>
       </c>
-      <c r="G17" s="3">
-        <v>77200</v>
-      </c>
       <c r="H17" s="3">
+        <v>77600</v>
+      </c>
+      <c r="I17" s="3">
         <v>64000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>58100</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>97900</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>44100</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>29900</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>28400</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>26500</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>24100</v>
       </c>
-      <c r="P17" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>11800</v>
+      </c>
+      <c r="E18" s="3">
         <v>900</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>5300</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-1800</v>
       </c>
-      <c r="G18" s="3">
-        <v>3800</v>
-      </c>
       <c r="H18" s="3">
+        <v>3400</v>
+      </c>
+      <c r="I18" s="3">
         <v>1100</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>3100</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>5500</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>3100</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-700</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-600</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-300</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-1800</v>
       </c>
-      <c r="P18" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1178,8 +1211,9 @@
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
-    </row>
-    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q19" s="3"/>
+    </row>
+    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1193,81 +1227,87 @@
         <v>0</v>
       </c>
       <c r="G20" s="3">
+        <v>0</v>
+      </c>
+      <c r="H20" s="3">
         <v>300</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-5600</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-11200</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-1200</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-600</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-1400</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-900</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-500</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-200</v>
       </c>
-      <c r="P20" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>12200</v>
+      </c>
+      <c r="E21" s="3">
         <v>1400</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>5800</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-1400</v>
       </c>
-      <c r="G21" s="3">
-        <v>4700</v>
-      </c>
       <c r="H21" s="3">
+        <v>4300</v>
+      </c>
+      <c r="I21" s="3">
         <v>-3900</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-7600</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>5300</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>3100</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-1600</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-1000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-300</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-1600</v>
       </c>
-      <c r="P21" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1286,15 +1326,15 @@
       <c r="H22" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="I22" s="3">
-        <v>0</v>
+      <c r="I22" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="J22" s="3">
+        <v>0</v>
+      </c>
+      <c r="K22" s="3">
         <v>200</v>
       </c>
-      <c r="K22" s="3">
-        <v>0</v>
-      </c>
       <c r="L22" s="3">
         <v>0</v>
       </c>
@@ -1302,104 +1342,113 @@
         <v>0</v>
       </c>
       <c r="N22" s="3">
+        <v>0</v>
+      </c>
+      <c r="O22" s="3">
         <v>300</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>100</v>
       </c>
-      <c r="P22" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q22" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>11800</v>
+      </c>
+      <c r="E23" s="3">
         <v>1000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>5400</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-1800</v>
       </c>
-      <c r="G23" s="3">
-        <v>4200</v>
-      </c>
       <c r="H23" s="3">
+        <v>3700</v>
+      </c>
+      <c r="I23" s="3">
         <v>-4500</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-8200</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>4100</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>2500</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-2100</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-1500</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-1100</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-2100</v>
       </c>
-      <c r="P23" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>-3400</v>
+      </c>
+      <c r="E24" s="3">
         <v>-37900</v>
       </c>
-      <c r="E24" s="3">
-        <v>0</v>
-      </c>
       <c r="F24" s="3">
         <v>0</v>
       </c>
       <c r="G24" s="3">
+        <v>0</v>
+      </c>
+      <c r="H24" s="3">
         <v>100</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>-100</v>
       </c>
-      <c r="I24" s="3">
-        <v>0</v>
-      </c>
       <c r="J24" s="3">
+        <v>0</v>
+      </c>
+      <c r="K24" s="3">
         <v>100</v>
       </c>
-      <c r="K24" s="3">
-        <v>0</v>
-      </c>
       <c r="L24" s="3">
+        <v>0</v>
+      </c>
+      <c r="M24" s="3">
         <v>-500</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>-400</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>-300</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>-500</v>
       </c>
-      <c r="P24" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1442,96 +1491,105 @@
       <c r="P25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>15200</v>
+      </c>
+      <c r="E26" s="3">
         <v>38900</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>5400</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-1800</v>
       </c>
-      <c r="G26" s="3">
-        <v>4100</v>
-      </c>
       <c r="H26" s="3">
+        <v>3600</v>
+      </c>
+      <c r="I26" s="3">
         <v>-4400</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-8200</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>4000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>2500</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-1600</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-1100</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-800</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-1600</v>
       </c>
-      <c r="P26" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>15200</v>
+      </c>
+      <c r="E27" s="3">
         <v>38900</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>5400</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-1800</v>
       </c>
-      <c r="G27" s="3">
-        <v>4100</v>
-      </c>
       <c r="H27" s="3">
+        <v>3600</v>
+      </c>
+      <c r="I27" s="3">
         <v>-4400</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-8200</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>4400</v>
       </c>
-      <c r="K27" s="3">
-        <v>0</v>
-      </c>
       <c r="L27" s="3">
+        <v>0</v>
+      </c>
+      <c r="M27" s="3">
         <v>-1600</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-1100</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-1300</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-7300</v>
       </c>
-      <c r="P27" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1574,8 +1632,11 @@
       <c r="P28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1591,8 +1652,8 @@
       <c r="G29" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H29" s="3">
-        <v>0</v>
+      <c r="H29" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="I29" s="3">
         <v>0</v>
@@ -1604,22 +1665,25 @@
         <v>0</v>
       </c>
       <c r="L29" s="3">
+        <v>0</v>
+      </c>
+      <c r="M29" s="3">
         <v>100</v>
       </c>
-      <c r="M29" s="3">
-        <v>0</v>
-      </c>
       <c r="N29" s="3">
         <v>0</v>
       </c>
       <c r="O29" s="3">
+        <v>0</v>
+      </c>
+      <c r="P29" s="3">
         <v>5700</v>
       </c>
-      <c r="P29" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q29" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1662,8 +1726,11 @@
       <c r="P30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1706,8 +1773,11 @@
       <c r="P31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1721,81 +1791,87 @@
         <v>0</v>
       </c>
       <c r="G32" s="3">
+        <v>0</v>
+      </c>
+      <c r="H32" s="3">
         <v>-300</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>5600</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>11200</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>1200</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>600</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>1400</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>900</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>500</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>200</v>
       </c>
-      <c r="P32" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>15200</v>
+      </c>
+      <c r="E33" s="3">
         <v>38900</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>5400</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-1800</v>
       </c>
-      <c r="G33" s="3">
-        <v>4100</v>
-      </c>
       <c r="H33" s="3">
+        <v>3600</v>
+      </c>
+      <c r="I33" s="3">
         <v>-4400</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-8200</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>4400</v>
       </c>
-      <c r="K33" s="3">
-        <v>0</v>
-      </c>
       <c r="L33" s="3">
+        <v>0</v>
+      </c>
+      <c r="M33" s="3">
         <v>-1600</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-1100</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-1300</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-1600</v>
       </c>
-      <c r="P33" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1838,101 +1914,110 @@
       <c r="P34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>15200</v>
+      </c>
+      <c r="E35" s="3">
         <v>38900</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>5400</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-1800</v>
       </c>
-      <c r="G35" s="3">
-        <v>4100</v>
-      </c>
       <c r="H35" s="3">
+        <v>3600</v>
+      </c>
+      <c r="I35" s="3">
         <v>-4400</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-8200</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>4400</v>
       </c>
-      <c r="K35" s="3">
-        <v>0</v>
-      </c>
       <c r="L35" s="3">
+        <v>0</v>
+      </c>
+      <c r="M35" s="3">
         <v>-1600</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-1100</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-1300</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-1600</v>
       </c>
-      <c r="P35" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E38" s="2">
         <v>44196</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44104</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44012</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43921</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43830</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43738</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43646</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43555</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43465</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43373</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43281</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43190</v>
       </c>
-      <c r="P38" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1949,8 +2034,9 @@
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
-    </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q39" s="3"/>
+    </row>
+    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1967,38 +2053,39 @@
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
-    </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q40" s="3"/>
+    </row>
+    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>29800</v>
+      </c>
+      <c r="E41" s="3">
         <v>70300</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>54000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>49400</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>91600</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>80400</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>7700</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>300</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>400</v>
       </c>
-      <c r="L41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M41" s="3" t="s">
         <v>3</v>
       </c>
@@ -2011,23 +2098,26 @@
       <c r="P41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>77100</v>
+      </c>
+      <c r="E42" s="3">
         <v>39000</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>51000</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>42000</v>
       </c>
-      <c r="G42" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H42" s="3" t="s">
         <v>3</v>
       </c>
@@ -2040,8 +2130,8 @@
       <c r="K42" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L42" s="3">
-        <v>0</v>
+      <c r="L42" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="M42" s="3">
         <v>0</v>
@@ -2055,38 +2145,41 @@
       <c r="P42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>116700</v>
+      </c>
+      <c r="E43" s="3">
         <v>75700</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>78300</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>65000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>65900</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>47100</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>44300</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>44200</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>40700</v>
       </c>
-      <c r="L43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M43" s="3" t="s">
         <v>3</v>
       </c>
@@ -2099,8 +2192,11 @@
       <c r="P43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2143,37 +2239,40 @@
       <c r="P44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>4200</v>
+      </c>
+      <c r="E45" s="3">
         <v>5300</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>1300</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>3300</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>4400</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>5000</v>
-      </c>
-      <c r="I45" s="3">
-        <v>1300</v>
       </c>
       <c r="J45" s="3">
         <v>1300</v>
       </c>
       <c r="K45" s="3">
-        <v>0</v>
-      </c>
-      <c r="L45" s="3" t="s">
-        <v>3</v>
+        <v>1300</v>
+      </c>
+      <c r="L45" s="3">
+        <v>0</v>
       </c>
       <c r="M45" s="3" t="s">
         <v>3</v>
@@ -2187,38 +2286,41 @@
       <c r="P45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>227800</v>
+      </c>
+      <c r="E46" s="3">
         <v>190200</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>184600</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>159700</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>161900</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>132400</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>53300</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>45800</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>41100</v>
       </c>
-      <c r="L46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2231,8 +2333,11 @@
       <c r="P46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2275,38 +2380,41 @@
       <c r="P47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>12000</v>
+      </c>
+      <c r="E48" s="3">
         <v>12100</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>3500</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>3600</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>3700</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>3100</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>1000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>700</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>800</v>
       </c>
-      <c r="L48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M48" s="3" t="s">
         <v>3</v>
       </c>
@@ -2319,38 +2427,41 @@
       <c r="P48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>12900</v>
+      </c>
+      <c r="E49" s="3">
         <v>13100</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>13400</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>13600</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>13900</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>14300</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>14600</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>15000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>15400</v>
       </c>
-      <c r="L49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M49" s="3" t="s">
         <v>3</v>
       </c>
@@ -2363,8 +2474,11 @@
       <c r="P49" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2407,8 +2521,11 @@
       <c r="P50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2451,16 +2568,19 @@
       <c r="P51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>41900</v>
+      </c>
+      <c r="E52" s="3">
         <v>38500</v>
-      </c>
-      <c r="E52" s="3">
-        <v>600</v>
       </c>
       <c r="F52" s="3">
         <v>600</v>
@@ -2469,20 +2589,20 @@
         <v>600</v>
       </c>
       <c r="H52" s="3">
+        <v>600</v>
+      </c>
+      <c r="I52" s="3">
         <v>700</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>3600</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>1600</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>300</v>
       </c>
-      <c r="L52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2495,8 +2615,11 @@
       <c r="P52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2539,38 +2662,41 @@
       <c r="P53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>294600</v>
+      </c>
+      <c r="E54" s="3">
         <v>253900</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>202100</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>177600</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>180100</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>150400</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>72600</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>63100</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>57500</v>
       </c>
-      <c r="L54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2583,8 +2709,11 @@
       <c r="P54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2601,8 +2730,9 @@
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
-    </row>
-    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q55" s="3"/>
+    </row>
+    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2619,38 +2749,39 @@
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
-    </row>
-    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q56" s="3"/>
+    </row>
+    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>57300</v>
+      </c>
+      <c r="E57" s="3">
         <v>43500</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>42200</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>31900</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>39400</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>19400</v>
-      </c>
-      <c r="I57" s="3">
-        <v>23500</v>
       </c>
       <c r="J57" s="3">
         <v>23500</v>
       </c>
       <c r="K57" s="3">
+        <v>23500</v>
+      </c>
+      <c r="L57" s="3">
         <v>19000</v>
       </c>
-      <c r="L57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M57" s="3" t="s">
         <v>3</v>
       </c>
@@ -2663,8 +2794,11 @@
       <c r="P57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2680,21 +2814,21 @@
       <c r="G58" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H58" s="3">
-        <v>0</v>
+      <c r="H58" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="I58" s="3">
         <v>0</v>
       </c>
       <c r="J58" s="3">
+        <v>0</v>
+      </c>
+      <c r="K58" s="3">
         <v>3100</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>6600</v>
       </c>
-      <c r="L58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M58" s="3" t="s">
         <v>3</v>
       </c>
@@ -2707,38 +2841,41 @@
       <c r="P58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>43700</v>
+      </c>
+      <c r="E59" s="3">
         <v>34300</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>32000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>25700</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>19600</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>16800</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>34100</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>19700</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>17800</v>
       </c>
-      <c r="L59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M59" s="3" t="s">
         <v>3</v>
       </c>
@@ -2751,38 +2888,41 @@
       <c r="P59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>101000</v>
+      </c>
+      <c r="E60" s="3">
         <v>77800</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>74200</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>57700</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>59100</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>36200</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>57600</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>46400</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>43300</v>
       </c>
-      <c r="L60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M60" s="3" t="s">
         <v>3</v>
       </c>
@@ -2795,8 +2935,11 @@
       <c r="P60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2839,40 +2982,43 @@
       <c r="P61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>9000</v>
+      </c>
+      <c r="E62" s="3">
         <v>9200</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>600</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>300</v>
       </c>
-      <c r="G62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H62" s="3" t="s">
         <v>3</v>
       </c>
       <c r="I62" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="J62" s="3">
-        <v>0</v>
+      <c r="J62" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K62" s="3">
         <v>0</v>
       </c>
-      <c r="L62" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M62" s="3">
-        <v>0</v>
+      <c r="L62" s="3">
+        <v>0</v>
+      </c>
+      <c r="M62" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="N62" s="3">
         <v>0</v>
@@ -2883,8 +3029,11 @@
       <c r="P62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2927,8 +3076,11 @@
       <c r="P63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2971,8 +3123,11 @@
       <c r="P64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3015,38 +3170,41 @@
       <c r="P65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>110000</v>
+      </c>
+      <c r="E66" s="3">
         <v>87000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>74800</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>58000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>59100</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>36200</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>57600</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>46400</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>43300</v>
       </c>
-      <c r="L66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M66" s="3" t="s">
         <v>3</v>
       </c>
@@ -3059,8 +3217,11 @@
       <c r="P66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3077,8 +3238,9 @@
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
-    </row>
-    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q67" s="3"/>
+    </row>
+    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3121,8 +3283,11 @@
       <c r="P68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3165,8 +3330,11 @@
       <c r="P69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3186,7 +3354,7 @@
         <v>0</v>
       </c>
       <c r="I70" s="3">
-        <v>106200</v>
+        <v>0</v>
       </c>
       <c r="J70" s="3">
         <v>106200</v>
@@ -3195,7 +3363,7 @@
         <v>106200</v>
       </c>
       <c r="L70" s="3">
-        <v>0</v>
+        <v>106200</v>
       </c>
       <c r="M70" s="3">
         <v>0</v>
@@ -3209,8 +3377,11 @@
       <c r="P70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3253,38 +3424,41 @@
       <c r="P71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-53000</v>
+      </c>
+      <c r="E72" s="3">
         <v>-68200</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-105900</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-111200</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-109400</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-113500</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-109100</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-100800</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-102300</v>
       </c>
-      <c r="L72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M72" s="3" t="s">
         <v>3</v>
       </c>
@@ -3297,8 +3471,11 @@
       <c r="P72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3341,8 +3518,11 @@
       <c r="P73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3385,8 +3565,11 @@
       <c r="P74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3429,38 +3612,41 @@
       <c r="P75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>184600</v>
+      </c>
+      <c r="E76" s="3">
         <v>166900</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>127300</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>119600</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>121100</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>114300</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>-91300</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>-89500</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-92100</v>
       </c>
-      <c r="L76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M76" s="3" t="s">
         <v>3</v>
       </c>
@@ -3473,8 +3659,11 @@
       <c r="P76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3517,101 +3706,110 @@
       <c r="P77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E80" s="2">
         <v>44196</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44104</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44012</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43921</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43830</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43738</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43646</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43555</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43465</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43373</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43281</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43190</v>
       </c>
-      <c r="P80" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>15200</v>
+      </c>
+      <c r="E81" s="3">
         <v>38900</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>5400</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-1800</v>
       </c>
-      <c r="G81" s="3">
-        <v>4100</v>
-      </c>
       <c r="H81" s="3">
+        <v>3600</v>
+      </c>
+      <c r="I81" s="3">
         <v>-4400</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-8200</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>4400</v>
       </c>
-      <c r="K81" s="3">
-        <v>0</v>
-      </c>
       <c r="L81" s="3">
+        <v>0</v>
+      </c>
+      <c r="M81" s="3">
         <v>-1600</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-1100</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-1300</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-1600</v>
       </c>
-      <c r="P81" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3628,13 +3826,14 @@
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
-    </row>
-    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q82" s="3"/>
+    </row>
+    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="E83" s="3">
         <v>500</v>
@@ -3652,10 +3851,10 @@
         <v>500</v>
       </c>
       <c r="J83" s="3">
+        <v>500</v>
+      </c>
+      <c r="K83" s="3">
         <v>1100</v>
-      </c>
-      <c r="K83" s="3">
-        <v>500</v>
       </c>
       <c r="L83" s="3">
         <v>500</v>
@@ -3667,13 +3866,16 @@
         <v>500</v>
       </c>
       <c r="O83" s="3">
+        <v>500</v>
+      </c>
+      <c r="P83" s="3">
         <v>400</v>
       </c>
-      <c r="P83" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3716,8 +3918,11 @@
       <c r="P84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3760,8 +3965,11 @@
       <c r="P85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3804,8 +4012,11 @@
       <c r="P86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3848,8 +4059,11 @@
       <c r="P87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3892,52 +4106,58 @@
       <c r="P88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>500</v>
+      </c>
+      <c r="E89" s="3">
         <v>6500</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>15300</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>2200</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>12100</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-5500</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>5900</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-1900</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-6200</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>4100</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-500</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>3100</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-4300</v>
       </c>
-      <c r="P89" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3954,13 +4174,14 @@
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
-    </row>
-    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q90" s="3"/>
+    </row>
+    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-100</v>
+        <v>-400</v>
       </c>
       <c r="E91" s="3">
         <v>-100</v>
@@ -3969,37 +4190,40 @@
         <v>-100</v>
       </c>
       <c r="G91" s="3">
+        <v>-100</v>
+      </c>
+      <c r="H91" s="3">
         <v>-700</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-2300</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-400</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-300</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-100</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-200</v>
       </c>
-      <c r="M91" s="3">
-        <v>0</v>
-      </c>
       <c r="N91" s="3">
+        <v>0</v>
+      </c>
+      <c r="O91" s="3">
         <v>-100</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-300</v>
       </c>
-      <c r="P91" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4042,8 +4266,11 @@
       <c r="P92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4086,52 +4313,58 @@
       <c r="P93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-38500</v>
+      </c>
+      <c r="E94" s="3">
         <v>11900</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-9100</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-42100</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-700</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-2300</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-400</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-100</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>100</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-100</v>
       </c>
-      <c r="M94" s="3">
-        <v>0</v>
-      </c>
       <c r="N94" s="3">
+        <v>0</v>
+      </c>
+      <c r="O94" s="3">
         <v>-100</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>2200</v>
       </c>
-      <c r="P94" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4148,8 +4381,9 @@
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
-    </row>
-    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q95" s="3"/>
+    </row>
+    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4192,8 +4426,11 @@
       <c r="P96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4236,8 +4473,11 @@
       <c r="P97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4280,8 +4520,11 @@
       <c r="P98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4324,52 +4567,58 @@
       <c r="P99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-2500</v>
+      </c>
+      <c r="E100" s="3">
         <v>-2100</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-1600</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-2400</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-200</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>80500</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>1900</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>2200</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>6300</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-4000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>400</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-4200</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-900</v>
       </c>
-      <c r="P100" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4412,48 +4661,54 @@
       <c r="P101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-40500</v>
+      </c>
+      <c r="E102" s="3">
         <v>16300</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>4600</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-42200</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>11300</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>72700</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>7400</v>
-      </c>
-      <c r="J102" s="3">
-        <v>200</v>
       </c>
       <c r="K102" s="3">
         <v>200</v>
       </c>
       <c r="L102" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="M102" s="3">
+        <v>0</v>
+      </c>
+      <c r="N102" s="3">
         <v>-200</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-1200</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-3100</v>
       </c>
-      <c r="P102" s="3" t="s">
+      <c r="Q102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/PGNY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/PGNY_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="92">
   <si>
     <t>PGNY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Q102"/>
+  <dimension ref="A5:R102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,219 +665,232 @@
     <col min="1" max="1" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E7" s="2">
         <v>44286</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44196</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44104</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44012</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43921</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43830</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43738</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43646</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43555</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43465</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43373</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43281</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43190</v>
       </c>
-      <c r="Q7" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>128700</v>
+      </c>
+      <c r="E8" s="3">
         <v>122100</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>100300</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>98900</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>64600</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>81000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>65100</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>61200</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>103400</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>47200</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>29200</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>27800</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>26200</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>22300</v>
       </c>
-      <c r="Q8" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>99000</v>
+      </c>
+      <c r="E9" s="3">
         <v>93200</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>79600</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>78100</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>52700</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>64400</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>53400</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>48900</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>81900</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>37200</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>23800</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>22800</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>21100</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>18300</v>
       </c>
-      <c r="Q9" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>29700</v>
+      </c>
+      <c r="E10" s="3">
         <v>28900</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>20700</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>20800</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>12000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>16600</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>11700</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>12300</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>21500</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>10000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>5400</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>5000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>5100</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>4000</v>
       </c>
-      <c r="Q10" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -895,8 +908,9 @@
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R11" s="3"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -942,8 +956,11 @@
       <c r="Q12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -989,37 +1006,40 @@
       <c r="Q13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E14" s="3">
+      <c r="E14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F14" s="3">
         <v>900</v>
       </c>
-      <c r="F14" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G14" s="3" t="s">
         <v>3</v>
       </c>
       <c r="H14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="I14" s="3">
+      <c r="I14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J14" s="3">
         <v>2000</v>
-      </c>
-      <c r="J14" s="3">
-        <v>200</v>
       </c>
       <c r="K14" s="3">
         <v>200</v>
       </c>
-      <c r="L14" s="3" t="s">
-        <v>3</v>
+      <c r="L14" s="3">
+        <v>200</v>
       </c>
       <c r="M14" s="3" t="s">
         <v>3</v>
@@ -1036,8 +1056,11 @@
       <c r="Q14" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R14" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1083,8 +1106,11 @@
       <c r="Q15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1099,102 +1125,109 @@
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
-    </row>
-    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R16" s="3"/>
+    </row>
+    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>117000</v>
+      </c>
+      <c r="E17" s="3">
         <v>110300</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>99400</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>93600</v>
       </c>
-      <c r="G17" s="3">
-        <v>66400</v>
-      </c>
       <c r="H17" s="3">
+        <v>65700</v>
+      </c>
+      <c r="I17" s="3">
         <v>77600</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>64000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>58100</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>97900</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>44100</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>29900</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>28400</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>26500</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>24100</v>
       </c>
-      <c r="Q17" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>11700</v>
+      </c>
+      <c r="E18" s="3">
         <v>11800</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>900</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>5300</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="I18" s="3">
+        <v>3400</v>
+      </c>
+      <c r="J18" s="3">
+        <v>1100</v>
+      </c>
+      <c r="K18" s="3">
+        <v>3100</v>
+      </c>
+      <c r="L18" s="3">
+        <v>5500</v>
+      </c>
+      <c r="M18" s="3">
+        <v>3100</v>
+      </c>
+      <c r="N18" s="3">
+        <v>-700</v>
+      </c>
+      <c r="O18" s="3">
+        <v>-600</v>
+      </c>
+      <c r="P18" s="3">
+        <v>-300</v>
+      </c>
+      <c r="Q18" s="3">
         <v>-1800</v>
       </c>
-      <c r="H18" s="3">
-        <v>3400</v>
-      </c>
-      <c r="I18" s="3">
-        <v>1100</v>
-      </c>
-      <c r="J18" s="3">
-        <v>3100</v>
-      </c>
-      <c r="K18" s="3">
-        <v>5500</v>
-      </c>
-      <c r="L18" s="3">
-        <v>3100</v>
-      </c>
-      <c r="M18" s="3">
-        <v>-700</v>
-      </c>
-      <c r="N18" s="3">
-        <v>-600</v>
-      </c>
-      <c r="O18" s="3">
-        <v>-300</v>
-      </c>
-      <c r="P18" s="3">
-        <v>-1800</v>
-      </c>
-      <c r="Q18" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1212,13 +1245,14 @@
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
-    </row>
-    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R19" s="3"/>
+    </row>
+    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="E20" s="3">
         <v>0</v>
@@ -1230,37 +1264,40 @@
         <v>0</v>
       </c>
       <c r="H20" s="3">
+        <v>0</v>
+      </c>
+      <c r="I20" s="3">
         <v>300</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-5600</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-11200</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-1200</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-600</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-1400</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-900</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-500</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-200</v>
       </c>
-      <c r="Q20" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1268,46 +1305,49 @@
         <v>12200</v>
       </c>
       <c r="E21" s="3">
+        <v>12200</v>
+      </c>
+      <c r="F21" s="3">
         <v>1400</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>5800</v>
       </c>
-      <c r="G21" s="3">
-        <v>-1400</v>
-      </c>
       <c r="H21" s="3">
+        <v>-600</v>
+      </c>
+      <c r="I21" s="3">
         <v>4300</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-3900</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-7600</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>5300</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>3100</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-1600</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-1000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-300</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-1600</v>
       </c>
-      <c r="Q21" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1329,15 +1369,15 @@
       <c r="I22" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="J22" s="3">
-        <v>0</v>
+      <c r="J22" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K22" s="3">
+        <v>0</v>
+      </c>
+      <c r="L22" s="3">
         <v>200</v>
       </c>
-      <c r="L22" s="3">
-        <v>0</v>
-      </c>
       <c r="M22" s="3">
         <v>0</v>
       </c>
@@ -1345,110 +1385,119 @@
         <v>0</v>
       </c>
       <c r="O22" s="3">
+        <v>0</v>
+      </c>
+      <c r="P22" s="3">
         <v>300</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>100</v>
       </c>
-      <c r="Q22" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R22" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>11900</v>
+      </c>
+      <c r="E23" s="3">
         <v>11800</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>1000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>5400</v>
       </c>
-      <c r="G23" s="3">
-        <v>-1800</v>
-      </c>
       <c r="H23" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="I23" s="3">
         <v>3700</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-4500</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-8200</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>4100</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>2500</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-2100</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-1500</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-1100</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-2100</v>
       </c>
-      <c r="Q23" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>-6800</v>
+      </c>
+      <c r="E24" s="3">
         <v>-3400</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>-37900</v>
       </c>
-      <c r="F24" s="3">
-        <v>0</v>
-      </c>
       <c r="G24" s="3">
         <v>0</v>
       </c>
       <c r="H24" s="3">
+        <v>0</v>
+      </c>
+      <c r="I24" s="3">
         <v>100</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>-100</v>
       </c>
-      <c r="J24" s="3">
-        <v>0</v>
-      </c>
       <c r="K24" s="3">
+        <v>0</v>
+      </c>
+      <c r="L24" s="3">
         <v>100</v>
       </c>
-      <c r="L24" s="3">
-        <v>0</v>
-      </c>
       <c r="M24" s="3">
+        <v>0</v>
+      </c>
+      <c r="N24" s="3">
         <v>-500</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>-400</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>-300</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>-500</v>
       </c>
-      <c r="Q24" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1494,102 +1543,111 @@
       <c r="Q25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>18700</v>
+      </c>
+      <c r="E26" s="3">
         <v>15200</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>38900</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>5400</v>
       </c>
-      <c r="G26" s="3">
-        <v>-1800</v>
-      </c>
       <c r="H26" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="I26" s="3">
         <v>3600</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-4400</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-8200</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>4000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>2500</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-1600</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-1100</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-800</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-1600</v>
       </c>
-      <c r="Q26" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>18700</v>
+      </c>
+      <c r="E27" s="3">
         <v>15200</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>38900</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>5400</v>
       </c>
-      <c r="G27" s="3">
-        <v>-1800</v>
-      </c>
       <c r="H27" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="I27" s="3">
         <v>3600</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-4400</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-8200</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>4400</v>
       </c>
-      <c r="L27" s="3">
-        <v>0</v>
-      </c>
       <c r="M27" s="3">
+        <v>0</v>
+      </c>
+      <c r="N27" s="3">
         <v>-1600</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-1100</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-1300</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-7300</v>
       </c>
-      <c r="Q27" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1635,8 +1693,11 @@
       <c r="Q28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1655,8 +1716,8 @@
       <c r="H29" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="I29" s="3">
-        <v>0</v>
+      <c r="I29" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="J29" s="3">
         <v>0</v>
@@ -1668,22 +1729,25 @@
         <v>0</v>
       </c>
       <c r="M29" s="3">
+        <v>0</v>
+      </c>
+      <c r="N29" s="3">
         <v>100</v>
       </c>
-      <c r="N29" s="3">
-        <v>0</v>
-      </c>
       <c r="O29" s="3">
         <v>0</v>
       </c>
       <c r="P29" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q29" s="3">
         <v>5700</v>
       </c>
-      <c r="Q29" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R29" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1729,8 +1793,11 @@
       <c r="Q30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1776,13 +1843,16 @@
       <c r="Q31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="E32" s="3">
         <v>0</v>
@@ -1794,84 +1864,90 @@
         <v>0</v>
       </c>
       <c r="H32" s="3">
+        <v>0</v>
+      </c>
+      <c r="I32" s="3">
         <v>-300</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>5600</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>11200</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>1200</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>600</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>1400</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>900</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>500</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>200</v>
       </c>
-      <c r="Q32" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>18700</v>
+      </c>
+      <c r="E33" s="3">
         <v>15200</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>38900</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>5400</v>
       </c>
-      <c r="G33" s="3">
-        <v>-1800</v>
-      </c>
       <c r="H33" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="I33" s="3">
         <v>3600</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-4400</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-8200</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>4400</v>
       </c>
-      <c r="L33" s="3">
-        <v>0</v>
-      </c>
       <c r="M33" s="3">
+        <v>0</v>
+      </c>
+      <c r="N33" s="3">
         <v>-1600</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-1100</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-1300</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-1600</v>
       </c>
-      <c r="Q33" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1917,107 +1993,116 @@
       <c r="Q34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>18700</v>
+      </c>
+      <c r="E35" s="3">
         <v>15200</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>38900</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>5400</v>
       </c>
-      <c r="G35" s="3">
-        <v>-1800</v>
-      </c>
       <c r="H35" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="I35" s="3">
         <v>3600</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-4400</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-8200</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>4400</v>
       </c>
-      <c r="L35" s="3">
-        <v>0</v>
-      </c>
       <c r="M35" s="3">
+        <v>0</v>
+      </c>
+      <c r="N35" s="3">
         <v>-1600</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-1100</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-1300</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-1600</v>
       </c>
-      <c r="Q35" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E38" s="2">
         <v>44286</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44196</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44104</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44012</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43921</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43830</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43738</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43646</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43555</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43465</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43373</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43281</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43190</v>
       </c>
-      <c r="Q38" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2035,8 +2120,9 @@
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
-    </row>
-    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R39" s="3"/>
+    </row>
+    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2054,41 +2140,42 @@
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
-    </row>
-    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R40" s="3"/>
+    </row>
+    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>48700</v>
+      </c>
+      <c r="E41" s="3">
         <v>29800</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>70300</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>54000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>49400</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>91600</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>80400</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>7700</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>300</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>400</v>
       </c>
-      <c r="M41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N41" s="3" t="s">
         <v>3</v>
       </c>
@@ -2101,26 +2188,29 @@
       <c r="Q41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>45200</v>
+      </c>
+      <c r="E42" s="3">
         <v>77100</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>39000</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>51000</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>42000</v>
       </c>
-      <c r="H42" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I42" s="3" t="s">
         <v>3</v>
       </c>
@@ -2133,8 +2223,8 @@
       <c r="L42" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M42" s="3">
-        <v>0</v>
+      <c r="M42" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="N42" s="3">
         <v>0</v>
@@ -2148,41 +2238,44 @@
       <c r="Q42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>140800</v>
+      </c>
+      <c r="E43" s="3">
         <v>116700</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>75700</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>78300</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>65000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>65900</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>47100</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>44300</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>44200</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>40700</v>
       </c>
-      <c r="M43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N43" s="3" t="s">
         <v>3</v>
       </c>
@@ -2195,8 +2288,11 @@
       <c r="Q43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2242,40 +2338,43 @@
       <c r="Q44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>3800</v>
+      </c>
+      <c r="E45" s="3">
         <v>4200</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>5300</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>1300</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>3300</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>4400</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>5000</v>
-      </c>
-      <c r="J45" s="3">
-        <v>1300</v>
       </c>
       <c r="K45" s="3">
         <v>1300</v>
       </c>
       <c r="L45" s="3">
-        <v>0</v>
-      </c>
-      <c r="M45" s="3" t="s">
-        <v>3</v>
+        <v>1300</v>
+      </c>
+      <c r="M45" s="3">
+        <v>0</v>
       </c>
       <c r="N45" s="3" t="s">
         <v>3</v>
@@ -2289,41 +2388,44 @@
       <c r="Q45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>238500</v>
+      </c>
+      <c r="E46" s="3">
         <v>227800</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>190200</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>184600</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>159700</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>161900</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>132400</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>53300</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>45800</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>41100</v>
       </c>
-      <c r="M46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2336,8 +2438,11 @@
       <c r="Q46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2383,41 +2488,44 @@
       <c r="Q47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>12200</v>
+      </c>
+      <c r="E48" s="3">
         <v>12000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>12100</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>3500</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>3600</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>3700</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>3100</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>1000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>700</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>800</v>
       </c>
-      <c r="M48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N48" s="3" t="s">
         <v>3</v>
       </c>
@@ -2430,41 +2538,44 @@
       <c r="Q48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>12700</v>
+      </c>
+      <c r="E49" s="3">
         <v>12900</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>13100</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>13400</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>13600</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>13900</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>14300</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>14600</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>15000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>15400</v>
       </c>
-      <c r="M49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N49" s="3" t="s">
         <v>3</v>
       </c>
@@ -2477,8 +2588,11 @@
       <c r="Q49" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2524,8 +2638,11 @@
       <c r="Q50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2571,19 +2688,22 @@
       <c r="Q51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>48700</v>
+      </c>
+      <c r="E52" s="3">
         <v>41900</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>38500</v>
-      </c>
-      <c r="F52" s="3">
-        <v>600</v>
       </c>
       <c r="G52" s="3">
         <v>600</v>
@@ -2592,20 +2712,20 @@
         <v>600</v>
       </c>
       <c r="I52" s="3">
+        <v>600</v>
+      </c>
+      <c r="J52" s="3">
         <v>700</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>3600</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>1600</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>300</v>
       </c>
-      <c r="M52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2618,8 +2738,11 @@
       <c r="Q52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2665,41 +2788,44 @@
       <c r="Q53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>312100</v>
+      </c>
+      <c r="E54" s="3">
         <v>294600</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>253900</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>202100</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>177600</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>180100</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>150400</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>72600</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>63100</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>57500</v>
       </c>
-      <c r="M54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2712,8 +2838,11 @@
       <c r="Q54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2731,8 +2860,9 @@
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
-    </row>
-    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R55" s="3"/>
+    </row>
+    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2750,41 +2880,42 @@
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
-    </row>
-    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R56" s="3"/>
+    </row>
+    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>54700</v>
+      </c>
+      <c r="E57" s="3">
         <v>57300</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>43500</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>42200</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>31900</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>39400</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>19400</v>
-      </c>
-      <c r="J57" s="3">
-        <v>23500</v>
       </c>
       <c r="K57" s="3">
         <v>23500</v>
       </c>
       <c r="L57" s="3">
+        <v>23500</v>
+      </c>
+      <c r="M57" s="3">
         <v>19000</v>
       </c>
-      <c r="M57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N57" s="3" t="s">
         <v>3</v>
       </c>
@@ -2797,25 +2928,28 @@
       <c r="Q57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D58" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E58" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F58" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G58" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H58" s="3" t="s">
-        <v>3</v>
+      <c r="D58" s="3">
+        <v>0</v>
+      </c>
+      <c r="E58" s="3">
+        <v>0</v>
+      </c>
+      <c r="F58" s="3">
+        <v>0</v>
+      </c>
+      <c r="G58" s="3">
+        <v>0</v>
+      </c>
+      <c r="H58" s="3">
+        <v>0</v>
       </c>
       <c r="I58" s="3">
         <v>0</v>
@@ -2824,14 +2958,14 @@
         <v>0</v>
       </c>
       <c r="K58" s="3">
+        <v>0</v>
+      </c>
+      <c r="L58" s="3">
         <v>3100</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>6600</v>
       </c>
-      <c r="M58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N58" s="3" t="s">
         <v>3</v>
       </c>
@@ -2844,41 +2978,44 @@
       <c r="Q58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>44100</v>
+      </c>
+      <c r="E59" s="3">
         <v>43700</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>34300</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>32000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>25700</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>19600</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>16800</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>34100</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>19700</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>17800</v>
       </c>
-      <c r="M59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N59" s="3" t="s">
         <v>3</v>
       </c>
@@ -2891,41 +3028,44 @@
       <c r="Q59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>98800</v>
+      </c>
+      <c r="E60" s="3">
         <v>101000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>77800</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>74200</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>57700</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>59100</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>36200</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>57600</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>46400</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>43300</v>
       </c>
-      <c r="M60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N60" s="3" t="s">
         <v>3</v>
       </c>
@@ -2938,8 +3078,11 @@
       <c r="Q60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2985,43 +3128,46 @@
       <c r="Q61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>8700</v>
+      </c>
+      <c r="E62" s="3">
         <v>9000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>9200</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>600</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>300</v>
       </c>
-      <c r="H62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I62" s="3" t="s">
         <v>3</v>
       </c>
       <c r="J62" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K62" s="3">
-        <v>0</v>
+      <c r="K62" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="L62" s="3">
         <v>0</v>
       </c>
-      <c r="M62" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N62" s="3">
-        <v>0</v>
+      <c r="M62" s="3">
+        <v>0</v>
+      </c>
+      <c r="N62" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="O62" s="3">
         <v>0</v>
@@ -3032,8 +3178,11 @@
       <c r="Q62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3079,8 +3228,11 @@
       <c r="Q63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3126,8 +3278,11 @@
       <c r="Q64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3173,41 +3328,44 @@
       <c r="Q65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>107500</v>
+      </c>
+      <c r="E66" s="3">
         <v>110000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>87000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>74800</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>58000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>59100</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>36200</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>57600</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>46400</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>43300</v>
       </c>
-      <c r="M66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N66" s="3" t="s">
         <v>3</v>
       </c>
@@ -3220,8 +3378,11 @@
       <c r="Q66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3239,8 +3400,9 @@
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
-    </row>
-    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R67" s="3"/>
+    </row>
+    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3286,8 +3448,11 @@
       <c r="Q68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3333,8 +3498,11 @@
       <c r="Q69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3357,7 +3525,7 @@
         <v>0</v>
       </c>
       <c r="J70" s="3">
-        <v>106200</v>
+        <v>0</v>
       </c>
       <c r="K70" s="3">
         <v>106200</v>
@@ -3366,7 +3534,7 @@
         <v>106200</v>
       </c>
       <c r="M70" s="3">
-        <v>0</v>
+        <v>106200</v>
       </c>
       <c r="N70" s="3">
         <v>0</v>
@@ -3380,8 +3548,11 @@
       <c r="Q70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3427,41 +3598,44 @@
       <c r="Q71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-34300</v>
+      </c>
+      <c r="E72" s="3">
         <v>-53000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-68200</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-105900</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-111200</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-109400</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-113500</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-109100</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-100800</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-102300</v>
       </c>
-      <c r="M72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N72" s="3" t="s">
         <v>3</v>
       </c>
@@ -3474,8 +3648,11 @@
       <c r="Q72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3521,8 +3698,11 @@
       <c r="Q73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3568,8 +3748,11 @@
       <c r="Q74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3615,41 +3798,44 @@
       <c r="Q75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>204500</v>
+      </c>
+      <c r="E76" s="3">
         <v>184600</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>166900</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>127300</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>119600</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>121100</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>114300</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>-91300</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-89500</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>-92100</v>
       </c>
-      <c r="M76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N76" s="3" t="s">
         <v>3</v>
       </c>
@@ -3662,8 +3848,11 @@
       <c r="Q76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3709,107 +3898,116 @@
       <c r="Q77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E80" s="2">
         <v>44286</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44196</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44104</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44012</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43921</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43830</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43738</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43646</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43555</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43465</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43373</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43281</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43190</v>
       </c>
-      <c r="Q80" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>18700</v>
+      </c>
+      <c r="E81" s="3">
         <v>15200</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>38900</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>5400</v>
       </c>
-      <c r="G81" s="3">
-        <v>-1800</v>
-      </c>
       <c r="H81" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="I81" s="3">
         <v>3600</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-4400</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-8200</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>4400</v>
       </c>
-      <c r="L81" s="3">
-        <v>0</v>
-      </c>
       <c r="M81" s="3">
+        <v>0</v>
+      </c>
+      <c r="N81" s="3">
         <v>-1600</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-1100</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-1300</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-1600</v>
       </c>
-      <c r="Q81" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3827,16 +4025,17 @@
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
-    </row>
-    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R82" s="3"/>
+    </row>
+    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>300</v>
+      </c>
+      <c r="E83" s="3">
         <v>400</v>
-      </c>
-      <c r="E83" s="3">
-        <v>500</v>
       </c>
       <c r="F83" s="3">
         <v>500</v>
@@ -3854,10 +4053,10 @@
         <v>500</v>
       </c>
       <c r="K83" s="3">
+        <v>500</v>
+      </c>
+      <c r="L83" s="3">
         <v>1100</v>
-      </c>
-      <c r="L83" s="3">
-        <v>500</v>
       </c>
       <c r="M83" s="3">
         <v>500</v>
@@ -3869,13 +4068,16 @@
         <v>500</v>
       </c>
       <c r="P83" s="3">
+        <v>500</v>
+      </c>
+      <c r="Q83" s="3">
         <v>400</v>
       </c>
-      <c r="Q83" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3921,8 +4123,11 @@
       <c r="Q84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3968,8 +4173,11 @@
       <c r="Q85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4015,8 +4223,11 @@
       <c r="Q86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4062,8 +4273,11 @@
       <c r="Q87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4109,55 +4323,61 @@
       <c r="Q88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-7500</v>
+      </c>
+      <c r="E89" s="3">
         <v>500</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>6500</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>15300</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>2200</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>12100</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-5500</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>5900</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-1900</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-6200</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>4100</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-500</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>3100</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-4300</v>
       </c>
-      <c r="Q89" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4175,8 +4395,9 @@
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
-    </row>
-    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R90" s="3"/>
+    </row>
+    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4184,7 +4405,7 @@
         <v>-400</v>
       </c>
       <c r="E91" s="3">
-        <v>-100</v>
+        <v>-400</v>
       </c>
       <c r="F91" s="3">
         <v>-100</v>
@@ -4193,37 +4414,40 @@
         <v>-100</v>
       </c>
       <c r="H91" s="3">
+        <v>-100</v>
+      </c>
+      <c r="I91" s="3">
         <v>-700</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-2300</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-400</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-300</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-100</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-200</v>
       </c>
-      <c r="N91" s="3">
-        <v>0</v>
-      </c>
       <c r="O91" s="3">
+        <v>0</v>
+      </c>
+      <c r="P91" s="3">
         <v>-100</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-300</v>
       </c>
-      <c r="Q91" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4269,8 +4493,11 @@
       <c r="Q92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4316,55 +4543,61 @@
       <c r="Q93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>31200</v>
+      </c>
+      <c r="E94" s="3">
         <v>-38500</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>11900</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-9100</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-42100</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-700</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-2300</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-400</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-100</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>100</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-100</v>
       </c>
-      <c r="N94" s="3">
-        <v>0</v>
-      </c>
       <c r="O94" s="3">
+        <v>0</v>
+      </c>
+      <c r="P94" s="3">
         <v>-100</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>2200</v>
       </c>
-      <c r="Q94" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4382,8 +4615,9 @@
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
-    </row>
-    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R95" s="3"/>
+    </row>
+    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4429,8 +4663,11 @@
       <c r="Q96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4476,8 +4713,11 @@
       <c r="Q97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4523,8 +4763,11 @@
       <c r="Q98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4570,55 +4813,61 @@
       <c r="Q99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-4800</v>
+      </c>
+      <c r="E100" s="3">
         <v>-2500</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-2100</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-1600</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-2400</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-200</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>80500</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>1900</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>2200</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>6300</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-4000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>400</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-4200</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-900</v>
       </c>
-      <c r="Q100" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4664,51 +4913,57 @@
       <c r="Q101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>18900</v>
+      </c>
+      <c r="E102" s="3">
         <v>-40500</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>16300</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>4600</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-42200</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>11300</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>72700</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>7400</v>
-      </c>
-      <c r="K102" s="3">
-        <v>200</v>
       </c>
       <c r="L102" s="3">
         <v>200</v>
       </c>
       <c r="M102" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="N102" s="3">
+        <v>0</v>
+      </c>
+      <c r="O102" s="3">
         <v>-200</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-1200</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-3100</v>
       </c>
-      <c r="Q102" s="3" t="s">
+      <c r="R102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/PGNY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/PGNY_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="92">
   <si>
     <t>PGNY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:R102"/>
+  <dimension ref="A5:S102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,232 +665,245 @@
     <col min="1" max="1" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E7" s="2">
         <v>44377</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44286</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44196</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44104</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44012</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43921</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43830</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43738</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43646</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43555</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43465</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43373</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43281</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43190</v>
       </c>
-      <c r="R7" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>122300</v>
+      </c>
+      <c r="E8" s="3">
         <v>128700</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>122100</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>100300</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>98900</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>64600</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>81000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>65100</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>61200</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>103400</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>47200</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>29200</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>27800</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>26200</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>22300</v>
       </c>
-      <c r="R8" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>93800</v>
+      </c>
+      <c r="E9" s="3">
         <v>99000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>93200</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>79600</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>78100</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>52700</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>64400</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>53400</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>48900</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>81900</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>37200</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>23800</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>22800</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>21100</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>18300</v>
       </c>
-      <c r="R9" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>28500</v>
+      </c>
+      <c r="E10" s="3">
         <v>29700</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>28900</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>20700</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>20800</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>12000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>16600</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>11700</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>12300</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>21500</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>10000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>5400</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>5000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>5100</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>4000</v>
       </c>
-      <c r="R10" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -909,8 +922,9 @@
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S11" s="3"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -959,8 +973,11 @@
       <c r="R12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1009,8 +1026,11 @@
       <c r="R13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1020,29 +1040,29 @@
       <c r="E14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F14" s="3">
+      <c r="F14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G14" s="3">
         <v>900</v>
       </c>
-      <c r="G14" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H14" s="3" t="s">
         <v>3</v>
       </c>
       <c r="I14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="J14" s="3">
+      <c r="J14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K14" s="3">
         <v>2000</v>
-      </c>
-      <c r="K14" s="3">
-        <v>200</v>
       </c>
       <c r="L14" s="3">
         <v>200</v>
       </c>
-      <c r="M14" s="3" t="s">
-        <v>3</v>
+      <c r="M14" s="3">
+        <v>200</v>
       </c>
       <c r="N14" s="3" t="s">
         <v>3</v>
@@ -1059,8 +1079,11 @@
       <c r="R14" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S14" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1109,8 +1132,11 @@
       <c r="R15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1126,108 +1152,115 @@
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
-    </row>
-    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S16" s="3"/>
+    </row>
+    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>113200</v>
+      </c>
+      <c r="E17" s="3">
         <v>117000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>110300</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>99400</v>
       </c>
-      <c r="G17" s="3">
-        <v>93600</v>
-      </c>
       <c r="H17" s="3">
+        <v>94100</v>
+      </c>
+      <c r="I17" s="3">
         <v>65700</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>77600</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>64000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>58100</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>97900</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>44100</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>29900</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>28400</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>26500</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>24100</v>
       </c>
-      <c r="R17" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>9100</v>
+      </c>
+      <c r="E18" s="3">
         <v>11700</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>11800</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>900</v>
       </c>
-      <c r="G18" s="3">
-        <v>5300</v>
-      </c>
       <c r="H18" s="3">
+        <v>4800</v>
+      </c>
+      <c r="I18" s="3">
         <v>-1100</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>3400</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>1100</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>3100</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>5500</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>3100</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-700</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-600</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-300</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-1800</v>
       </c>
-      <c r="R18" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1246,17 +1279,18 @@
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
-    </row>
-    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S19" s="3"/>
+    </row>
+    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>0</v>
+      </c>
+      <c r="E20" s="3">
         <v>200</v>
       </c>
-      <c r="E20" s="3">
-        <v>0</v>
-      </c>
       <c r="F20" s="3">
         <v>0</v>
       </c>
@@ -1267,87 +1301,93 @@
         <v>0</v>
       </c>
       <c r="I20" s="3">
+        <v>0</v>
+      </c>
+      <c r="J20" s="3">
         <v>300</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-5600</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-11200</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-1200</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-600</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-1400</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-900</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-500</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-200</v>
       </c>
-      <c r="R20" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>12200</v>
+        <v>9400</v>
       </c>
       <c r="E21" s="3">
         <v>12200</v>
       </c>
       <c r="F21" s="3">
+        <v>12200</v>
+      </c>
+      <c r="G21" s="3">
         <v>1400</v>
       </c>
-      <c r="G21" s="3">
-        <v>5800</v>
-      </c>
       <c r="H21" s="3">
+        <v>5300</v>
+      </c>
+      <c r="I21" s="3">
         <v>-600</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>4300</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-3900</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-7600</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>5300</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>3100</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-1600</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-1000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-300</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-1600</v>
       </c>
-      <c r="R21" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1372,15 +1412,15 @@
       <c r="J22" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K22" s="3">
-        <v>0</v>
+      <c r="K22" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="L22" s="3">
+        <v>0</v>
+      </c>
+      <c r="M22" s="3">
         <v>200</v>
       </c>
-      <c r="M22" s="3">
-        <v>0</v>
-      </c>
       <c r="N22" s="3">
         <v>0</v>
       </c>
@@ -1388,116 +1428,125 @@
         <v>0</v>
       </c>
       <c r="P22" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q22" s="3">
         <v>300</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>100</v>
       </c>
-      <c r="R22" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S22" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>9100</v>
+      </c>
+      <c r="E23" s="3">
         <v>11900</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>11800</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>1000</v>
       </c>
-      <c r="G23" s="3">
-        <v>5400</v>
-      </c>
       <c r="H23" s="3">
+        <v>4800</v>
+      </c>
+      <c r="I23" s="3">
         <v>-1100</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>3700</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-4500</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-8200</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>4100</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>2500</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-2100</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-1500</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-1100</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-2100</v>
       </c>
-      <c r="R23" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>-7700</v>
+      </c>
+      <c r="E24" s="3">
         <v>-6800</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>-3400</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>-37900</v>
       </c>
-      <c r="G24" s="3">
-        <v>0</v>
-      </c>
       <c r="H24" s="3">
         <v>0</v>
       </c>
       <c r="I24" s="3">
+        <v>0</v>
+      </c>
+      <c r="J24" s="3">
         <v>100</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>-100</v>
       </c>
-      <c r="K24" s="3">
-        <v>0</v>
-      </c>
       <c r="L24" s="3">
+        <v>0</v>
+      </c>
+      <c r="M24" s="3">
         <v>100</v>
       </c>
-      <c r="M24" s="3">
-        <v>0</v>
-      </c>
       <c r="N24" s="3">
+        <v>0</v>
+      </c>
+      <c r="O24" s="3">
         <v>-500</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>-400</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>-300</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>-500</v>
       </c>
-      <c r="R24" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1546,108 +1595,117 @@
       <c r="R25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>16800</v>
+      </c>
+      <c r="E26" s="3">
         <v>18700</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>15200</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>38900</v>
       </c>
-      <c r="G26" s="3">
-        <v>5400</v>
-      </c>
       <c r="H26" s="3">
+        <v>4800</v>
+      </c>
+      <c r="I26" s="3">
         <v>-1100</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>3600</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-4400</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-8200</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>4000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>2500</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-1600</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-1100</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-800</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-1600</v>
       </c>
-      <c r="R26" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>16800</v>
+      </c>
+      <c r="E27" s="3">
         <v>18700</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>15200</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>38900</v>
       </c>
-      <c r="G27" s="3">
-        <v>5400</v>
-      </c>
       <c r="H27" s="3">
+        <v>4800</v>
+      </c>
+      <c r="I27" s="3">
         <v>-1100</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>3600</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-4400</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-8200</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>4400</v>
       </c>
-      <c r="M27" s="3">
-        <v>0</v>
-      </c>
       <c r="N27" s="3">
+        <v>0</v>
+      </c>
+      <c r="O27" s="3">
         <v>-1600</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-1100</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-1300</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-7300</v>
       </c>
-      <c r="R27" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1696,8 +1754,11 @@
       <c r="R28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1719,8 +1780,8 @@
       <c r="I29" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="J29" s="3">
-        <v>0</v>
+      <c r="J29" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K29" s="3">
         <v>0</v>
@@ -1732,22 +1793,25 @@
         <v>0</v>
       </c>
       <c r="N29" s="3">
+        <v>0</v>
+      </c>
+      <c r="O29" s="3">
         <v>100</v>
       </c>
-      <c r="O29" s="3">
-        <v>0</v>
-      </c>
       <c r="P29" s="3">
         <v>0</v>
       </c>
       <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+      <c r="R29" s="3">
         <v>5700</v>
       </c>
-      <c r="R29" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S29" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1796,8 +1860,11 @@
       <c r="R30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1846,17 +1913,20 @@
       <c r="R31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>0</v>
+      </c>
+      <c r="E32" s="3">
         <v>-200</v>
       </c>
-      <c r="E32" s="3">
-        <v>0</v>
-      </c>
       <c r="F32" s="3">
         <v>0</v>
       </c>
@@ -1867,87 +1937,93 @@
         <v>0</v>
       </c>
       <c r="I32" s="3">
+        <v>0</v>
+      </c>
+      <c r="J32" s="3">
         <v>-300</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>5600</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>11200</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>1200</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>600</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>1400</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>900</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>500</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>200</v>
       </c>
-      <c r="R32" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>16800</v>
+      </c>
+      <c r="E33" s="3">
         <v>18700</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>15200</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>38900</v>
       </c>
-      <c r="G33" s="3">
-        <v>5400</v>
-      </c>
       <c r="H33" s="3">
+        <v>4800</v>
+      </c>
+      <c r="I33" s="3">
         <v>-1100</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>3600</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-4400</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-8200</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>4400</v>
       </c>
-      <c r="M33" s="3">
-        <v>0</v>
-      </c>
       <c r="N33" s="3">
+        <v>0</v>
+      </c>
+      <c r="O33" s="3">
         <v>-1600</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-1100</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-1300</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-1600</v>
       </c>
-      <c r="R33" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1996,113 +2072,122 @@
       <c r="R34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>16800</v>
+      </c>
+      <c r="E35" s="3">
         <v>18700</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>15200</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>38900</v>
       </c>
-      <c r="G35" s="3">
-        <v>5400</v>
-      </c>
       <c r="H35" s="3">
+        <v>4800</v>
+      </c>
+      <c r="I35" s="3">
         <v>-1100</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>3600</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-4400</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-8200</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>4400</v>
       </c>
-      <c r="M35" s="3">
-        <v>0</v>
-      </c>
       <c r="N35" s="3">
+        <v>0</v>
+      </c>
+      <c r="O35" s="3">
         <v>-1600</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-1100</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-1300</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-1600</v>
       </c>
-      <c r="R35" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E38" s="2">
         <v>44377</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44286</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44196</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44104</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44012</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43921</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43830</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43738</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43646</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43555</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43465</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43373</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43281</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43190</v>
       </c>
-      <c r="R38" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2121,8 +2206,9 @@
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
-    </row>
-    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S39" s="3"/>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2141,44 +2227,45 @@
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
-    </row>
-    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S40" s="3"/>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>92200</v>
+      </c>
+      <c r="E41" s="3">
         <v>48700</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>29800</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>70300</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>54000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>49400</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>91600</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>80400</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>7700</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>300</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>400</v>
       </c>
-      <c r="N41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O41" s="3" t="s">
         <v>3</v>
       </c>
@@ -2191,29 +2278,32 @@
       <c r="R41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>22100</v>
+      </c>
+      <c r="E42" s="3">
         <v>45200</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>77100</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>39000</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>51000</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>42000</v>
       </c>
-      <c r="I42" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J42" s="3" t="s">
         <v>3</v>
       </c>
@@ -2226,8 +2316,8 @@
       <c r="M42" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N42" s="3">
-        <v>0</v>
+      <c r="N42" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="O42" s="3">
         <v>0</v>
@@ -2241,44 +2331,47 @@
       <c r="R42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>135200</v>
+      </c>
+      <c r="E43" s="3">
         <v>140800</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>116700</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>75700</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>78300</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>65000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>65900</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>47100</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>44300</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>44200</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>40700</v>
       </c>
-      <c r="N43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O43" s="3" t="s">
         <v>3</v>
       </c>
@@ -2291,8 +2384,11 @@
       <c r="R43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2341,43 +2437,46 @@
       <c r="R44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>4900</v>
+      </c>
+      <c r="E45" s="3">
         <v>3800</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>4200</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>5300</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>1300</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>3300</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>4400</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>5000</v>
-      </c>
-      <c r="K45" s="3">
-        <v>1300</v>
       </c>
       <c r="L45" s="3">
         <v>1300</v>
       </c>
       <c r="M45" s="3">
-        <v>0</v>
-      </c>
-      <c r="N45" s="3" t="s">
-        <v>3</v>
+        <v>1300</v>
+      </c>
+      <c r="N45" s="3">
+        <v>0</v>
       </c>
       <c r="O45" s="3" t="s">
         <v>3</v>
@@ -2391,44 +2490,47 @@
       <c r="R45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>254400</v>
+      </c>
+      <c r="E46" s="3">
         <v>238500</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>227800</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>190200</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>184600</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>159700</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>161900</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>132400</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>53300</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>45800</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>41100</v>
       </c>
-      <c r="N46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2441,8 +2543,11 @@
       <c r="R46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2491,44 +2596,47 @@
       <c r="R47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>12700</v>
+      </c>
+      <c r="E48" s="3">
         <v>12200</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>12000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>12100</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>3500</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>3600</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>3700</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>3100</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>1000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>700</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>800</v>
       </c>
-      <c r="N48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O48" s="3" t="s">
         <v>3</v>
       </c>
@@ -2541,44 +2649,47 @@
       <c r="R48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>12600</v>
+      </c>
+      <c r="E49" s="3">
         <v>12700</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>12900</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>13100</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>13400</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>13600</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>13900</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>14300</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>14600</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>15000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>15400</v>
       </c>
-      <c r="N49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O49" s="3" t="s">
         <v>3</v>
       </c>
@@ -2591,8 +2702,11 @@
       <c r="R49" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2641,8 +2755,11 @@
       <c r="R50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2691,22 +2808,25 @@
       <c r="R51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>56900</v>
+      </c>
+      <c r="E52" s="3">
         <v>48700</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>41900</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>38500</v>
-      </c>
-      <c r="G52" s="3">
-        <v>600</v>
       </c>
       <c r="H52" s="3">
         <v>600</v>
@@ -2715,20 +2835,20 @@
         <v>600</v>
       </c>
       <c r="J52" s="3">
+        <v>600</v>
+      </c>
+      <c r="K52" s="3">
         <v>700</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>3600</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>1600</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>300</v>
       </c>
-      <c r="N52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2741,8 +2861,11 @@
       <c r="R52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2791,44 +2914,47 @@
       <c r="R53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>336700</v>
+      </c>
+      <c r="E54" s="3">
         <v>312100</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>294600</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>253900</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>202100</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>177600</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>180100</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>150400</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>72600</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>63100</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>57500</v>
       </c>
-      <c r="N54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2841,8 +2967,11 @@
       <c r="R54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2861,8 +2990,9 @@
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
-    </row>
-    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S55" s="3"/>
+    </row>
+    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2881,44 +3011,45 @@
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
-    </row>
-    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S56" s="3"/>
+    </row>
+    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>55400</v>
+      </c>
+      <c r="E57" s="3">
         <v>54700</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>57300</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>43500</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>42200</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>31900</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>39400</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>19400</v>
-      </c>
-      <c r="K57" s="3">
-        <v>23500</v>
       </c>
       <c r="L57" s="3">
         <v>23500</v>
       </c>
       <c r="M57" s="3">
+        <v>23500</v>
+      </c>
+      <c r="N57" s="3">
         <v>19000</v>
       </c>
-      <c r="N57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O57" s="3" t="s">
         <v>3</v>
       </c>
@@ -2931,8 +3062,11 @@
       <c r="R57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2961,14 +3095,14 @@
         <v>0</v>
       </c>
       <c r="L58" s="3">
+        <v>0</v>
+      </c>
+      <c r="M58" s="3">
         <v>3100</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>6600</v>
       </c>
-      <c r="N58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O58" s="3" t="s">
         <v>3</v>
       </c>
@@ -2981,44 +3115,47 @@
       <c r="R58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>49100</v>
+      </c>
+      <c r="E59" s="3">
         <v>44100</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>43700</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>34300</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>32000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>25700</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>19600</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>16800</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>34100</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>19700</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>17800</v>
       </c>
-      <c r="N59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O59" s="3" t="s">
         <v>3</v>
       </c>
@@ -3031,44 +3168,47 @@
       <c r="R59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>104500</v>
+      </c>
+      <c r="E60" s="3">
         <v>98800</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>101000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>77800</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>74200</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>57700</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>59100</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>36200</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>57600</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>46400</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>43300</v>
       </c>
-      <c r="N60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O60" s="3" t="s">
         <v>3</v>
       </c>
@@ -3081,8 +3221,11 @@
       <c r="R60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3131,46 +3274,49 @@
       <c r="R61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>8100</v>
+      </c>
+      <c r="E62" s="3">
         <v>8700</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>9000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>9200</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>600</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>300</v>
       </c>
-      <c r="I62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J62" s="3" t="s">
         <v>3</v>
       </c>
       <c r="K62" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L62" s="3">
-        <v>0</v>
+      <c r="L62" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="M62" s="3">
         <v>0</v>
       </c>
-      <c r="N62" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O62" s="3">
-        <v>0</v>
+      <c r="N62" s="3">
+        <v>0</v>
+      </c>
+      <c r="O62" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="P62" s="3">
         <v>0</v>
@@ -3181,8 +3327,11 @@
       <c r="R62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3231,8 +3380,11 @@
       <c r="R63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3281,8 +3433,11 @@
       <c r="R64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3331,44 +3486,47 @@
       <c r="R65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>112600</v>
+      </c>
+      <c r="E66" s="3">
         <v>107500</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>110000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>87000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>74800</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>58000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>59100</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>36200</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>57600</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>46400</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>43300</v>
       </c>
-      <c r="N66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O66" s="3" t="s">
         <v>3</v>
       </c>
@@ -3381,8 +3539,11 @@
       <c r="R66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3401,8 +3562,9 @@
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
-    </row>
-    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S67" s="3"/>
+    </row>
+    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3451,8 +3613,11 @@
       <c r="R68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3501,8 +3666,11 @@
       <c r="R69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3528,7 +3696,7 @@
         <v>0</v>
       </c>
       <c r="K70" s="3">
-        <v>106200</v>
+        <v>0</v>
       </c>
       <c r="L70" s="3">
         <v>106200</v>
@@ -3537,7 +3705,7 @@
         <v>106200</v>
       </c>
       <c r="N70" s="3">
-        <v>0</v>
+        <v>106200</v>
       </c>
       <c r="O70" s="3">
         <v>0</v>
@@ -3551,8 +3719,11 @@
       <c r="R70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3601,44 +3772,47 @@
       <c r="R71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-17500</v>
+      </c>
+      <c r="E72" s="3">
         <v>-34300</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-53000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-68200</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-105900</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-111200</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-109400</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-113500</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-109100</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-100800</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-102300</v>
       </c>
-      <c r="N72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O72" s="3" t="s">
         <v>3</v>
       </c>
@@ -3651,8 +3825,11 @@
       <c r="R72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3701,8 +3878,11 @@
       <c r="R73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3751,8 +3931,11 @@
       <c r="R74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3801,44 +3984,47 @@
       <c r="R75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>224100</v>
+      </c>
+      <c r="E76" s="3">
         <v>204500</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>184600</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>166900</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>127300</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>119600</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>121100</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>114300</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-91300</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>-89500</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>-92100</v>
       </c>
-      <c r="N76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O76" s="3" t="s">
         <v>3</v>
       </c>
@@ -3851,8 +4037,11 @@
       <c r="R76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3901,113 +4090,122 @@
       <c r="R77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E80" s="2">
         <v>44377</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44286</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44196</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44104</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44012</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43921</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43830</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43738</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43646</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43555</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43465</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43373</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43281</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43190</v>
       </c>
-      <c r="R80" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>16800</v>
+      </c>
+      <c r="E81" s="3">
         <v>18700</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>15200</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>38900</v>
       </c>
-      <c r="G81" s="3">
-        <v>5400</v>
-      </c>
       <c r="H81" s="3">
+        <v>4800</v>
+      </c>
+      <c r="I81" s="3">
         <v>-1100</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>3600</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-4400</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-8200</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>4400</v>
       </c>
-      <c r="M81" s="3">
-        <v>0</v>
-      </c>
       <c r="N81" s="3">
+        <v>0</v>
+      </c>
+      <c r="O81" s="3">
         <v>-1600</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-1100</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-1300</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-1600</v>
       </c>
-      <c r="R81" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4026,8 +4224,9 @@
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
-    </row>
-    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S82" s="3"/>
+    </row>
+    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4035,10 +4234,10 @@
         <v>300</v>
       </c>
       <c r="E83" s="3">
+        <v>300</v>
+      </c>
+      <c r="F83" s="3">
         <v>400</v>
-      </c>
-      <c r="F83" s="3">
-        <v>500</v>
       </c>
       <c r="G83" s="3">
         <v>500</v>
@@ -4056,10 +4255,10 @@
         <v>500</v>
       </c>
       <c r="L83" s="3">
+        <v>500</v>
+      </c>
+      <c r="M83" s="3">
         <v>1100</v>
-      </c>
-      <c r="M83" s="3">
-        <v>500</v>
       </c>
       <c r="N83" s="3">
         <v>500</v>
@@ -4071,13 +4270,16 @@
         <v>500</v>
       </c>
       <c r="Q83" s="3">
+        <v>500</v>
+      </c>
+      <c r="R83" s="3">
         <v>400</v>
       </c>
-      <c r="R83" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4126,8 +4328,11 @@
       <c r="R84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4176,8 +4381,11 @@
       <c r="R85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4226,8 +4434,11 @@
       <c r="R86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4276,8 +4487,11 @@
       <c r="R87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4326,58 +4540,64 @@
       <c r="R88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>24200</v>
+      </c>
+      <c r="E89" s="3">
         <v>-7500</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>500</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>6500</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>15300</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>2200</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>12100</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-5500</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>5900</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-1900</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-6200</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>4100</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-500</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>3100</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-4300</v>
       </c>
-      <c r="R89" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4396,19 +4616,20 @@
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
-    </row>
-    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S90" s="3"/>
+    </row>
+    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-400</v>
+        <v>-700</v>
       </c>
       <c r="E91" s="3">
         <v>-400</v>
       </c>
       <c r="F91" s="3">
-        <v>-100</v>
+        <v>-400</v>
       </c>
       <c r="G91" s="3">
         <v>-100</v>
@@ -4417,37 +4638,40 @@
         <v>-100</v>
       </c>
       <c r="I91" s="3">
+        <v>-100</v>
+      </c>
+      <c r="J91" s="3">
         <v>-700</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-2300</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-400</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-300</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-100</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-200</v>
       </c>
-      <c r="O91" s="3">
-        <v>0</v>
-      </c>
       <c r="P91" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q91" s="3">
         <v>-100</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-300</v>
       </c>
-      <c r="R91" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4496,8 +4720,11 @@
       <c r="R92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4546,58 +4773,64 @@
       <c r="R93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>22400</v>
+      </c>
+      <c r="E94" s="3">
         <v>31200</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-38500</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>11900</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-9100</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-42100</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-700</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-2300</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-400</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-100</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>100</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-100</v>
       </c>
-      <c r="O94" s="3">
-        <v>0</v>
-      </c>
       <c r="P94" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q94" s="3">
         <v>-100</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>2200</v>
       </c>
-      <c r="R94" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4616,8 +4849,9 @@
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
-    </row>
-    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S95" s="3"/>
+    </row>
+    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4666,8 +4900,11 @@
       <c r="R96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4716,8 +4953,11 @@
       <c r="R97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4766,8 +5006,11 @@
       <c r="R98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4816,58 +5059,64 @@
       <c r="R99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-3100</v>
+      </c>
+      <c r="E100" s="3">
         <v>-4800</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-2500</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-2100</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-1600</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-2400</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-200</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>80500</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>1900</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>2200</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>6300</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-4000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>400</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-4200</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-900</v>
       </c>
-      <c r="R100" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4916,54 +5165,60 @@
       <c r="R101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>43500</v>
+      </c>
+      <c r="E102" s="3">
         <v>18900</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-40500</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>16300</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>4600</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-42200</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>11300</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>72700</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>7400</v>
-      </c>
-      <c r="L102" s="3">
-        <v>200</v>
       </c>
       <c r="M102" s="3">
         <v>200</v>
       </c>
       <c r="N102" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="O102" s="3">
+        <v>0</v>
+      </c>
+      <c r="P102" s="3">
         <v>-200</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-1200</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-3100</v>
       </c>
-      <c r="R102" s="3" t="s">
+      <c r="S102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/PGNY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/PGNY_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="92">
   <si>
     <t>PGNY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:S102"/>
+  <dimension ref="A5:T102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,245 +665,257 @@
     <col min="1" max="1" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E7" s="2">
         <v>44469</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44377</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44286</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44196</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44104</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44012</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43921</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43830</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43738</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43646</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43555</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43465</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43373</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43281</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43190</v>
       </c>
-      <c r="S7" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>127600</v>
+      </c>
+      <c r="E8" s="3">
         <v>122300</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>128700</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>122100</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>100300</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>98900</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>64600</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>81000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>65100</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>61200</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>103400</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>47200</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>29200</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>27800</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>26200</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>22300</v>
       </c>
-      <c r="S8" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>102400</v>
+      </c>
+      <c r="E9" s="3">
         <v>93800</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>99000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>93200</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>79600</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>78100</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>52700</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>64400</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>53400</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>48900</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>81900</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>37200</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>23800</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>22800</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>21100</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>18300</v>
       </c>
-      <c r="S9" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>25200</v>
+      </c>
+      <c r="E10" s="3">
         <v>28500</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>29700</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>28900</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>20700</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>20800</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>12000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>16600</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>11700</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>12300</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>21500</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>10000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>5400</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>5000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>5100</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>4000</v>
       </c>
-      <c r="S10" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -923,8 +935,9 @@
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T11" s="3"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -976,8 +989,11 @@
       <c r="S12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1029,8 +1045,11 @@
       <c r="S13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1043,29 +1062,29 @@
       <c r="F14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G14" s="3">
+      <c r="G14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H14" s="3">
         <v>900</v>
       </c>
-      <c r="H14" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I14" s="3" t="s">
         <v>3</v>
       </c>
       <c r="J14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K14" s="3">
+      <c r="K14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L14" s="3">
         <v>2000</v>
-      </c>
-      <c r="L14" s="3">
-        <v>200</v>
       </c>
       <c r="M14" s="3">
         <v>200</v>
       </c>
-      <c r="N14" s="3" t="s">
-        <v>3</v>
+      <c r="N14" s="3">
+        <v>200</v>
       </c>
       <c r="O14" s="3" t="s">
         <v>3</v>
@@ -1082,8 +1101,11 @@
       <c r="S14" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T14" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1135,8 +1157,11 @@
       <c r="S15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1153,114 +1178,121 @@
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
-    </row>
-    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T16" s="3"/>
+    </row>
+    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>127700</v>
+      </c>
+      <c r="E17" s="3">
         <v>113200</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>117000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>110300</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>99400</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>94100</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>65700</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>77600</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>64000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>58100</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>97900</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>44100</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>29900</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>28400</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>26500</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>24100</v>
       </c>
-      <c r="S17" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E18" s="3">
         <v>9100</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>11700</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>11800</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>900</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>4800</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-1100</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>3400</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>1100</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>3100</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>5500</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>3100</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-700</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-600</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-300</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-1800</v>
       </c>
-      <c r="S18" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1280,20 +1312,21 @@
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
-    </row>
-    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T19" s="3"/>
+    </row>
+    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>0</v>
+        <v>-300</v>
       </c>
       <c r="E20" s="3">
+        <v>0</v>
+      </c>
+      <c r="F20" s="3">
         <v>200</v>
       </c>
-      <c r="F20" s="3">
-        <v>0</v>
-      </c>
       <c r="G20" s="3">
         <v>0</v>
       </c>
@@ -1304,90 +1337,96 @@
         <v>0</v>
       </c>
       <c r="J20" s="3">
+        <v>0</v>
+      </c>
+      <c r="K20" s="3">
         <v>300</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-5600</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-11200</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-1200</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-600</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-1400</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-900</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-500</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-200</v>
       </c>
-      <c r="S20" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E21" s="3">
         <v>9400</v>
-      </c>
-      <c r="E21" s="3">
-        <v>12200</v>
       </c>
       <c r="F21" s="3">
         <v>12200</v>
       </c>
       <c r="G21" s="3">
+        <v>12200</v>
+      </c>
+      <c r="H21" s="3">
         <v>1400</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>5300</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-600</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>4300</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-3900</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-7600</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>5300</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>3100</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-1600</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-1000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-300</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-1600</v>
       </c>
-      <c r="S21" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1415,15 +1454,15 @@
       <c r="K22" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L22" s="3">
-        <v>0</v>
+      <c r="L22" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="M22" s="3">
+        <v>0</v>
+      </c>
+      <c r="N22" s="3">
         <v>200</v>
       </c>
-      <c r="N22" s="3">
-        <v>0</v>
-      </c>
       <c r="O22" s="3">
         <v>0</v>
       </c>
@@ -1431,122 +1470,131 @@
         <v>0</v>
       </c>
       <c r="Q22" s="3">
+        <v>0</v>
+      </c>
+      <c r="R22" s="3">
         <v>300</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>100</v>
       </c>
-      <c r="S22" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T22" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E23" s="3">
         <v>9100</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>11900</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>11800</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>1000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>4800</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-1100</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>3700</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-4500</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-8200</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>4100</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>2500</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-2100</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-1500</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-1100</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-2100</v>
       </c>
-      <c r="S23" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>-15500</v>
+      </c>
+      <c r="E24" s="3">
         <v>-7700</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>-6800</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>-3400</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>-37900</v>
       </c>
-      <c r="H24" s="3">
-        <v>0</v>
-      </c>
       <c r="I24" s="3">
         <v>0</v>
       </c>
       <c r="J24" s="3">
+        <v>0</v>
+      </c>
+      <c r="K24" s="3">
         <v>100</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>-100</v>
       </c>
-      <c r="L24" s="3">
-        <v>0</v>
-      </c>
       <c r="M24" s="3">
+        <v>0</v>
+      </c>
+      <c r="N24" s="3">
         <v>100</v>
       </c>
-      <c r="N24" s="3">
-        <v>0</v>
-      </c>
       <c r="O24" s="3">
+        <v>0</v>
+      </c>
+      <c r="P24" s="3">
         <v>-500</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>-400</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>-300</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>-500</v>
       </c>
-      <c r="S24" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1598,114 +1646,123 @@
       <c r="S25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>15100</v>
+      </c>
+      <c r="E26" s="3">
         <v>16800</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>18700</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>15200</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>38900</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>4800</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-1100</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>3600</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-4400</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-8200</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>4000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>2500</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-1600</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-1100</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-800</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-1600</v>
       </c>
-      <c r="S26" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>15100</v>
+      </c>
+      <c r="E27" s="3">
         <v>16800</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>18700</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>15200</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>38900</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>4800</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-1100</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>3600</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-4400</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-8200</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>4400</v>
       </c>
-      <c r="N27" s="3">
-        <v>0</v>
-      </c>
       <c r="O27" s="3">
+        <v>0</v>
+      </c>
+      <c r="P27" s="3">
         <v>-1600</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-1100</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-1300</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-7300</v>
       </c>
-      <c r="S27" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1757,8 +1814,11 @@
       <c r="S28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1783,8 +1843,8 @@
       <c r="J29" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K29" s="3">
-        <v>0</v>
+      <c r="K29" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="L29" s="3">
         <v>0</v>
@@ -1796,22 +1856,25 @@
         <v>0</v>
       </c>
       <c r="O29" s="3">
+        <v>0</v>
+      </c>
+      <c r="P29" s="3">
         <v>100</v>
       </c>
-      <c r="P29" s="3">
-        <v>0</v>
-      </c>
       <c r="Q29" s="3">
         <v>0</v>
       </c>
       <c r="R29" s="3">
+        <v>0</v>
+      </c>
+      <c r="S29" s="3">
         <v>5700</v>
       </c>
-      <c r="S29" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T29" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1863,8 +1926,11 @@
       <c r="S30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1916,20 +1982,23 @@
       <c r="S31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="E32" s="3">
+        <v>0</v>
+      </c>
+      <c r="F32" s="3">
         <v>-200</v>
       </c>
-      <c r="F32" s="3">
-        <v>0</v>
-      </c>
       <c r="G32" s="3">
         <v>0</v>
       </c>
@@ -1940,90 +2009,96 @@
         <v>0</v>
       </c>
       <c r="J32" s="3">
+        <v>0</v>
+      </c>
+      <c r="K32" s="3">
         <v>-300</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>5600</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>11200</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>1200</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>600</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>1400</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>900</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>500</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>200</v>
       </c>
-      <c r="S32" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>15100</v>
+      </c>
+      <c r="E33" s="3">
         <v>16800</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>18700</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>15200</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>38900</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>4800</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-1100</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>3600</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-4400</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-8200</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>4400</v>
       </c>
-      <c r="N33" s="3">
-        <v>0</v>
-      </c>
       <c r="O33" s="3">
+        <v>0</v>
+      </c>
+      <c r="P33" s="3">
         <v>-1600</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-1100</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-1300</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-1600</v>
       </c>
-      <c r="S33" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2075,119 +2150,128 @@
       <c r="S34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>15100</v>
+      </c>
+      <c r="E35" s="3">
         <v>16800</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>18700</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>15200</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>38900</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>4800</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-1100</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>3600</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-4400</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-8200</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>4400</v>
       </c>
-      <c r="N35" s="3">
-        <v>0</v>
-      </c>
       <c r="O35" s="3">
+        <v>0</v>
+      </c>
+      <c r="P35" s="3">
         <v>-1600</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-1100</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-1300</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-1600</v>
       </c>
-      <c r="S35" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E38" s="2">
         <v>44469</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44377</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44286</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44196</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44104</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44012</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43921</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43830</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43738</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43646</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43555</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43465</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43373</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43281</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43190</v>
       </c>
-      <c r="S38" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2207,8 +2291,9 @@
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
-    </row>
-    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T39" s="3"/>
+    </row>
+    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2228,47 +2313,48 @@
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
-    </row>
-    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T40" s="3"/>
+    </row>
+    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>91400</v>
+      </c>
+      <c r="E41" s="3">
         <v>92200</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>48700</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>29800</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>70300</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>54000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>49400</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>91600</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>80400</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>7700</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>300</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>400</v>
       </c>
-      <c r="O41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P41" s="3" t="s">
         <v>3</v>
       </c>
@@ -2281,32 +2367,35 @@
       <c r="S41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>28000</v>
+      </c>
+      <c r="E42" s="3">
         <v>22100</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>45200</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>77100</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>39000</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>51000</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>42000</v>
       </c>
-      <c r="J42" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K42" s="3" t="s">
         <v>3</v>
       </c>
@@ -2319,8 +2408,8 @@
       <c r="N42" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O42" s="3">
-        <v>0</v>
+      <c r="O42" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="P42" s="3">
         <v>0</v>
@@ -2334,47 +2423,50 @@
       <c r="S42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>134600</v>
+      </c>
+      <c r="E43" s="3">
         <v>135200</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>140800</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>116700</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>75700</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>78300</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>65000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>65900</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>47100</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>44300</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>44200</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>40700</v>
       </c>
-      <c r="O43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P43" s="3" t="s">
         <v>3</v>
       </c>
@@ -2387,8 +2479,11 @@
       <c r="S43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2440,46 +2535,49 @@
       <c r="S44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>4600</v>
+      </c>
+      <c r="E45" s="3">
         <v>4900</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>3800</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>4200</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>5300</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>1300</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>3300</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>4400</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>5000</v>
-      </c>
-      <c r="L45" s="3">
-        <v>1300</v>
       </c>
       <c r="M45" s="3">
         <v>1300</v>
       </c>
       <c r="N45" s="3">
-        <v>0</v>
-      </c>
-      <c r="O45" s="3" t="s">
-        <v>3</v>
+        <v>1300</v>
+      </c>
+      <c r="O45" s="3">
+        <v>0</v>
       </c>
       <c r="P45" s="3" t="s">
         <v>3</v>
@@ -2493,47 +2591,50 @@
       <c r="S45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>258500</v>
+      </c>
+      <c r="E46" s="3">
         <v>254400</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>238500</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>227800</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>190200</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>184600</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>159700</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>161900</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>132400</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>53300</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>45800</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>41100</v>
       </c>
-      <c r="O46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2546,8 +2647,11 @@
       <c r="S46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2599,47 +2703,50 @@
       <c r="S47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>12800</v>
+      </c>
+      <c r="E48" s="3">
         <v>12700</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>12200</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>12000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>12100</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>3500</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>3600</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>3700</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>3100</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>1000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>700</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>800</v>
       </c>
-      <c r="O48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P48" s="3" t="s">
         <v>3</v>
       </c>
@@ -2652,47 +2759,50 @@
       <c r="S48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>12500</v>
+      </c>
+      <c r="E49" s="3">
         <v>12600</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>12700</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>12900</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>13100</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>13400</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>13600</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>13900</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>14300</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>14600</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>15000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>15400</v>
       </c>
-      <c r="O49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P49" s="3" t="s">
         <v>3</v>
       </c>
@@ -2705,8 +2815,11 @@
       <c r="S49" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2758,8 +2871,11 @@
       <c r="S50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2811,25 +2927,28 @@
       <c r="S51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>74200</v>
+      </c>
+      <c r="E52" s="3">
         <v>56900</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>48700</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>41900</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>38500</v>
-      </c>
-      <c r="H52" s="3">
-        <v>600</v>
       </c>
       <c r="I52" s="3">
         <v>600</v>
@@ -2838,20 +2957,20 @@
         <v>600</v>
       </c>
       <c r="K52" s="3">
+        <v>600</v>
+      </c>
+      <c r="L52" s="3">
         <v>700</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>3600</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>1600</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>300</v>
       </c>
-      <c r="O52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2864,8 +2983,11 @@
       <c r="S52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2917,47 +3039,50 @@
       <c r="S53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>358100</v>
+      </c>
+      <c r="E54" s="3">
         <v>336700</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>312100</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>294600</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>253900</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>202100</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>177600</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>180100</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>150400</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>72600</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>63100</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>57500</v>
       </c>
-      <c r="O54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2970,8 +3095,11 @@
       <c r="S54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2991,8 +3119,9 @@
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
-    </row>
-    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T55" s="3"/>
+    </row>
+    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3012,47 +3141,48 @@
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
-    </row>
-    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T56" s="3"/>
+    </row>
+    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>61400</v>
+      </c>
+      <c r="E57" s="3">
         <v>55400</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>54700</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>57300</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>43500</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>42200</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>31900</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>39400</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>19400</v>
-      </c>
-      <c r="L57" s="3">
-        <v>23500</v>
       </c>
       <c r="M57" s="3">
         <v>23500</v>
       </c>
       <c r="N57" s="3">
+        <v>23500</v>
+      </c>
+      <c r="O57" s="3">
         <v>19000</v>
       </c>
-      <c r="O57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P57" s="3" t="s">
         <v>3</v>
       </c>
@@ -3065,8 +3195,11 @@
       <c r="S57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3098,14 +3231,14 @@
         <v>0</v>
       </c>
       <c r="M58" s="3">
+        <v>0</v>
+      </c>
+      <c r="N58" s="3">
         <v>3100</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>6600</v>
       </c>
-      <c r="O58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P58" s="3" t="s">
         <v>3</v>
       </c>
@@ -3118,47 +3251,50 @@
       <c r="S58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>37400</v>
+      </c>
+      <c r="E59" s="3">
         <v>49100</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>44100</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>43700</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>34300</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>32000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>25700</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>19600</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>16800</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>34100</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>19700</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>17800</v>
       </c>
-      <c r="O59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P59" s="3" t="s">
         <v>3</v>
       </c>
@@ -3171,47 +3307,50 @@
       <c r="S59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>98800</v>
+      </c>
+      <c r="E60" s="3">
         <v>104500</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>98800</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>101000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>77800</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>74200</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>57700</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>59100</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>36200</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>57600</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>46400</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>43300</v>
       </c>
-      <c r="O60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P60" s="3" t="s">
         <v>3</v>
       </c>
@@ -3224,8 +3363,11 @@
       <c r="S60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3277,49 +3419,52 @@
       <c r="S61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>7400</v>
+      </c>
+      <c r="E62" s="3">
         <v>8100</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>8700</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>9000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>9200</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>600</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>300</v>
       </c>
-      <c r="J62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K62" s="3" t="s">
         <v>3</v>
       </c>
       <c r="L62" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M62" s="3">
-        <v>0</v>
+      <c r="M62" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="N62" s="3">
         <v>0</v>
       </c>
-      <c r="O62" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P62" s="3">
-        <v>0</v>
+      <c r="O62" s="3">
+        <v>0</v>
+      </c>
+      <c r="P62" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="Q62" s="3">
         <v>0</v>
@@ -3330,8 +3475,11 @@
       <c r="S62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3383,8 +3531,11 @@
       <c r="S63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3436,8 +3587,11 @@
       <c r="S64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3489,47 +3643,50 @@
       <c r="S65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>106200</v>
+      </c>
+      <c r="E66" s="3">
         <v>112600</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>107500</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>110000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>87000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>74800</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>58000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>59100</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>36200</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>57600</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>46400</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>43300</v>
       </c>
-      <c r="O66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P66" s="3" t="s">
         <v>3</v>
       </c>
@@ -3542,8 +3699,11 @@
       <c r="S66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3563,8 +3723,9 @@
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
-    </row>
-    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T67" s="3"/>
+    </row>
+    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3616,8 +3777,11 @@
       <c r="S68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3669,8 +3833,11 @@
       <c r="S69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3699,7 +3866,7 @@
         <v>0</v>
       </c>
       <c r="L70" s="3">
-        <v>106200</v>
+        <v>0</v>
       </c>
       <c r="M70" s="3">
         <v>106200</v>
@@ -3708,7 +3875,7 @@
         <v>106200</v>
       </c>
       <c r="O70" s="3">
-        <v>0</v>
+        <v>106200</v>
       </c>
       <c r="P70" s="3">
         <v>0</v>
@@ -3722,8 +3889,11 @@
       <c r="S70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3775,47 +3945,50 @@
       <c r="S71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-2400</v>
+      </c>
+      <c r="E72" s="3">
         <v>-17500</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-34300</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-53000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-68200</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-105900</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-111200</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-109400</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-113500</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-109100</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-100800</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-102300</v>
       </c>
-      <c r="O72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P72" s="3" t="s">
         <v>3</v>
       </c>
@@ -3828,8 +4001,11 @@
       <c r="S72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3881,8 +4057,11 @@
       <c r="S73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3934,8 +4113,11 @@
       <c r="S74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3987,47 +4169,50 @@
       <c r="S75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>251800</v>
+      </c>
+      <c r="E76" s="3">
         <v>224100</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>204500</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>184600</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>166900</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>127300</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>119600</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>121100</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>114300</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>-91300</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>-89500</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>-92100</v>
       </c>
-      <c r="O76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P76" s="3" t="s">
         <v>3</v>
       </c>
@@ -4040,8 +4225,11 @@
       <c r="S76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4093,119 +4281,128 @@
       <c r="S77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E80" s="2">
         <v>44469</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44377</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44286</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44196</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44104</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44012</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43921</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43830</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43738</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43646</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43555</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43465</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43373</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43281</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43190</v>
       </c>
-      <c r="S80" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>15100</v>
+      </c>
+      <c r="E81" s="3">
         <v>16800</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>18700</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>15200</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>38900</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>4800</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-1100</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>3600</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-4400</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-8200</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>4400</v>
       </c>
-      <c r="N81" s="3">
-        <v>0</v>
-      </c>
       <c r="O81" s="3">
+        <v>0</v>
+      </c>
+      <c r="P81" s="3">
         <v>-1600</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-1100</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-1300</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-1600</v>
       </c>
-      <c r="S81" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4225,8 +4422,9 @@
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
-    </row>
-    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T82" s="3"/>
+    </row>
+    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4237,10 +4435,10 @@
         <v>300</v>
       </c>
       <c r="F83" s="3">
+        <v>300</v>
+      </c>
+      <c r="G83" s="3">
         <v>400</v>
-      </c>
-      <c r="G83" s="3">
-        <v>500</v>
       </c>
       <c r="H83" s="3">
         <v>500</v>
@@ -4258,10 +4456,10 @@
         <v>500</v>
       </c>
       <c r="M83" s="3">
+        <v>500</v>
+      </c>
+      <c r="N83" s="3">
         <v>1100</v>
-      </c>
-      <c r="N83" s="3">
-        <v>500</v>
       </c>
       <c r="O83" s="3">
         <v>500</v>
@@ -4273,13 +4471,16 @@
         <v>500</v>
       </c>
       <c r="R83" s="3">
+        <v>500</v>
+      </c>
+      <c r="S83" s="3">
         <v>400</v>
       </c>
-      <c r="S83" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4331,8 +4532,11 @@
       <c r="S84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4384,8 +4588,11 @@
       <c r="S85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4437,8 +4644,11 @@
       <c r="S86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4490,8 +4700,11 @@
       <c r="S87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4543,61 +4756,67 @@
       <c r="S88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>8800</v>
+      </c>
+      <c r="E89" s="3">
         <v>24200</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-7500</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>500</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>6500</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>15300</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>2200</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>12100</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-5500</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>5900</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-1900</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-6200</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>4100</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-500</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>3100</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-4300</v>
       </c>
-      <c r="S89" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4617,22 +4836,23 @@
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
-    </row>
-    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T90" s="3"/>
+    </row>
+    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-600</v>
+      </c>
+      <c r="E91" s="3">
         <v>-700</v>
-      </c>
-      <c r="E91" s="3">
-        <v>-400</v>
       </c>
       <c r="F91" s="3">
         <v>-400</v>
       </c>
       <c r="G91" s="3">
-        <v>-100</v>
+        <v>-400</v>
       </c>
       <c r="H91" s="3">
         <v>-100</v>
@@ -4641,37 +4861,40 @@
         <v>-100</v>
       </c>
       <c r="J91" s="3">
+        <v>-100</v>
+      </c>
+      <c r="K91" s="3">
         <v>-700</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-2300</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-400</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-300</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-100</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-200</v>
       </c>
-      <c r="P91" s="3">
-        <v>0</v>
-      </c>
       <c r="Q91" s="3">
+        <v>0</v>
+      </c>
+      <c r="R91" s="3">
         <v>-100</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-300</v>
       </c>
-      <c r="S91" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4723,8 +4946,11 @@
       <c r="S92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4776,61 +5002,67 @@
       <c r="S93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-6300</v>
+      </c>
+      <c r="E94" s="3">
         <v>22400</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>31200</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-38500</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>11900</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-9100</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-42100</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-700</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-2300</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-400</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-100</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>100</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-100</v>
       </c>
-      <c r="P94" s="3">
-        <v>0</v>
-      </c>
       <c r="Q94" s="3">
+        <v>0</v>
+      </c>
+      <c r="R94" s="3">
         <v>-100</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>2200</v>
       </c>
-      <c r="S94" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4850,8 +5082,9 @@
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
-    </row>
-    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T95" s="3"/>
+    </row>
+    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4903,8 +5136,11 @@
       <c r="S96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4956,8 +5192,11 @@
       <c r="S97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5009,8 +5248,11 @@
       <c r="S98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5062,61 +5304,67 @@
       <c r="S99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-3300</v>
+      </c>
+      <c r="E100" s="3">
         <v>-3100</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-4800</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-2500</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-2100</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-1600</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-2400</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-200</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>80500</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>1900</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>2200</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>6300</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-4000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>400</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-4200</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-900</v>
       </c>
-      <c r="S100" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5168,57 +5416,63 @@
       <c r="S101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-800</v>
+      </c>
+      <c r="E102" s="3">
         <v>43500</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>18900</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-40500</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>16300</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>4600</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-42200</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>11300</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>72700</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>7400</v>
-      </c>
-      <c r="M102" s="3">
-        <v>200</v>
       </c>
       <c r="N102" s="3">
         <v>200</v>
       </c>
       <c r="O102" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="P102" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q102" s="3">
         <v>-200</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-1200</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-3100</v>
       </c>
-      <c r="S102" s="3" t="s">
+      <c r="T102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/PGNY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/PGNY_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="92">
   <si>
     <t>PGNY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:T102"/>
+  <dimension ref="A5:U102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,257 +665,270 @@
     <col min="1" max="1" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E7" s="2">
         <v>44561</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44469</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44377</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44286</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44196</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44104</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44012</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43921</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43830</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43738</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43646</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43555</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43465</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43373</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43281</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43190</v>
       </c>
-      <c r="T7" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>172200</v>
+      </c>
+      <c r="E8" s="3">
         <v>127600</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>122300</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>128700</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>122100</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>100300</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>98900</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>64600</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>81000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>65100</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>61200</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>103400</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>47200</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>29200</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>27800</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>26200</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>22300</v>
       </c>
-      <c r="T8" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>139300</v>
+      </c>
+      <c r="E9" s="3">
         <v>102400</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>93800</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>99000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>93200</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>79600</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>78100</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>52700</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>64400</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>53400</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>48900</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>81900</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>37200</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>23800</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>22800</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>21100</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>18300</v>
       </c>
-      <c r="T9" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>32900</v>
+      </c>
+      <c r="E10" s="3">
         <v>25200</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>28500</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>29700</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>28900</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>20700</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>20800</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>12000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>16600</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>11700</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>12300</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>21500</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>10000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>5400</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>5000</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>5100</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>4000</v>
       </c>
-      <c r="T10" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -936,8 +949,9 @@
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U11" s="3"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -992,8 +1006,11 @@
       <c r="T12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1048,8 +1065,11 @@
       <c r="T13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1065,29 +1085,29 @@
       <c r="G14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H14" s="3">
+      <c r="H14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I14" s="3">
         <v>900</v>
       </c>
-      <c r="I14" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J14" s="3" t="s">
         <v>3</v>
       </c>
       <c r="K14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L14" s="3">
+      <c r="L14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M14" s="3">
         <v>2000</v>
-      </c>
-      <c r="M14" s="3">
-        <v>200</v>
       </c>
       <c r="N14" s="3">
         <v>200</v>
       </c>
-      <c r="O14" s="3" t="s">
-        <v>3</v>
+      <c r="O14" s="3">
+        <v>200</v>
       </c>
       <c r="P14" s="3" t="s">
         <v>3</v>
@@ -1104,8 +1124,11 @@
       <c r="T14" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U14" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1160,8 +1183,11 @@
       <c r="T15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1179,64 +1205,68 @@
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
-    </row>
-    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U16" s="3"/>
+    </row>
+    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>172300</v>
+      </c>
+      <c r="E17" s="3">
         <v>127700</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>113200</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>117000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>110300</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>99400</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>94100</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>65700</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>77600</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>64000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>58100</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>97900</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>44100</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>29900</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>28400</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>26500</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>24100</v>
       </c>
-      <c r="T17" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1244,55 +1274,58 @@
         <v>-100</v>
       </c>
       <c r="E18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F18" s="3">
         <v>9100</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>11700</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>11800</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>900</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>4800</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-1100</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>3400</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>1100</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>3100</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>5500</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>3100</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-700</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-600</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-300</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-1800</v>
       </c>
-      <c r="T18" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1313,23 +1346,24 @@
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
-    </row>
-    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U19" s="3"/>
+    </row>
+    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E20" s="3">
         <v>-300</v>
       </c>
-      <c r="E20" s="3">
-        <v>0</v>
-      </c>
       <c r="F20" s="3">
+        <v>0</v>
+      </c>
+      <c r="G20" s="3">
         <v>200</v>
       </c>
-      <c r="G20" s="3">
-        <v>0</v>
-      </c>
       <c r="H20" s="3">
         <v>0</v>
       </c>
@@ -1340,93 +1374,99 @@
         <v>0</v>
       </c>
       <c r="K20" s="3">
+        <v>0</v>
+      </c>
+      <c r="L20" s="3">
         <v>300</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-5600</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-11200</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-1200</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-600</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-1400</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-900</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-500</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-200</v>
       </c>
-      <c r="T20" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>200</v>
+      </c>
+      <c r="E21" s="3">
         <v>-100</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>9400</v>
-      </c>
-      <c r="F21" s="3">
-        <v>12200</v>
       </c>
       <c r="G21" s="3">
         <v>12200</v>
       </c>
       <c r="H21" s="3">
+        <v>12200</v>
+      </c>
+      <c r="I21" s="3">
         <v>1400</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>5300</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-600</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>4300</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-3900</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-7600</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>5300</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>3100</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-1600</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-1000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-300</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>-1600</v>
       </c>
-      <c r="T21" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1457,15 +1497,15 @@
       <c r="L22" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M22" s="3">
-        <v>0</v>
+      <c r="M22" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="N22" s="3">
+        <v>0</v>
+      </c>
+      <c r="O22" s="3">
         <v>200</v>
       </c>
-      <c r="O22" s="3">
-        <v>0</v>
-      </c>
       <c r="P22" s="3">
         <v>0</v>
       </c>
@@ -1473,128 +1513,137 @@
         <v>0</v>
       </c>
       <c r="R22" s="3">
+        <v>0</v>
+      </c>
+      <c r="S22" s="3">
         <v>300</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>100</v>
       </c>
-      <c r="T22" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U22" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E23" s="3">
         <v>-400</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>9100</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>11900</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>11800</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>1000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>4800</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-1100</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>3700</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-4500</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-8200</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>4100</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>2500</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-2100</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-1500</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-1100</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-2100</v>
       </c>
-      <c r="T23" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>-5100</v>
+      </c>
+      <c r="E24" s="3">
         <v>-15500</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>-7700</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>-6800</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>-3400</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>-37900</v>
       </c>
-      <c r="I24" s="3">
-        <v>0</v>
-      </c>
       <c r="J24" s="3">
         <v>0</v>
       </c>
       <c r="K24" s="3">
+        <v>0</v>
+      </c>
+      <c r="L24" s="3">
         <v>100</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>-100</v>
       </c>
-      <c r="M24" s="3">
-        <v>0</v>
-      </c>
       <c r="N24" s="3">
+        <v>0</v>
+      </c>
+      <c r="O24" s="3">
         <v>100</v>
       </c>
-      <c r="O24" s="3">
-        <v>0</v>
-      </c>
       <c r="P24" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q24" s="3">
         <v>-500</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>-400</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>-300</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>-500</v>
       </c>
-      <c r="T24" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1649,120 +1698,129 @@
       <c r="T25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>5000</v>
+      </c>
+      <c r="E26" s="3">
         <v>15100</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>16800</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>18700</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>15200</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>38900</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>4800</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-1100</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>3600</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-4400</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-8200</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>4000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>2500</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-1600</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-1100</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-800</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-1600</v>
       </c>
-      <c r="T26" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>5000</v>
+      </c>
+      <c r="E27" s="3">
         <v>15100</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>16800</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>18700</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>15200</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>38900</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>4800</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-1100</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>3600</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-4400</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-8200</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>4400</v>
       </c>
-      <c r="O27" s="3">
-        <v>0</v>
-      </c>
       <c r="P27" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q27" s="3">
         <v>-1600</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-1100</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-1300</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-7300</v>
       </c>
-      <c r="T27" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1817,37 +1875,40 @@
       <c r="T28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D29" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E29" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F29" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G29" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H29" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I29" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J29" s="3" t="s">
-        <v>3</v>
+      <c r="D29" s="3">
+        <v>0</v>
+      </c>
+      <c r="E29" s="3">
+        <v>0</v>
+      </c>
+      <c r="F29" s="3">
+        <v>0</v>
+      </c>
+      <c r="G29" s="3">
+        <v>0</v>
+      </c>
+      <c r="H29" s="3">
+        <v>0</v>
+      </c>
+      <c r="I29" s="3">
+        <v>0</v>
+      </c>
+      <c r="J29" s="3">
+        <v>0</v>
       </c>
       <c r="K29" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L29" s="3">
-        <v>0</v>
+      <c r="L29" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="M29" s="3">
         <v>0</v>
@@ -1859,22 +1920,25 @@
         <v>0</v>
       </c>
       <c r="P29" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q29" s="3">
         <v>100</v>
       </c>
-      <c r="Q29" s="3">
-        <v>0</v>
-      </c>
       <c r="R29" s="3">
         <v>0</v>
       </c>
       <c r="S29" s="3">
+        <v>0</v>
+      </c>
+      <c r="T29" s="3">
         <v>5700</v>
       </c>
-      <c r="T29" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U29" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1929,8 +1993,11 @@
       <c r="T30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1985,23 +2052,26 @@
       <c r="T31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>100</v>
+      </c>
+      <c r="E32" s="3">
         <v>300</v>
       </c>
-      <c r="E32" s="3">
-        <v>0</v>
-      </c>
       <c r="F32" s="3">
+        <v>0</v>
+      </c>
+      <c r="G32" s="3">
         <v>-200</v>
       </c>
-      <c r="G32" s="3">
-        <v>0</v>
-      </c>
       <c r="H32" s="3">
         <v>0</v>
       </c>
@@ -2012,93 +2082,99 @@
         <v>0</v>
       </c>
       <c r="K32" s="3">
+        <v>0</v>
+      </c>
+      <c r="L32" s="3">
         <v>-300</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>5600</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>11200</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>1200</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>600</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>1400</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>900</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>500</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>200</v>
       </c>
-      <c r="T32" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>5000</v>
+      </c>
+      <c r="E33" s="3">
         <v>15100</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>16800</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>18700</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>15200</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>38900</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>4800</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-1100</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>3600</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-4400</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-8200</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>4400</v>
       </c>
-      <c r="O33" s="3">
-        <v>0</v>
-      </c>
       <c r="P33" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q33" s="3">
         <v>-1600</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-1100</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-1300</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-1600</v>
       </c>
-      <c r="T33" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2153,125 +2229,134 @@
       <c r="T34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>5000</v>
+      </c>
+      <c r="E35" s="3">
         <v>15100</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>16800</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>18700</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>15200</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>38900</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>4800</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-1100</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>3600</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-4400</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-8200</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>4400</v>
       </c>
-      <c r="O35" s="3">
-        <v>0</v>
-      </c>
       <c r="P35" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q35" s="3">
         <v>-1600</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-1100</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-1300</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-1600</v>
       </c>
-      <c r="T35" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E38" s="2">
         <v>44561</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44469</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44377</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44286</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44196</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44104</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44012</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43921</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43830</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43738</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43646</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43555</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43465</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43373</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43281</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43190</v>
       </c>
-      <c r="T38" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2292,8 +2377,9 @@
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
-    </row>
-    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U39" s="3"/>
+    </row>
+    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2314,50 +2400,51 @@
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
-    </row>
-    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U40" s="3"/>
+    </row>
+    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>38800</v>
+      </c>
+      <c r="E41" s="3">
         <v>91400</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>92200</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>48700</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>29800</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>70300</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>54000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>49400</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>91600</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>80400</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>7700</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>300</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>400</v>
       </c>
-      <c r="P41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q41" s="3" t="s">
         <v>3</v>
       </c>
@@ -2370,35 +2457,38 @@
       <c r="T41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>66900</v>
+      </c>
+      <c r="E42" s="3">
         <v>28000</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>22100</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>45200</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>77100</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>39000</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>51000</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>42000</v>
       </c>
-      <c r="K42" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L42" s="3" t="s">
         <v>3</v>
       </c>
@@ -2411,8 +2501,8 @@
       <c r="O42" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P42" s="3">
-        <v>0</v>
+      <c r="P42" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="Q42" s="3">
         <v>0</v>
@@ -2426,50 +2516,53 @@
       <c r="T42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>198100</v>
+      </c>
+      <c r="E43" s="3">
         <v>134600</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>135200</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>140800</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>116700</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>75700</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>78300</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>65000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>65900</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>47100</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>44300</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>44200</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>40700</v>
       </c>
-      <c r="P43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q43" s="3" t="s">
         <v>3</v>
       </c>
@@ -2482,8 +2575,11 @@
       <c r="T43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2538,49 +2634,52 @@
       <c r="T44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>5200</v>
+      </c>
+      <c r="E45" s="3">
         <v>4600</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>4900</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>3800</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>4200</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>5300</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>1300</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>3300</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>4400</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>5000</v>
-      </c>
-      <c r="M45" s="3">
-        <v>1300</v>
       </c>
       <c r="N45" s="3">
         <v>1300</v>
       </c>
       <c r="O45" s="3">
-        <v>0</v>
-      </c>
-      <c r="P45" s="3" t="s">
-        <v>3</v>
+        <v>1300</v>
+      </c>
+      <c r="P45" s="3">
+        <v>0</v>
       </c>
       <c r="Q45" s="3" t="s">
         <v>3</v>
@@ -2594,50 +2693,53 @@
       <c r="T45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>309000</v>
+      </c>
+      <c r="E46" s="3">
         <v>258500</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>254400</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>238500</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>227800</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>190200</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>184600</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>159700</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>161900</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>132400</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>53300</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>45800</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>41100</v>
       </c>
-      <c r="P46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2650,8 +2752,11 @@
       <c r="T46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2706,50 +2811,53 @@
       <c r="T47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>13400</v>
+      </c>
+      <c r="E48" s="3">
         <v>12800</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>12700</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>12200</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>12000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>12100</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>3500</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>3600</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>3700</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>3100</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>1000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>700</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>800</v>
       </c>
-      <c r="P48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q48" s="3" t="s">
         <v>3</v>
       </c>
@@ -2762,50 +2870,53 @@
       <c r="T48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>12400</v>
+      </c>
+      <c r="E49" s="3">
         <v>12500</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>12600</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>12700</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>12900</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>13100</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>13400</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>13600</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>13900</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>14300</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>14600</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>15000</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>15400</v>
       </c>
-      <c r="P49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q49" s="3" t="s">
         <v>3</v>
       </c>
@@ -2818,8 +2929,11 @@
       <c r="T49" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2874,8 +2988,11 @@
       <c r="T50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2930,28 +3047,31 @@
       <c r="T51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>80700</v>
+      </c>
+      <c r="E52" s="3">
         <v>74200</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>56900</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>48700</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>41900</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>38500</v>
-      </c>
-      <c r="I52" s="3">
-        <v>600</v>
       </c>
       <c r="J52" s="3">
         <v>600</v>
@@ -2960,20 +3080,20 @@
         <v>600</v>
       </c>
       <c r="L52" s="3">
+        <v>600</v>
+      </c>
+      <c r="M52" s="3">
         <v>700</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>3600</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>1600</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>300</v>
       </c>
-      <c r="P52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2986,8 +3106,11 @@
       <c r="T52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3042,50 +3165,53 @@
       <c r="T53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>415500</v>
+      </c>
+      <c r="E54" s="3">
         <v>358100</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>336700</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>312100</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>294600</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>253900</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>202100</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>177600</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>180100</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>150400</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>72600</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>63100</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>57500</v>
       </c>
-      <c r="P54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q54" s="3" t="s">
         <v>3</v>
       </c>
@@ -3098,8 +3224,11 @@
       <c r="T54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3120,8 +3249,9 @@
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
-    </row>
-    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U55" s="3"/>
+    </row>
+    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3142,50 +3272,51 @@
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
-    </row>
-    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U56" s="3"/>
+    </row>
+    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>84700</v>
+      </c>
+      <c r="E57" s="3">
         <v>61400</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>55400</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>54700</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>57300</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>43500</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>42200</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>31900</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>39400</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>19400</v>
-      </c>
-      <c r="M57" s="3">
-        <v>23500</v>
       </c>
       <c r="N57" s="3">
         <v>23500</v>
       </c>
       <c r="O57" s="3">
+        <v>23500</v>
+      </c>
+      <c r="P57" s="3">
         <v>19000</v>
       </c>
-      <c r="P57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q57" s="3" t="s">
         <v>3</v>
       </c>
@@ -3198,8 +3329,11 @@
       <c r="T57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3234,14 +3368,14 @@
         <v>0</v>
       </c>
       <c r="N58" s="3">
+        <v>0</v>
+      </c>
+      <c r="O58" s="3">
         <v>3100</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>6600</v>
       </c>
-      <c r="P58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q58" s="3" t="s">
         <v>3</v>
       </c>
@@ -3254,50 +3388,53 @@
       <c r="T58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>44000</v>
+      </c>
+      <c r="E59" s="3">
         <v>37400</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>49100</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>44100</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>43700</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>34300</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>32000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>25700</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>19600</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>16800</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>34100</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>19700</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>17800</v>
       </c>
-      <c r="P59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q59" s="3" t="s">
         <v>3</v>
       </c>
@@ -3310,50 +3447,53 @@
       <c r="T59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>128700</v>
+      </c>
+      <c r="E60" s="3">
         <v>98800</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>104500</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>98800</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>101000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>77800</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>74200</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>57700</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>59100</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>36200</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>57600</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>46400</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>43300</v>
       </c>
-      <c r="P60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q60" s="3" t="s">
         <v>3</v>
       </c>
@@ -3366,8 +3506,11 @@
       <c r="T60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3422,52 +3565,55 @@
       <c r="T61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>7200</v>
+      </c>
+      <c r="E62" s="3">
         <v>7400</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>8100</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>8700</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>9000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>9200</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>600</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>300</v>
       </c>
-      <c r="K62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L62" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M62" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N62" s="3">
-        <v>0</v>
+      <c r="N62" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="O62" s="3">
         <v>0</v>
       </c>
-      <c r="P62" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q62" s="3">
-        <v>0</v>
+      <c r="P62" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q62" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="R62" s="3">
         <v>0</v>
@@ -3478,8 +3624,11 @@
       <c r="T62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3534,8 +3683,11 @@
       <c r="T63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3590,8 +3742,11 @@
       <c r="T64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3646,50 +3801,53 @@
       <c r="T65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>135900</v>
+      </c>
+      <c r="E66" s="3">
         <v>106200</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>112600</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>107500</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>110000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>87000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>74800</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>58000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>59100</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>36200</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>57600</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>46400</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>43300</v>
       </c>
-      <c r="P66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q66" s="3" t="s">
         <v>3</v>
       </c>
@@ -3702,8 +3860,11 @@
       <c r="T66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3724,8 +3885,9 @@
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
-    </row>
-    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U67" s="3"/>
+    </row>
+    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3780,8 +3942,11 @@
       <c r="T68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3836,8 +4001,11 @@
       <c r="T69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3869,7 +4037,7 @@
         <v>0</v>
       </c>
       <c r="M70" s="3">
-        <v>106200</v>
+        <v>0</v>
       </c>
       <c r="N70" s="3">
         <v>106200</v>
@@ -3878,7 +4046,7 @@
         <v>106200</v>
       </c>
       <c r="P70" s="3">
-        <v>0</v>
+        <v>106200</v>
       </c>
       <c r="Q70" s="3">
         <v>0</v>
@@ -3892,8 +4060,11 @@
       <c r="T70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3948,50 +4119,53 @@
       <c r="T71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>2500</v>
+      </c>
+      <c r="E72" s="3">
         <v>-2400</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-17500</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-34300</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-53000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-68200</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-105900</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-111200</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-109400</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-113500</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-109100</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-100800</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-102300</v>
       </c>
-      <c r="P72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q72" s="3" t="s">
         <v>3</v>
       </c>
@@ -4004,8 +4178,11 @@
       <c r="T72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4060,8 +4237,11 @@
       <c r="T73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4116,8 +4296,11 @@
       <c r="T74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4172,50 +4355,53 @@
       <c r="T75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>279600</v>
+      </c>
+      <c r="E76" s="3">
         <v>251800</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>224100</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>204500</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>184600</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>166900</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>127300</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>119600</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>121100</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>114300</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>-91300</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>-89500</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>-92100</v>
       </c>
-      <c r="P76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q76" s="3" t="s">
         <v>3</v>
       </c>
@@ -4228,8 +4414,11 @@
       <c r="T76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4284,125 +4473,134 @@
       <c r="T77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E80" s="2">
         <v>44561</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44469</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44377</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44286</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44196</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44104</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44012</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43921</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43830</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43738</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43646</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43555</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43465</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43373</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43281</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43190</v>
       </c>
-      <c r="T80" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>5000</v>
+      </c>
+      <c r="E81" s="3">
         <v>15100</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>16800</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>18700</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>15200</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>38900</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>4800</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-1100</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>3600</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-4400</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-8200</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>4400</v>
       </c>
-      <c r="O81" s="3">
-        <v>0</v>
-      </c>
       <c r="P81" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q81" s="3">
         <v>-1600</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-1100</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-1300</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-1600</v>
       </c>
-      <c r="T81" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4423,13 +4621,14 @@
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
-    </row>
-    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U82" s="3"/>
+    </row>
+    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="E83" s="3">
         <v>300</v>
@@ -4438,10 +4637,10 @@
         <v>300</v>
       </c>
       <c r="G83" s="3">
+        <v>300</v>
+      </c>
+      <c r="H83" s="3">
         <v>400</v>
-      </c>
-      <c r="H83" s="3">
-        <v>500</v>
       </c>
       <c r="I83" s="3">
         <v>500</v>
@@ -4459,10 +4658,10 @@
         <v>500</v>
       </c>
       <c r="N83" s="3">
+        <v>500</v>
+      </c>
+      <c r="O83" s="3">
         <v>1100</v>
-      </c>
-      <c r="O83" s="3">
-        <v>500</v>
       </c>
       <c r="P83" s="3">
         <v>500</v>
@@ -4474,13 +4673,16 @@
         <v>500</v>
       </c>
       <c r="S83" s="3">
+        <v>500</v>
+      </c>
+      <c r="T83" s="3">
         <v>400</v>
       </c>
-      <c r="T83" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4535,8 +4737,11 @@
       <c r="T84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4591,8 +4796,11 @@
       <c r="T85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4647,8 +4855,11 @@
       <c r="T86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4703,8 +4914,11 @@
       <c r="T87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4759,64 +4973,70 @@
       <c r="T88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-11300</v>
+      </c>
+      <c r="E89" s="3">
         <v>8800</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>24200</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-7500</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>500</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>6500</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>15300</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>2200</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>12100</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-5500</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>5900</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-1900</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-6200</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>4100</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-500</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>3100</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-4300</v>
       </c>
-      <c r="T89" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4837,25 +5057,26 @@
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
-    </row>
-    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U90" s="3"/>
+    </row>
+    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-800</v>
+      </c>
+      <c r="E91" s="3">
         <v>-600</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-700</v>
-      </c>
-      <c r="F91" s="3">
-        <v>-400</v>
       </c>
       <c r="G91" s="3">
         <v>-400</v>
       </c>
       <c r="H91" s="3">
-        <v>-100</v>
+        <v>-400</v>
       </c>
       <c r="I91" s="3">
         <v>-100</v>
@@ -4864,37 +5085,40 @@
         <v>-100</v>
       </c>
       <c r="K91" s="3">
+        <v>-100</v>
+      </c>
+      <c r="L91" s="3">
         <v>-700</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-2300</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-400</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-300</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-100</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-200</v>
       </c>
-      <c r="Q91" s="3">
-        <v>0</v>
-      </c>
       <c r="R91" s="3">
+        <v>0</v>
+      </c>
+      <c r="S91" s="3">
         <v>-100</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-300</v>
       </c>
-      <c r="T91" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4949,8 +5173,11 @@
       <c r="T92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5005,64 +5232,70 @@
       <c r="T93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-39600</v>
+      </c>
+      <c r="E94" s="3">
         <v>-6300</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>22400</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>31200</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-38500</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>11900</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-9100</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-42100</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-700</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-2300</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-400</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-100</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>100</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-100</v>
       </c>
-      <c r="Q94" s="3">
-        <v>0</v>
-      </c>
       <c r="R94" s="3">
+        <v>0</v>
+      </c>
+      <c r="S94" s="3">
         <v>-100</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>2200</v>
       </c>
-      <c r="T94" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5083,8 +5316,9 @@
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
-    </row>
-    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U95" s="3"/>
+    </row>
+    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5139,8 +5373,11 @@
       <c r="T96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5195,8 +5432,11 @@
       <c r="T97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5251,8 +5491,11 @@
       <c r="T98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5307,64 +5550,70 @@
       <c r="T99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="E100" s="3">
         <v>-3300</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-3100</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-4800</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-2500</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-2100</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-1600</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-2400</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-200</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>80500</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>1900</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>2200</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>6300</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-4000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>400</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-4200</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-900</v>
       </c>
-      <c r="T100" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5419,60 +5668,66 @@
       <c r="T101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-52600</v>
+      </c>
+      <c r="E102" s="3">
         <v>-800</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>43500</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>18900</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-40500</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>16300</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>4600</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-42200</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>11300</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>72700</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>7400</v>
-      </c>
-      <c r="N102" s="3">
-        <v>200</v>
       </c>
       <c r="O102" s="3">
         <v>200</v>
       </c>
       <c r="P102" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="Q102" s="3">
+        <v>0</v>
+      </c>
+      <c r="R102" s="3">
         <v>-200</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-1200</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-3100</v>
       </c>
-      <c r="T102" s="3" t="s">
+      <c r="U102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/PGNY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/PGNY_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="92">
   <si>
     <t>PGNY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:U102"/>
+  <dimension ref="A5:V102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,270 +665,283 @@
     <col min="1" max="1" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E7" s="2">
         <v>44651</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44561</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44469</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44377</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44286</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44196</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44104</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44012</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43921</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43830</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43738</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43646</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43555</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43465</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43373</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43281</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43190</v>
       </c>
-      <c r="U7" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>195000</v>
+      </c>
+      <c r="E8" s="3">
         <v>172200</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>127600</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>122300</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>128700</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>122100</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>100300</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>98900</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>64600</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>81000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>65100</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>61200</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>103400</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>47200</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>29200</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>27800</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>26200</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>22300</v>
       </c>
-      <c r="U8" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>151100</v>
+      </c>
+      <c r="E9" s="3">
         <v>139300</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>102400</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>93800</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>99000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>93200</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>79600</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>78100</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>52700</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>64400</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>53400</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>48900</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>81900</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>37200</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>23800</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>22800</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>21100</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>18300</v>
       </c>
-      <c r="U9" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>43900</v>
+      </c>
+      <c r="E10" s="3">
         <v>32900</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>25200</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>28500</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>29700</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>28900</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>20700</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>20800</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>12000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>16600</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>11700</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>12300</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>21500</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>10000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>5400</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>5000</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>5100</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>4000</v>
       </c>
-      <c r="U10" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -950,8 +963,9 @@
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V11" s="3"/>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1009,8 +1023,11 @@
       <c r="U12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1068,8 +1085,11 @@
       <c r="U13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1088,29 +1108,29 @@
       <c r="H14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="I14" s="3">
+      <c r="I14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J14" s="3">
         <v>900</v>
       </c>
-      <c r="J14" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K14" s="3" t="s">
         <v>3</v>
       </c>
       <c r="L14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M14" s="3">
+      <c r="M14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N14" s="3">
         <v>2000</v>
-      </c>
-      <c r="N14" s="3">
-        <v>200</v>
       </c>
       <c r="O14" s="3">
         <v>200</v>
       </c>
-      <c r="P14" s="3" t="s">
-        <v>3</v>
+      <c r="P14" s="3">
+        <v>200</v>
       </c>
       <c r="Q14" s="3" t="s">
         <v>3</v>
@@ -1127,8 +1147,11 @@
       <c r="U14" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V14" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1186,8 +1209,11 @@
       <c r="U15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1206,126 +1232,133 @@
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
-    </row>
-    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V16" s="3"/>
+    </row>
+    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>186200</v>
+      </c>
+      <c r="E17" s="3">
         <v>172300</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>127700</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>113200</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>117000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>110300</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>99400</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>94100</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>65700</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>77600</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>64000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>58100</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>97900</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>44100</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>29900</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>28400</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>26500</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>24100</v>
       </c>
-      <c r="U17" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-100</v>
+        <v>8800</v>
       </c>
       <c r="E18" s="3">
         <v>-100</v>
       </c>
       <c r="F18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="G18" s="3">
         <v>9100</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>11700</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>11800</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>900</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>4800</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-1100</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>3400</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>1100</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>3100</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>5500</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>3100</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-700</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-600</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-300</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-1800</v>
       </c>
-      <c r="U18" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1347,26 +1380,27 @@
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
-    </row>
-    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V19" s="3"/>
+    </row>
+    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>100</v>
+      </c>
+      <c r="E20" s="3">
         <v>-100</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-300</v>
       </c>
-      <c r="F20" s="3">
-        <v>0</v>
-      </c>
       <c r="G20" s="3">
+        <v>0</v>
+      </c>
+      <c r="H20" s="3">
         <v>200</v>
       </c>
-      <c r="H20" s="3">
-        <v>0</v>
-      </c>
       <c r="I20" s="3">
         <v>0</v>
       </c>
@@ -1377,96 +1411,102 @@
         <v>0</v>
       </c>
       <c r="L20" s="3">
+        <v>0</v>
+      </c>
+      <c r="M20" s="3">
         <v>300</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-5600</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-11200</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-1200</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-600</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-1400</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-900</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-500</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-200</v>
       </c>
-      <c r="U20" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>9300</v>
+      </c>
+      <c r="E21" s="3">
         <v>200</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-100</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>9400</v>
-      </c>
-      <c r="G21" s="3">
-        <v>12200</v>
       </c>
       <c r="H21" s="3">
         <v>12200</v>
       </c>
       <c r="I21" s="3">
+        <v>12200</v>
+      </c>
+      <c r="J21" s="3">
         <v>1400</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>5300</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-600</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>4300</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-3900</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-7600</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>5300</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>3100</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-1600</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-1000</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>-300</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>-1600</v>
       </c>
-      <c r="U21" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1500,15 +1540,15 @@
       <c r="M22" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N22" s="3">
-        <v>0</v>
+      <c r="N22" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="O22" s="3">
+        <v>0</v>
+      </c>
+      <c r="P22" s="3">
         <v>200</v>
       </c>
-      <c r="P22" s="3">
-        <v>0</v>
-      </c>
       <c r="Q22" s="3">
         <v>0</v>
       </c>
@@ -1516,134 +1556,143 @@
         <v>0</v>
       </c>
       <c r="S22" s="3">
+        <v>0</v>
+      </c>
+      <c r="T22" s="3">
         <v>300</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>100</v>
       </c>
-      <c r="U22" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V22" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>8900</v>
+      </c>
+      <c r="E23" s="3">
         <v>-100</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-400</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>9100</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>11900</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>11800</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>1000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>4800</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-1100</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>3700</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-4500</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-8200</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>4100</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>2500</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-2100</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-1500</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-1100</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-2100</v>
       </c>
-      <c r="U23" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>100</v>
+      </c>
+      <c r="E24" s="3">
         <v>-5100</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>-15500</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>-7700</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>-6800</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>-3400</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>-37900</v>
       </c>
-      <c r="J24" s="3">
-        <v>0</v>
-      </c>
       <c r="K24" s="3">
         <v>0</v>
       </c>
       <c r="L24" s="3">
+        <v>0</v>
+      </c>
+      <c r="M24" s="3">
         <v>100</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>-100</v>
       </c>
-      <c r="N24" s="3">
-        <v>0</v>
-      </c>
       <c r="O24" s="3">
+        <v>0</v>
+      </c>
+      <c r="P24" s="3">
         <v>100</v>
       </c>
-      <c r="P24" s="3">
-        <v>0</v>
-      </c>
       <c r="Q24" s="3">
+        <v>0</v>
+      </c>
+      <c r="R24" s="3">
         <v>-500</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>-400</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>-300</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>-500</v>
       </c>
-      <c r="U24" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1701,126 +1750,135 @@
       <c r="U25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>8800</v>
+      </c>
+      <c r="E26" s="3">
         <v>5000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>15100</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>16800</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>18700</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>15200</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>38900</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>4800</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-1100</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>3600</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-4400</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-8200</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>4000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>2500</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-1600</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-1100</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-800</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-1600</v>
       </c>
-      <c r="U26" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>8800</v>
+      </c>
+      <c r="E27" s="3">
         <v>5000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>15100</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>16800</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>18700</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>15200</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>38900</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>4800</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-1100</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>3600</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-4400</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-8200</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>4400</v>
       </c>
-      <c r="P27" s="3">
-        <v>0</v>
-      </c>
       <c r="Q27" s="3">
+        <v>0</v>
+      </c>
+      <c r="R27" s="3">
         <v>-1600</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-1100</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-1300</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-7300</v>
       </c>
-      <c r="U27" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1878,8 +1936,11 @@
       <c r="U28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1904,14 +1965,14 @@
       <c r="J29" s="3">
         <v>0</v>
       </c>
-      <c r="K29" s="3" t="s">
-        <v>3</v>
+      <c r="K29" s="3">
+        <v>0</v>
       </c>
       <c r="L29" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M29" s="3">
-        <v>0</v>
+      <c r="M29" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="N29" s="3">
         <v>0</v>
@@ -1923,22 +1984,25 @@
         <v>0</v>
       </c>
       <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+      <c r="R29" s="3">
         <v>100</v>
       </c>
-      <c r="R29" s="3">
-        <v>0</v>
-      </c>
       <c r="S29" s="3">
         <v>0</v>
       </c>
       <c r="T29" s="3">
+        <v>0</v>
+      </c>
+      <c r="U29" s="3">
         <v>5700</v>
       </c>
-      <c r="U29" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V29" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1996,8 +2060,11 @@
       <c r="U30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2055,26 +2122,29 @@
       <c r="U31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E32" s="3">
         <v>100</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>300</v>
       </c>
-      <c r="F32" s="3">
-        <v>0</v>
-      </c>
       <c r="G32" s="3">
+        <v>0</v>
+      </c>
+      <c r="H32" s="3">
         <v>-200</v>
       </c>
-      <c r="H32" s="3">
-        <v>0</v>
-      </c>
       <c r="I32" s="3">
         <v>0</v>
       </c>
@@ -2085,96 +2155,102 @@
         <v>0</v>
       </c>
       <c r="L32" s="3">
+        <v>0</v>
+      </c>
+      <c r="M32" s="3">
         <v>-300</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>5600</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>11200</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>1200</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>600</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>1400</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>900</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>500</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>200</v>
       </c>
-      <c r="U32" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>8800</v>
+      </c>
+      <c r="E33" s="3">
         <v>5000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>15100</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>16800</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>18700</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>15200</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>38900</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>4800</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-1100</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>3600</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-4400</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-8200</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>4400</v>
       </c>
-      <c r="P33" s="3">
-        <v>0</v>
-      </c>
       <c r="Q33" s="3">
+        <v>0</v>
+      </c>
+      <c r="R33" s="3">
         <v>-1600</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-1100</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-1300</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-1600</v>
       </c>
-      <c r="U33" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2232,131 +2308,140 @@
       <c r="U34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>8800</v>
+      </c>
+      <c r="E35" s="3">
         <v>5000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>15100</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>16800</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>18700</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>15200</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>38900</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>4800</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-1100</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>3600</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-4400</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-8200</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>4400</v>
       </c>
-      <c r="P35" s="3">
-        <v>0</v>
-      </c>
       <c r="Q35" s="3">
+        <v>0</v>
+      </c>
+      <c r="R35" s="3">
         <v>-1600</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-1100</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-1300</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-1600</v>
       </c>
-      <c r="U35" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E38" s="2">
         <v>44651</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44561</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44469</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44377</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44286</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44196</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44104</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44012</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43921</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43830</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43738</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43646</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43555</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43465</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43373</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43281</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43190</v>
       </c>
-      <c r="U38" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2378,8 +2463,9 @@
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
-    </row>
-    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V39" s="3"/>
+    </row>
+    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2401,53 +2487,54 @@
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
-    </row>
-    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V40" s="3"/>
+    </row>
+    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>54700</v>
+      </c>
+      <c r="E41" s="3">
         <v>38800</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>91400</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>92200</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>48700</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>29800</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>70300</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>54000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>49400</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>91600</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>80400</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>7700</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>300</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>400</v>
       </c>
-      <c r="Q41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R41" s="3" t="s">
         <v>3</v>
       </c>
@@ -2460,38 +2547,41 @@
       <c r="U41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>67700</v>
+      </c>
+      <c r="E42" s="3">
         <v>66900</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>28000</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>22100</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>45200</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>77100</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>39000</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>51000</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>42000</v>
       </c>
-      <c r="L42" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M42" s="3" t="s">
         <v>3</v>
       </c>
@@ -2504,8 +2594,8 @@
       <c r="P42" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="Q42" s="3">
-        <v>0</v>
+      <c r="Q42" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="R42" s="3">
         <v>0</v>
@@ -2519,53 +2609,56 @@
       <c r="U42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>229900</v>
+      </c>
+      <c r="E43" s="3">
         <v>198100</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>134600</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>135200</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>140800</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>116700</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>75700</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>78300</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>65000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>65900</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>47100</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>44300</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>44200</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>40700</v>
       </c>
-      <c r="Q43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R43" s="3" t="s">
         <v>3</v>
       </c>
@@ -2578,8 +2671,11 @@
       <c r="U43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2637,52 +2733,55 @@
       <c r="U44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>4100</v>
+      </c>
+      <c r="E45" s="3">
         <v>5200</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>4600</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>4900</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>3800</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>4200</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>5300</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>1300</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>3300</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>4400</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>5000</v>
-      </c>
-      <c r="N45" s="3">
-        <v>1300</v>
       </c>
       <c r="O45" s="3">
         <v>1300</v>
       </c>
       <c r="P45" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q45" s="3" t="s">
-        <v>3</v>
+        <v>1300</v>
+      </c>
+      <c r="Q45" s="3">
+        <v>0</v>
       </c>
       <c r="R45" s="3" t="s">
         <v>3</v>
@@ -2696,53 +2795,56 @@
       <c r="U45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>356400</v>
+      </c>
+      <c r="E46" s="3">
         <v>309000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>258500</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>254400</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>238500</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>227800</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>190200</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>184600</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>159700</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>161900</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>132400</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>53300</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>45800</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>41100</v>
       </c>
-      <c r="Q46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2755,8 +2857,11 @@
       <c r="U46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2814,53 +2919,56 @@
       <c r="U47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>13600</v>
+      </c>
+      <c r="E48" s="3">
         <v>13400</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>12800</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>12700</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>12200</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>12000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>12100</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>3500</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>3600</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>3700</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>3100</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>1000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>700</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>800</v>
       </c>
-      <c r="Q48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R48" s="3" t="s">
         <v>3</v>
       </c>
@@ -2873,53 +2981,56 @@
       <c r="U48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>12200</v>
+      </c>
+      <c r="E49" s="3">
         <v>12400</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>12500</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>12600</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>12700</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>12900</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>13100</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>13400</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>13600</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>13900</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>14300</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>14600</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>15000</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>15400</v>
       </c>
-      <c r="Q49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R49" s="3" t="s">
         <v>3</v>
       </c>
@@ -2932,8 +3043,11 @@
       <c r="U49" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2991,8 +3105,11 @@
       <c r="U50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3050,31 +3167,34 @@
       <c r="U51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>80600</v>
+      </c>
+      <c r="E52" s="3">
         <v>80700</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>74200</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>56900</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>48700</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>41900</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>38500</v>
-      </c>
-      <c r="J52" s="3">
-        <v>600</v>
       </c>
       <c r="K52" s="3">
         <v>600</v>
@@ -3083,20 +3203,20 @@
         <v>600</v>
       </c>
       <c r="M52" s="3">
+        <v>600</v>
+      </c>
+      <c r="N52" s="3">
         <v>700</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>3600</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>1600</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>300</v>
       </c>
-      <c r="Q52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R52" s="3" t="s">
         <v>3</v>
       </c>
@@ -3109,8 +3229,11 @@
       <c r="U52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3168,53 +3291,56 @@
       <c r="U53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>462900</v>
+      </c>
+      <c r="E54" s="3">
         <v>415500</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>358100</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>336700</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>312100</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>294600</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>253900</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>202100</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>177600</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>180100</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>150400</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>72600</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>63100</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>57500</v>
       </c>
-      <c r="Q54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R54" s="3" t="s">
         <v>3</v>
       </c>
@@ -3227,8 +3353,11 @@
       <c r="U54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3250,8 +3379,9 @@
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
-    </row>
-    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V55" s="3"/>
+    </row>
+    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3273,53 +3403,54 @@
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
-    </row>
-    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V56" s="3"/>
+    </row>
+    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>92700</v>
+      </c>
+      <c r="E57" s="3">
         <v>84700</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>61400</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>55400</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>54700</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>57300</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>43500</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>42200</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>31900</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>39400</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>19400</v>
-      </c>
-      <c r="N57" s="3">
-        <v>23500</v>
       </c>
       <c r="O57" s="3">
         <v>23500</v>
       </c>
       <c r="P57" s="3">
+        <v>23500</v>
+      </c>
+      <c r="Q57" s="3">
         <v>19000</v>
       </c>
-      <c r="Q57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R57" s="3" t="s">
         <v>3</v>
       </c>
@@ -3332,8 +3463,11 @@
       <c r="U57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3371,14 +3505,14 @@
         <v>0</v>
       </c>
       <c r="O58" s="3">
+        <v>0</v>
+      </c>
+      <c r="P58" s="3">
         <v>3100</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>6600</v>
       </c>
-      <c r="Q58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R58" s="3" t="s">
         <v>3</v>
       </c>
@@ -3391,53 +3525,56 @@
       <c r="U58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>52200</v>
+      </c>
+      <c r="E59" s="3">
         <v>44000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>37400</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>49100</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>44100</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>43700</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>34300</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>32000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>25700</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>19600</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>16800</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>34100</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>19700</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>17800</v>
       </c>
-      <c r="Q59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R59" s="3" t="s">
         <v>3</v>
       </c>
@@ -3450,53 +3587,56 @@
       <c r="U59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>144900</v>
+      </c>
+      <c r="E60" s="3">
         <v>128700</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>98800</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>104500</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>98800</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>101000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>77800</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>74200</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>57700</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>59100</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>36200</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>57600</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>46400</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>43300</v>
       </c>
-      <c r="Q60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R60" s="3" t="s">
         <v>3</v>
       </c>
@@ -3509,8 +3649,11 @@
       <c r="U60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3568,55 +3711,58 @@
       <c r="U61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>7000</v>
+      </c>
+      <c r="E62" s="3">
         <v>7200</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>7400</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>8100</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>8700</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>9000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>9200</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>600</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>300</v>
       </c>
-      <c r="L62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M62" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N62" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O62" s="3">
-        <v>0</v>
+      <c r="O62" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="P62" s="3">
         <v>0</v>
       </c>
-      <c r="Q62" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="R62" s="3">
-        <v>0</v>
+      <c r="Q62" s="3">
+        <v>0</v>
+      </c>
+      <c r="R62" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="S62" s="3">
         <v>0</v>
@@ -3627,8 +3773,11 @@
       <c r="U62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3686,8 +3835,11 @@
       <c r="U63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3745,8 +3897,11 @@
       <c r="U64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3804,53 +3959,56 @@
       <c r="U65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>151900</v>
+      </c>
+      <c r="E66" s="3">
         <v>135900</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>106200</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>112600</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>107500</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>110000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>87000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>74800</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>58000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>59100</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>36200</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>57600</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>46400</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>43300</v>
       </c>
-      <c r="Q66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R66" s="3" t="s">
         <v>3</v>
       </c>
@@ -3863,8 +4021,11 @@
       <c r="U66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3886,8 +4047,9 @@
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
-    </row>
-    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V67" s="3"/>
+    </row>
+    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3945,8 +4107,11 @@
       <c r="U68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4004,8 +4169,11 @@
       <c r="U69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4040,7 +4208,7 @@
         <v>0</v>
       </c>
       <c r="N70" s="3">
-        <v>106200</v>
+        <v>0</v>
       </c>
       <c r="O70" s="3">
         <v>106200</v>
@@ -4049,7 +4217,7 @@
         <v>106200</v>
       </c>
       <c r="Q70" s="3">
-        <v>0</v>
+        <v>106200</v>
       </c>
       <c r="R70" s="3">
         <v>0</v>
@@ -4063,8 +4231,11 @@
       <c r="U70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4122,53 +4293,56 @@
       <c r="U71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>11300</v>
+      </c>
+      <c r="E72" s="3">
         <v>2500</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-2400</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-17500</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-34300</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-53000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-68200</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-105900</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-111200</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-109400</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-113500</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-109100</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-100800</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-102300</v>
       </c>
-      <c r="Q72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R72" s="3" t="s">
         <v>3</v>
       </c>
@@ -4181,8 +4355,11 @@
       <c r="U72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4240,8 +4417,11 @@
       <c r="U73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4299,8 +4479,11 @@
       <c r="U74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4358,53 +4541,56 @@
       <c r="U75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>311000</v>
+      </c>
+      <c r="E76" s="3">
         <v>279600</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>251800</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>224100</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>204500</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>184600</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>166900</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>127300</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>119600</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>121100</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>114300</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>-91300</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>-89500</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>-92100</v>
       </c>
-      <c r="Q76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R76" s="3" t="s">
         <v>3</v>
       </c>
@@ -4417,8 +4603,11 @@
       <c r="U76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4476,131 +4665,140 @@
       <c r="U77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E80" s="2">
         <v>44651</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44561</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44469</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44377</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44286</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44196</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44104</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44012</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43921</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43830</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43738</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43646</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43555</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43465</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43373</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43281</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43190</v>
       </c>
-      <c r="U80" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>8800</v>
+      </c>
+      <c r="E81" s="3">
         <v>5000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>15100</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>16800</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>18700</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>15200</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>38900</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>4800</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-1100</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>3600</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-4400</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-8200</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>4400</v>
       </c>
-      <c r="P81" s="3">
-        <v>0</v>
-      </c>
       <c r="Q81" s="3">
+        <v>0</v>
+      </c>
+      <c r="R81" s="3">
         <v>-1600</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-1100</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-1300</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-1600</v>
       </c>
-      <c r="U81" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4622,8 +4820,9 @@
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
-    </row>
-    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V82" s="3"/>
+    </row>
+    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4631,7 +4830,7 @@
         <v>400</v>
       </c>
       <c r="E83" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="F83" s="3">
         <v>300</v>
@@ -4640,10 +4839,10 @@
         <v>300</v>
       </c>
       <c r="H83" s="3">
+        <v>300</v>
+      </c>
+      <c r="I83" s="3">
         <v>400</v>
-      </c>
-      <c r="I83" s="3">
-        <v>500</v>
       </c>
       <c r="J83" s="3">
         <v>500</v>
@@ -4661,10 +4860,10 @@
         <v>500</v>
       </c>
       <c r="O83" s="3">
+        <v>500</v>
+      </c>
+      <c r="P83" s="3">
         <v>1100</v>
-      </c>
-      <c r="P83" s="3">
-        <v>500</v>
       </c>
       <c r="Q83" s="3">
         <v>500</v>
@@ -4676,13 +4875,16 @@
         <v>500</v>
       </c>
       <c r="T83" s="3">
+        <v>500</v>
+      </c>
+      <c r="U83" s="3">
         <v>400</v>
       </c>
-      <c r="U83" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4740,8 +4942,11 @@
       <c r="U84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4799,8 +5004,11 @@
       <c r="U85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4858,8 +5066,11 @@
       <c r="U86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4917,8 +5128,11 @@
       <c r="U87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4976,67 +5190,73 @@
       <c r="U88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>19200</v>
+      </c>
+      <c r="E89" s="3">
         <v>-11300</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>8800</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>24200</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-7500</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>500</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>6500</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>15300</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>2200</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>12100</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-5500</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>5900</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-1900</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-6200</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>4100</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-500</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>3100</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-4300</v>
       </c>
-      <c r="U89" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5058,28 +5278,29 @@
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
-    </row>
-    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V90" s="3"/>
+    </row>
+    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-500</v>
+      </c>
+      <c r="E91" s="3">
         <v>-800</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-600</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-700</v>
-      </c>
-      <c r="G91" s="3">
-        <v>-400</v>
       </c>
       <c r="H91" s="3">
         <v>-400</v>
       </c>
       <c r="I91" s="3">
-        <v>-100</v>
+        <v>-400</v>
       </c>
       <c r="J91" s="3">
         <v>-100</v>
@@ -5088,37 +5309,40 @@
         <v>-100</v>
       </c>
       <c r="L91" s="3">
+        <v>-100</v>
+      </c>
+      <c r="M91" s="3">
         <v>-700</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-2300</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-400</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-300</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-100</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-200</v>
       </c>
-      <c r="R91" s="3">
-        <v>0</v>
-      </c>
       <c r="S91" s="3">
+        <v>0</v>
+      </c>
+      <c r="T91" s="3">
         <v>-100</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-300</v>
       </c>
-      <c r="U91" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5176,8 +5400,11 @@
       <c r="U92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5235,67 +5462,73 @@
       <c r="U93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="E94" s="3">
         <v>-39600</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-6300</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>22400</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>31200</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-38500</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>11900</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-9100</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-42100</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-700</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-2300</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-400</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-100</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>100</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-100</v>
       </c>
-      <c r="R94" s="3">
-        <v>0</v>
-      </c>
       <c r="S94" s="3">
+        <v>0</v>
+      </c>
+      <c r="T94" s="3">
         <v>-100</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>2200</v>
       </c>
-      <c r="U94" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5317,8 +5550,9 @@
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
-    </row>
-    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V95" s="3"/>
+    </row>
+    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5376,8 +5610,11 @@
       <c r="U96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5435,8 +5672,11 @@
       <c r="U97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5494,8 +5734,11 @@
       <c r="U98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5553,67 +5796,73 @@
       <c r="U99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="E100" s="3">
         <v>-1800</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-3300</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-3100</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-4800</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-2500</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-2100</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-1600</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-2400</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-200</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>80500</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>1900</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>2200</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>6300</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-4000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>400</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-4200</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-900</v>
       </c>
-      <c r="U100" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5671,63 +5920,69 @@
       <c r="U101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>15900</v>
+      </c>
+      <c r="E102" s="3">
         <v>-52600</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-800</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>43500</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>18900</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-40500</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>16300</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>4600</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-42200</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>11300</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>72700</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>7400</v>
-      </c>
-      <c r="O102" s="3">
-        <v>200</v>
       </c>
       <c r="P102" s="3">
         <v>200</v>
       </c>
       <c r="Q102" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="R102" s="3">
+        <v>0</v>
+      </c>
+      <c r="S102" s="3">
         <v>-200</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-1200</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-3100</v>
       </c>
-      <c r="U102" s="3" t="s">
+      <c r="V102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/PGNY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/PGNY_QTR_FIN.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Sundeep\Stocks_Automation\AAII_Financials\Quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D4BE06D-6F07-4FB6-9DAE-0C5610B484FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9345"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PGNY" sheetId="6" r:id="rId1"/>
@@ -17,12 +18,12 @@
   <definedNames>
     <definedName name="Ticker">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="152511" calcMode="manual" concurrentCalc="0"/>
+  <calcPr calcId="152511" calcMode="manual"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="92">
   <si>
     <t>PGNY</t>
   </si>
@@ -303,7 +304,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
@@ -444,6 +445,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -479,6 +497,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -654,11 +689,13 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:V102"/>
+  <dimension ref="A5:U102"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="O1" workbookViewId="0">
+      <selection activeCell="V1" sqref="V1:V1048576"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
@@ -679,21 +716,20 @@
     <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="16384" width="9.140625" style="1"/>
+    <col min="22" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
@@ -751,11 +787,8 @@
       <c r="U7" s="2">
         <v>43190</v>
       </c>
-      <c r="V7" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
@@ -813,11 +846,8 @@
       <c r="U8" s="3">
         <v>22300</v>
       </c>
-      <c r="V8" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -875,11 +905,8 @@
       <c r="U9" s="3">
         <v>18300</v>
       </c>
-      <c r="V9" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -937,11 +964,8 @@
       <c r="U10" s="3">
         <v>4000</v>
       </c>
-      <c r="V10" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -963,9 +987,8 @@
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
-      <c r="V11" s="3"/>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1023,11 +1046,8 @@
       <c r="U12" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="V12" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1085,11 +1105,8 @@
       <c r="U13" s="3">
         <v>0</v>
       </c>
-      <c r="V13" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1147,11 +1164,8 @@
       <c r="U14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="V14" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1209,11 +1223,8 @@
       <c r="U15" s="3">
         <v>0</v>
       </c>
-      <c r="V15" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1232,9 +1243,8 @@
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
-      <c r="V16" s="3"/>
-    </row>
-    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
+    </row>
+    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1292,11 +1302,8 @@
       <c r="U17" s="3">
         <v>24100</v>
       </c>
-      <c r="V17" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
+    </row>
+    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1354,11 +1361,8 @@
       <c r="U18" s="3">
         <v>-1800</v>
       </c>
-      <c r="V18" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
+    </row>
+    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1380,9 +1384,8 @@
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
-      <c r="V19" s="3"/>
-    </row>
-    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
+    </row>
+    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1440,11 +1443,8 @@
       <c r="U20" s="3">
         <v>-200</v>
       </c>
-      <c r="V20" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
+    </row>
+    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1502,11 +1502,8 @@
       <c r="U21" s="3">
         <v>-1600</v>
       </c>
-      <c r="V21" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
+    </row>
+    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1564,11 +1561,8 @@
       <c r="U22" s="3">
         <v>100</v>
       </c>
-      <c r="V22" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
+    </row>
+    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
@@ -1626,11 +1620,8 @@
       <c r="U23" s="3">
         <v>-2100</v>
       </c>
-      <c r="V23" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
+    </row>
+    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1688,11 +1679,8 @@
       <c r="U24" s="3">
         <v>-500</v>
       </c>
-      <c r="V24" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
+    </row>
+    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1750,11 +1738,8 @@
       <c r="U25" s="3">
         <v>0</v>
       </c>
-      <c r="V25" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
+    </row>
+    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
@@ -1812,11 +1797,8 @@
       <c r="U26" s="3">
         <v>-1600</v>
       </c>
-      <c r="V26" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
+    </row>
+    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
@@ -1874,11 +1856,8 @@
       <c r="U27" s="3">
         <v>-7300</v>
       </c>
-      <c r="V27" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
+    </row>
+    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1936,11 +1915,8 @@
       <c r="U28" s="3">
         <v>0</v>
       </c>
-      <c r="V28" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
+    </row>
+    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1998,11 +1974,8 @@
       <c r="U29" s="3">
         <v>5700</v>
       </c>
-      <c r="V29" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
+    </row>
+    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2060,11 +2033,8 @@
       <c r="U30" s="3">
         <v>0</v>
       </c>
-      <c r="V30" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
+    </row>
+    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2122,11 +2092,8 @@
       <c r="U31" s="3">
         <v>0</v>
       </c>
-      <c r="V31" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
+    </row>
+    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2184,11 +2151,8 @@
       <c r="U32" s="3">
         <v>200</v>
       </c>
-      <c r="V32" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
+    </row>
+    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
@@ -2246,11 +2210,8 @@
       <c r="U33" s="3">
         <v>-1600</v>
       </c>
-      <c r="V33" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
+    </row>
+    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2308,11 +2269,8 @@
       <c r="U34" s="3">
         <v>0</v>
       </c>
-      <c r="V34" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
+    </row>
+    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
@@ -2370,16 +2328,13 @@
       <c r="U35" s="3">
         <v>-1600</v>
       </c>
-      <c r="V35" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
+    </row>
+    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
@@ -2437,11 +2392,8 @@
       <c r="U38" s="2">
         <v>43190</v>
       </c>
-      <c r="V38" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
+    </row>
+    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2463,9 +2415,8 @@
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
-      <c r="V39" s="3"/>
-    </row>
-    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
+    </row>
+    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2487,9 +2438,8 @@
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
-      <c r="V40" s="3"/>
-    </row>
-    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
+    </row>
+    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -2547,11 +2497,8 @@
       <c r="U41" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="V41" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
+    </row>
+    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2609,11 +2556,8 @@
       <c r="U42" s="3">
         <v>0</v>
       </c>
-      <c r="V42" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
+    </row>
+    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2671,11 +2615,8 @@
       <c r="U43" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="V43" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
+    </row>
+    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2733,11 +2674,8 @@
       <c r="U44" s="3">
         <v>0</v>
       </c>
-      <c r="V44" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
+    </row>
+    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2795,11 +2733,8 @@
       <c r="U45" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="V45" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
+    </row>
+    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2857,11 +2792,8 @@
       <c r="U46" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="V46" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
+    </row>
+    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2919,11 +2851,8 @@
       <c r="U47" s="3">
         <v>0</v>
       </c>
-      <c r="V47" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
+    </row>
+    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2981,11 +2910,8 @@
       <c r="U48" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="V48" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
+    </row>
+    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3043,11 +2969,8 @@
       <c r="U49" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="V49" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
+    </row>
+    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3105,11 +3028,8 @@
       <c r="U50" s="3">
         <v>0</v>
       </c>
-      <c r="V50" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
+    </row>
+    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3167,11 +3087,8 @@
       <c r="U51" s="3">
         <v>0</v>
       </c>
-      <c r="V51" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
+    </row>
+    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3229,11 +3146,8 @@
       <c r="U52" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="V52" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
+    </row>
+    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3291,11 +3205,8 @@
       <c r="U53" s="3">
         <v>0</v>
       </c>
-      <c r="V53" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
+    </row>
+    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
@@ -3353,11 +3264,8 @@
       <c r="U54" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="V54" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
+    </row>
+    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3379,9 +3287,8 @@
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
-      <c r="V55" s="3"/>
-    </row>
-    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
+    </row>
+    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3403,9 +3310,8 @@
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
-      <c r="V56" s="3"/>
-    </row>
-    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
+    </row>
+    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3463,11 +3369,8 @@
       <c r="U57" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="V57" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
+    </row>
+    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3525,11 +3428,8 @@
       <c r="U58" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="V58" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
+    </row>
+    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -3587,11 +3487,8 @@
       <c r="U59" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="V59" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
+    </row>
+    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -3649,11 +3546,8 @@
       <c r="U60" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="V60" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
+    </row>
+    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3711,11 +3605,8 @@
       <c r="U61" s="3">
         <v>0</v>
       </c>
-      <c r="V61" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
+    </row>
+    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3773,11 +3664,8 @@
       <c r="U62" s="3">
         <v>0</v>
       </c>
-      <c r="V62" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
+    </row>
+    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3835,11 +3723,8 @@
       <c r="U63" s="3">
         <v>0</v>
       </c>
-      <c r="V63" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
+    </row>
+    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3897,11 +3782,8 @@
       <c r="U64" s="3">
         <v>0</v>
       </c>
-      <c r="V64" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
+    </row>
+    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3959,11 +3841,8 @@
       <c r="U65" s="3">
         <v>0</v>
       </c>
-      <c r="V65" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
+    </row>
+    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
@@ -4021,11 +3900,8 @@
       <c r="U66" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="V66" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
+    </row>
+    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4047,9 +3923,8 @@
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
-      <c r="V67" s="3"/>
-    </row>
-    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
+    </row>
+    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4107,11 +3982,8 @@
       <c r="U68" s="3">
         <v>0</v>
       </c>
-      <c r="V68" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
+    </row>
+    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4169,11 +4041,8 @@
       <c r="U69" s="3">
         <v>0</v>
       </c>
-      <c r="V69" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
+    </row>
+    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4231,11 +4100,8 @@
       <c r="U70" s="3">
         <v>0</v>
       </c>
-      <c r="V70" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
+    </row>
+    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4293,11 +4159,8 @@
       <c r="U71" s="3">
         <v>0</v>
       </c>
-      <c r="V71" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
+    </row>
+    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
@@ -4355,11 +4218,8 @@
       <c r="U72" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="V72" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
+    </row>
+    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4417,11 +4277,8 @@
       <c r="U73" s="3">
         <v>0</v>
       </c>
-      <c r="V73" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
+    </row>
+    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4479,11 +4336,8 @@
       <c r="U74" s="3">
         <v>0</v>
       </c>
-      <c r="V74" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
+    </row>
+    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4541,11 +4395,8 @@
       <c r="U75" s="3">
         <v>0</v>
       </c>
-      <c r="V75" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
+    </row>
+    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
@@ -4603,11 +4454,8 @@
       <c r="U76" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="V76" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
+    </row>
+    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4665,16 +4513,13 @@
       <c r="U77" s="3">
         <v>0</v>
       </c>
-      <c r="V77" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
+    </row>
+    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
@@ -4732,11 +4577,8 @@
       <c r="U80" s="2">
         <v>43190</v>
       </c>
-      <c r="V80" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
+    </row>
+    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
@@ -4794,11 +4636,8 @@
       <c r="U81" s="3">
         <v>-1600</v>
       </c>
-      <c r="V81" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
+    </row>
+    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4820,9 +4659,8 @@
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
-      <c r="V82" s="3"/>
-    </row>
-    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
+    </row>
+    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4880,11 +4718,8 @@
       <c r="U83" s="3">
         <v>400</v>
       </c>
-      <c r="V83" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
+    </row>
+    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4942,11 +4777,8 @@
       <c r="U84" s="3">
         <v>0</v>
       </c>
-      <c r="V84" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
+    </row>
+    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5004,11 +4836,8 @@
       <c r="U85" s="3">
         <v>0</v>
       </c>
-      <c r="V85" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
+    </row>
+    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5066,11 +4895,8 @@
       <c r="U86" s="3">
         <v>0</v>
       </c>
-      <c r="V86" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
+    </row>
+    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5128,11 +4954,8 @@
       <c r="U87" s="3">
         <v>0</v>
       </c>
-      <c r="V87" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
+    </row>
+    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5190,11 +5013,8 @@
       <c r="U88" s="3">
         <v>0</v>
       </c>
-      <c r="V88" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
+    </row>
+    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -5252,11 +5072,8 @@
       <c r="U89" s="3">
         <v>-4300</v>
       </c>
-      <c r="V89" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
+    </row>
+    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5278,9 +5095,8 @@
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
-      <c r="V90" s="3"/>
-    </row>
-    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
+    </row>
+    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -5338,11 +5154,8 @@
       <c r="U91" s="3">
         <v>-300</v>
       </c>
-      <c r="V91" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
+    </row>
+    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5400,11 +5213,8 @@
       <c r="U92" s="3">
         <v>0</v>
       </c>
-      <c r="V92" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
+    </row>
+    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5462,11 +5272,8 @@
       <c r="U93" s="3">
         <v>0</v>
       </c>
-      <c r="V93" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
+    </row>
+    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -5524,11 +5331,8 @@
       <c r="U94" s="3">
         <v>2200</v>
       </c>
-      <c r="V94" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
+    </row>
+    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5550,9 +5354,8 @@
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
-      <c r="V95" s="3"/>
-    </row>
-    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
+    </row>
+    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5610,11 +5413,8 @@
       <c r="U96" s="3">
         <v>0</v>
       </c>
-      <c r="V96" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
+    </row>
+    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5672,11 +5472,8 @@
       <c r="U97" s="3">
         <v>0</v>
       </c>
-      <c r="V97" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
+    </row>
+    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5734,11 +5531,8 @@
       <c r="U98" s="3">
         <v>0</v>
       </c>
-      <c r="V98" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
+    </row>
+    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5796,11 +5590,8 @@
       <c r="U99" s="3">
         <v>0</v>
       </c>
-      <c r="V99" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
+    </row>
+    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -5858,11 +5649,8 @@
       <c r="U100" s="3">
         <v>-900</v>
       </c>
-      <c r="V100" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
+    </row>
+    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5920,11 +5708,8 @@
       <c r="U101" s="3">
         <v>0</v>
       </c>
-      <c r="V101" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
+    </row>
+    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -5981,9 +5766,6 @@
       </c>
       <c r="U102" s="3">
         <v>-3100</v>
-      </c>
-      <c r="V102" s="3" t="s">
-        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/AAII_Financials/Quarterly/PGNY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/PGNY_QTR_FIN.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Sundeep\Stocks_Automation\AAII_Financials\Quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D4BE06D-6F07-4FB6-9DAE-0C5610B484FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640"/>
   </bookViews>
   <sheets>
     <sheet name="PGNY" sheetId="6" r:id="rId1"/>
@@ -18,12 +17,12 @@
   <definedNames>
     <definedName name="Ticker">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="152511" calcMode="manual"/>
+  <calcPr calcId="152511" calcMode="manual" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="92">
   <si>
     <t>PGNY</t>
   </si>
@@ -304,7 +303,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
@@ -445,23 +444,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -497,23 +479,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -689,283 +654,294 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:U102"/>
+  <dimension ref="A5:V102"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="O1" workbookViewId="0">
-      <selection activeCell="V1" sqref="V1:V1048576"/>
-    </sheetView>
+    <sheetView tabSelected="1" topLeftCell="O1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E7" s="2">
         <v>44742</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44651</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44561</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44469</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44377</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44286</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44196</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44104</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44012</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43921</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43830</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43738</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43646</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43555</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43465</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43373</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43281</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43190</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>205400</v>
+      </c>
+      <c r="E8" s="3">
         <v>195000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>172200</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>127600</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>122300</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>128700</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>122100</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>100300</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>98900</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>64600</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>81000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>65100</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>61200</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>103400</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>47200</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>29200</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>27800</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>26200</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>22300</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>159400</v>
+      </c>
+      <c r="E9" s="3">
         <v>151100</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>139300</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>102400</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>93800</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>99000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>93200</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>79600</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>78100</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>52700</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>64400</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>53400</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>48900</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>81900</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>37200</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>23800</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>22800</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>21100</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>18300</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>46000</v>
+      </c>
+      <c r="E10" s="3">
         <v>43900</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>32900</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>25200</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>28500</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>29700</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>28900</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>20700</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>20800</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>12000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>16600</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>11700</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>12300</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>21500</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>10000</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>5400</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>5000</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>5100</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>4000</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -987,8 +963,9 @@
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V11" s="3"/>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1046,8 +1023,11 @@
       <c r="U12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1105,8 +1085,11 @@
       <c r="U13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1128,29 +1111,29 @@
       <c r="I14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="J14" s="3">
+      <c r="J14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K14" s="3">
         <v>900</v>
       </c>
-      <c r="K14" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L14" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N14" s="3">
+      <c r="N14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O14" s="3">
         <v>2000</v>
-      </c>
-      <c r="O14" s="3">
-        <v>200</v>
       </c>
       <c r="P14" s="3">
         <v>200</v>
       </c>
-      <c r="Q14" s="3" t="s">
-        <v>3</v>
+      <c r="Q14" s="3">
+        <v>200</v>
       </c>
       <c r="R14" s="3" t="s">
         <v>3</v>
@@ -1164,8 +1147,11 @@
       <c r="U14" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V14" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1223,8 +1209,11 @@
       <c r="U15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1243,126 +1232,133 @@
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
-    </row>
-    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V16" s="3"/>
+    </row>
+    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>194100</v>
+      </c>
+      <c r="E17" s="3">
         <v>186200</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>172300</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>127700</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>113200</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>117000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>110300</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>99400</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>94100</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>65700</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>77600</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>64000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>58100</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>97900</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>44100</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>29900</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>28400</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>26500</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>24100</v>
       </c>
     </row>
-    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>11300</v>
+      </c>
+      <c r="E18" s="3">
         <v>8800</v>
-      </c>
-      <c r="E18" s="3">
-        <v>-100</v>
       </c>
       <c r="F18" s="3">
         <v>-100</v>
       </c>
       <c r="G18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="H18" s="3">
         <v>9100</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>11700</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>11800</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>900</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>4800</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-1100</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>3400</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>1100</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>3100</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>5500</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>3100</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-700</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-600</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-300</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>-1800</v>
       </c>
     </row>
-    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1384,29 +1380,30 @@
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
-    </row>
-    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V19" s="3"/>
+    </row>
+    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>300</v>
+      </c>
+      <c r="E20" s="3">
         <v>100</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-100</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-300</v>
       </c>
-      <c r="G20" s="3">
-        <v>0</v>
-      </c>
       <c r="H20" s="3">
+        <v>0</v>
+      </c>
+      <c r="I20" s="3">
         <v>200</v>
       </c>
-      <c r="I20" s="3">
-        <v>0</v>
-      </c>
       <c r="J20" s="3">
         <v>0</v>
       </c>
@@ -1417,93 +1414,99 @@
         <v>0</v>
       </c>
       <c r="M20" s="3">
+        <v>0</v>
+      </c>
+      <c r="N20" s="3">
         <v>300</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-5600</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-11200</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-1200</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-600</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-1400</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-900</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-500</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>11900</v>
+      </c>
+      <c r="E21" s="3">
         <v>9300</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>200</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-100</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>9400</v>
-      </c>
-      <c r="H21" s="3">
-        <v>12200</v>
       </c>
       <c r="I21" s="3">
         <v>12200</v>
       </c>
       <c r="J21" s="3">
+        <v>12200</v>
+      </c>
+      <c r="K21" s="3">
         <v>1400</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>5300</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-600</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>4300</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-3900</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-7600</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>5300</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>3100</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-1600</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>-1000</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>-300</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>-1600</v>
       </c>
     </row>
-    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1540,15 +1543,15 @@
       <c r="N22" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O22" s="3">
-        <v>0</v>
+      <c r="O22" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="P22" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q22" s="3">
         <v>200</v>
       </c>
-      <c r="Q22" s="3">
-        <v>0</v>
-      </c>
       <c r="R22" s="3">
         <v>0</v>
       </c>
@@ -1556,131 +1559,140 @@
         <v>0</v>
       </c>
       <c r="T22" s="3">
+        <v>0</v>
+      </c>
+      <c r="U22" s="3">
         <v>300</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>11500</v>
+      </c>
+      <c r="E23" s="3">
         <v>8900</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-100</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-400</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>9100</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>11900</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>11800</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>1000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>4800</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-1100</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>3700</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-4500</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-8200</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>4100</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>2500</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-2100</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-1500</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-1100</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-2100</v>
       </c>
     </row>
-    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="E24" s="3">
         <v>100</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>-5100</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>-15500</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>-7700</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>-6800</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>-3400</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>-37900</v>
       </c>
-      <c r="K24" s="3">
-        <v>0</v>
-      </c>
       <c r="L24" s="3">
         <v>0</v>
       </c>
       <c r="M24" s="3">
+        <v>0</v>
+      </c>
+      <c r="N24" s="3">
         <v>100</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>-100</v>
       </c>
-      <c r="O24" s="3">
-        <v>0</v>
-      </c>
       <c r="P24" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q24" s="3">
         <v>100</v>
       </c>
-      <c r="Q24" s="3">
-        <v>0</v>
-      </c>
       <c r="R24" s="3">
+        <v>0</v>
+      </c>
+      <c r="S24" s="3">
         <v>-500</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>-400</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>-300</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1738,126 +1750,135 @@
       <c r="U25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>13200</v>
+      </c>
+      <c r="E26" s="3">
         <v>8800</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>5000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>15100</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>16800</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>18700</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>15200</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>38900</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>4800</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-1100</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>3600</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-4400</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-8200</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>4000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>2500</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-1600</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-1100</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-800</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-1600</v>
       </c>
     </row>
-    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>13200</v>
+      </c>
+      <c r="E27" s="3">
         <v>8800</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>5000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>15100</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>16800</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>18700</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>15200</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>38900</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>4800</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-1100</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>3600</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-4400</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-8200</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>4400</v>
       </c>
-      <c r="Q27" s="3">
-        <v>0</v>
-      </c>
       <c r="R27" s="3">
+        <v>0</v>
+      </c>
+      <c r="S27" s="3">
         <v>-1600</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-1100</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-1300</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-7300</v>
       </c>
     </row>
-    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1915,8 +1936,11 @@
       <c r="U28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1944,14 +1968,14 @@
       <c r="K29" s="3">
         <v>0</v>
       </c>
-      <c r="L29" s="3" t="s">
-        <v>3</v>
+      <c r="L29" s="3">
+        <v>0</v>
       </c>
       <c r="M29" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N29" s="3">
-        <v>0</v>
+      <c r="N29" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="O29" s="3">
         <v>0</v>
@@ -1963,19 +1987,22 @@
         <v>0</v>
       </c>
       <c r="R29" s="3">
+        <v>0</v>
+      </c>
+      <c r="S29" s="3">
         <v>100</v>
       </c>
-      <c r="S29" s="3">
-        <v>0</v>
-      </c>
       <c r="T29" s="3">
         <v>0</v>
       </c>
       <c r="U29" s="3">
+        <v>0</v>
+      </c>
+      <c r="V29" s="3">
         <v>5700</v>
       </c>
     </row>
-    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2033,8 +2060,11 @@
       <c r="U30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2092,29 +2122,32 @@
       <c r="U31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E32" s="3">
         <v>-100</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>100</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>300</v>
       </c>
-      <c r="G32" s="3">
-        <v>0</v>
-      </c>
       <c r="H32" s="3">
+        <v>0</v>
+      </c>
+      <c r="I32" s="3">
         <v>-200</v>
       </c>
-      <c r="I32" s="3">
-        <v>0</v>
-      </c>
       <c r="J32" s="3">
         <v>0</v>
       </c>
@@ -2125,93 +2158,99 @@
         <v>0</v>
       </c>
       <c r="M32" s="3">
+        <v>0</v>
+      </c>
+      <c r="N32" s="3">
         <v>-300</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>5600</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>11200</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>1200</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>600</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>1400</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>900</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>500</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>13200</v>
+      </c>
+      <c r="E33" s="3">
         <v>8800</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>5000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>15100</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>16800</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>18700</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>15200</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>38900</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>4800</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-1100</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>3600</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-4400</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-8200</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>4400</v>
       </c>
-      <c r="Q33" s="3">
-        <v>0</v>
-      </c>
       <c r="R33" s="3">
+        <v>0</v>
+      </c>
+      <c r="S33" s="3">
         <v>-1600</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-1100</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-1300</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-1600</v>
       </c>
     </row>
-    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2269,131 +2308,140 @@
       <c r="U34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>13200</v>
+      </c>
+      <c r="E35" s="3">
         <v>8800</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>5000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>15100</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>16800</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>18700</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>15200</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>38900</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>4800</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-1100</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>3600</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-4400</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-8200</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>4400</v>
       </c>
-      <c r="Q35" s="3">
-        <v>0</v>
-      </c>
       <c r="R35" s="3">
+        <v>0</v>
+      </c>
+      <c r="S35" s="3">
         <v>-1600</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-1100</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-1300</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-1600</v>
       </c>
     </row>
-    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E38" s="2">
         <v>44742</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44651</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44561</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44469</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44377</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44286</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44196</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44104</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44012</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43921</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43830</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43738</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43646</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43555</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43465</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43373</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43281</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43190</v>
       </c>
     </row>
-    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2415,8 +2463,9 @@
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
-    </row>
-    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V39" s="3"/>
+    </row>
+    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2438,56 +2487,57 @@
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
-    </row>
-    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V40" s="3"/>
+    </row>
+    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>72500</v>
+      </c>
+      <c r="E41" s="3">
         <v>54700</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>38800</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>91400</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>92200</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>48700</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>29800</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>70300</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>54000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>49400</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>91600</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>80400</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>7700</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>300</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>400</v>
       </c>
-      <c r="R41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S41" s="3" t="s">
         <v>3</v>
       </c>
@@ -2497,41 +2547,44 @@
       <c r="U41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>68500</v>
+      </c>
+      <c r="E42" s="3">
         <v>67700</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>66900</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>28000</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>22100</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>45200</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>77100</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>39000</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>51000</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>42000</v>
       </c>
-      <c r="M42" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N42" s="3" t="s">
         <v>3</v>
       </c>
@@ -2544,8 +2597,8 @@
       <c r="Q42" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="R42" s="3">
-        <v>0</v>
+      <c r="R42" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="S42" s="3">
         <v>0</v>
@@ -2556,56 +2609,59 @@
       <c r="U42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>258000</v>
+      </c>
+      <c r="E43" s="3">
         <v>229900</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>198100</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>134600</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>135200</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>140800</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>116700</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>75700</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>78300</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>65000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>65900</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>47100</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>44300</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>44200</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>40700</v>
       </c>
-      <c r="R43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S43" s="3" t="s">
         <v>3</v>
       </c>
@@ -2615,8 +2671,11 @@
       <c r="U43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2674,55 +2733,58 @@
       <c r="U44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>2800</v>
+      </c>
+      <c r="E45" s="3">
         <v>4100</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>5200</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>4600</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>4900</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>3800</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>4200</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>5300</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>1300</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>3300</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>4400</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>5000</v>
-      </c>
-      <c r="O45" s="3">
-        <v>1300</v>
       </c>
       <c r="P45" s="3">
         <v>1300</v>
       </c>
       <c r="Q45" s="3">
-        <v>0</v>
-      </c>
-      <c r="R45" s="3" t="s">
-        <v>3</v>
+        <v>1300</v>
+      </c>
+      <c r="R45" s="3">
+        <v>0</v>
       </c>
       <c r="S45" s="3" t="s">
         <v>3</v>
@@ -2733,56 +2795,59 @@
       <c r="U45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>401900</v>
+      </c>
+      <c r="E46" s="3">
         <v>356400</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>309000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>258500</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>254400</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>238500</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>227800</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>190200</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>184600</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>159700</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>161900</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>132400</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>53300</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>45800</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>41100</v>
       </c>
-      <c r="R46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2792,8 +2857,11 @@
       <c r="U46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2851,56 +2919,59 @@
       <c r="U47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>14300</v>
+      </c>
+      <c r="E48" s="3">
         <v>13600</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>13400</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>12800</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>12700</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>12200</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>12000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>12100</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>3500</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>3600</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>3700</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>3100</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>1000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>700</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>800</v>
       </c>
-      <c r="R48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S48" s="3" t="s">
         <v>3</v>
       </c>
@@ -2910,56 +2981,59 @@
       <c r="U48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>12100</v>
+      </c>
+      <c r="E49" s="3">
         <v>12200</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>12400</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>12500</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>12600</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>12700</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>12900</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>13100</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>13400</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>13600</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>13900</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>14300</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>14600</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>15000</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>15400</v>
       </c>
-      <c r="R49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S49" s="3" t="s">
         <v>3</v>
       </c>
@@ -2969,8 +3043,11 @@
       <c r="U49" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3028,8 +3105,11 @@
       <c r="U50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3087,34 +3167,37 @@
       <c r="U51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>82100</v>
+      </c>
+      <c r="E52" s="3">
         <v>80600</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>80700</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>74200</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>56900</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>48700</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>41900</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>38500</v>
-      </c>
-      <c r="K52" s="3">
-        <v>600</v>
       </c>
       <c r="L52" s="3">
         <v>600</v>
@@ -3123,20 +3206,20 @@
         <v>600</v>
       </c>
       <c r="N52" s="3">
+        <v>600</v>
+      </c>
+      <c r="O52" s="3">
         <v>700</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>3600</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>1600</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>300</v>
       </c>
-      <c r="R52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S52" s="3" t="s">
         <v>3</v>
       </c>
@@ -3146,8 +3229,11 @@
       <c r="U52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3205,56 +3291,59 @@
       <c r="U53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>510400</v>
+      </c>
+      <c r="E54" s="3">
         <v>462900</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>415500</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>358100</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>336700</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>312100</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>294600</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>253900</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>202100</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>177600</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>180100</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>150400</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>72600</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>63100</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>57500</v>
       </c>
-      <c r="R54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S54" s="3" t="s">
         <v>3</v>
       </c>
@@ -3264,8 +3353,11 @@
       <c r="U54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3287,8 +3379,9 @@
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
-    </row>
-    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V55" s="3"/>
+    </row>
+    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3310,56 +3403,57 @@
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
-    </row>
-    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V56" s="3"/>
+    </row>
+    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>104200</v>
+      </c>
+      <c r="E57" s="3">
         <v>92700</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>84700</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>61400</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>55400</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>54700</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>57300</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>43500</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>42200</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>31900</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>39400</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>19400</v>
-      </c>
-      <c r="O57" s="3">
-        <v>23500</v>
       </c>
       <c r="P57" s="3">
         <v>23500</v>
       </c>
       <c r="Q57" s="3">
+        <v>23500</v>
+      </c>
+      <c r="R57" s="3">
         <v>19000</v>
       </c>
-      <c r="R57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S57" s="3" t="s">
         <v>3</v>
       </c>
@@ -3369,8 +3463,11 @@
       <c r="U57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3411,14 +3508,14 @@
         <v>0</v>
       </c>
       <c r="P58" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q58" s="3">
         <v>3100</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>6600</v>
       </c>
-      <c r="R58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S58" s="3" t="s">
         <v>3</v>
       </c>
@@ -3428,56 +3525,59 @@
       <c r="U58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>52700</v>
+      </c>
+      <c r="E59" s="3">
         <v>52200</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>44000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>37400</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>49100</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>44100</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>43700</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>34300</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>32000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>25700</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>19600</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>16800</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>34100</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>19700</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>17800</v>
       </c>
-      <c r="R59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S59" s="3" t="s">
         <v>3</v>
       </c>
@@ -3487,56 +3587,59 @@
       <c r="U59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>156900</v>
+      </c>
+      <c r="E60" s="3">
         <v>144900</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>128700</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>98800</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>104500</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>98800</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>101000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>77800</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>74200</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>57700</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>59100</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>36200</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>57600</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>46400</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>43300</v>
       </c>
-      <c r="R60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S60" s="3" t="s">
         <v>3</v>
       </c>
@@ -3546,8 +3649,11 @@
       <c r="U60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3605,58 +3711,61 @@
       <c r="U61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>6700</v>
+      </c>
+      <c r="E62" s="3">
         <v>7000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>7200</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>7400</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>8100</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>8700</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>9000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>9200</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>600</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>300</v>
       </c>
-      <c r="M62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N62" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O62" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P62" s="3">
-        <v>0</v>
+      <c r="P62" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="Q62" s="3">
         <v>0</v>
       </c>
-      <c r="R62" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="S62" s="3">
-        <v>0</v>
+      <c r="R62" s="3">
+        <v>0</v>
+      </c>
+      <c r="S62" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="T62" s="3">
         <v>0</v>
@@ -3664,8 +3773,11 @@
       <c r="U62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3723,8 +3835,11 @@
       <c r="U63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3782,8 +3897,11 @@
       <c r="U64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3841,56 +3959,59 @@
       <c r="U65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>163600</v>
+      </c>
+      <c r="E66" s="3">
         <v>151900</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>135900</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>106200</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>112600</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>107500</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>110000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>87000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>74800</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>58000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>59100</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>36200</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>57600</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>46400</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>43300</v>
       </c>
-      <c r="R66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S66" s="3" t="s">
         <v>3</v>
       </c>
@@ -3900,8 +4021,11 @@
       <c r="U66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3923,8 +4047,9 @@
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
-    </row>
-    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V67" s="3"/>
+    </row>
+    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3982,8 +4107,11 @@
       <c r="U68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4041,8 +4169,11 @@
       <c r="U69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4080,7 +4211,7 @@
         <v>0</v>
       </c>
       <c r="O70" s="3">
-        <v>106200</v>
+        <v>0</v>
       </c>
       <c r="P70" s="3">
         <v>106200</v>
@@ -4089,7 +4220,7 @@
         <v>106200</v>
       </c>
       <c r="R70" s="3">
-        <v>0</v>
+        <v>106200</v>
       </c>
       <c r="S70" s="3">
         <v>0</v>
@@ -4100,8 +4231,11 @@
       <c r="U70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4159,56 +4293,59 @@
       <c r="U71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>24500</v>
+      </c>
+      <c r="E72" s="3">
         <v>11300</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>2500</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-2400</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-17500</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-34300</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-53000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-68200</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-105900</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-111200</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-109400</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-113500</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-109100</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-100800</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-102300</v>
       </c>
-      <c r="R72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S72" s="3" t="s">
         <v>3</v>
       </c>
@@ -4218,8 +4355,11 @@
       <c r="U72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4277,8 +4417,11 @@
       <c r="U73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4336,8 +4479,11 @@
       <c r="U74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4395,56 +4541,59 @@
       <c r="U75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>346900</v>
+      </c>
+      <c r="E76" s="3">
         <v>311000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>279600</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>251800</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>224100</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>204500</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>184600</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>166900</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>127300</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>119600</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>121100</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>114300</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>-91300</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>-89500</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>-92100</v>
       </c>
-      <c r="R76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S76" s="3" t="s">
         <v>3</v>
       </c>
@@ -4454,8 +4603,11 @@
       <c r="U76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4513,131 +4665,140 @@
       <c r="U77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E80" s="2">
         <v>44742</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44651</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44561</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44469</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44377</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44286</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44196</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44104</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44012</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43921</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43830</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43738</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43646</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43555</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43465</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43373</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43281</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43190</v>
       </c>
     </row>
-    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>13200</v>
+      </c>
+      <c r="E81" s="3">
         <v>8800</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>5000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>15100</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>16800</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>18700</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>15200</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>38900</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>4800</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-1100</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>3600</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-4400</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-8200</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>4400</v>
       </c>
-      <c r="Q81" s="3">
-        <v>0</v>
-      </c>
       <c r="R81" s="3">
+        <v>0</v>
+      </c>
+      <c r="S81" s="3">
         <v>-1600</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-1100</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-1300</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-1600</v>
       </c>
     </row>
-    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4659,8 +4820,9 @@
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
-    </row>
-    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V82" s="3"/>
+    </row>
+    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4671,7 +4833,7 @@
         <v>400</v>
       </c>
       <c r="F83" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="G83" s="3">
         <v>300</v>
@@ -4680,10 +4842,10 @@
         <v>300</v>
       </c>
       <c r="I83" s="3">
+        <v>300</v>
+      </c>
+      <c r="J83" s="3">
         <v>400</v>
-      </c>
-      <c r="J83" s="3">
-        <v>500</v>
       </c>
       <c r="K83" s="3">
         <v>500</v>
@@ -4701,10 +4863,10 @@
         <v>500</v>
       </c>
       <c r="P83" s="3">
+        <v>500</v>
+      </c>
+      <c r="Q83" s="3">
         <v>1100</v>
-      </c>
-      <c r="Q83" s="3">
-        <v>500</v>
       </c>
       <c r="R83" s="3">
         <v>500</v>
@@ -4716,10 +4878,13 @@
         <v>500</v>
       </c>
       <c r="U83" s="3">
+        <v>500</v>
+      </c>
+      <c r="V83" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4777,8 +4942,11 @@
       <c r="U84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4836,8 +5004,11 @@
       <c r="U85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4895,8 +5066,11 @@
       <c r="U86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4954,8 +5128,11 @@
       <c r="U87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5013,67 +5190,73 @@
       <c r="U88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>20900</v>
+      </c>
+      <c r="E89" s="3">
         <v>19200</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-11300</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>8800</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>24200</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-7500</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>500</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>6500</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>15300</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>2200</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>12100</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-5500</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>5900</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-1900</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-6200</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>4100</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-500</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>3100</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>-4300</v>
       </c>
     </row>
-    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5095,31 +5278,32 @@
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
-    </row>
-    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V90" s="3"/>
+    </row>
+    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="E91" s="3">
         <v>-500</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-800</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-600</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-700</v>
-      </c>
-      <c r="H91" s="3">
-        <v>-400</v>
       </c>
       <c r="I91" s="3">
         <v>-400</v>
       </c>
       <c r="J91" s="3">
-        <v>-100</v>
+        <v>-400</v>
       </c>
       <c r="K91" s="3">
         <v>-100</v>
@@ -5128,34 +5312,37 @@
         <v>-100</v>
       </c>
       <c r="M91" s="3">
+        <v>-100</v>
+      </c>
+      <c r="N91" s="3">
         <v>-700</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-2300</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-400</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-300</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-100</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-200</v>
       </c>
-      <c r="S91" s="3">
-        <v>0</v>
-      </c>
       <c r="T91" s="3">
+        <v>0</v>
+      </c>
+      <c r="U91" s="3">
         <v>-100</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5213,8 +5400,11 @@
       <c r="U92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5272,67 +5462,73 @@
       <c r="U93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="E94" s="3">
         <v>-1300</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-39600</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-6300</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>22400</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>31200</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-38500</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>11900</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-9100</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-42100</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-700</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-2300</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-400</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-100</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>100</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-100</v>
       </c>
-      <c r="S94" s="3">
-        <v>0</v>
-      </c>
       <c r="T94" s="3">
+        <v>0</v>
+      </c>
+      <c r="U94" s="3">
         <v>-100</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>2200</v>
       </c>
     </row>
-    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5354,8 +5550,9 @@
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
-    </row>
-    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V95" s="3"/>
+    </row>
+    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5413,8 +5610,11 @@
       <c r="U96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5472,8 +5672,11 @@
       <c r="U97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5531,8 +5734,11 @@
       <c r="U98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5590,67 +5796,73 @@
       <c r="U99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="E100" s="3">
         <v>-2100</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-1800</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-3300</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-3100</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-4800</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-2500</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-2100</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-1600</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-2400</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-200</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>80500</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>1900</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>2200</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>6300</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-4000</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>400</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-4200</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-900</v>
       </c>
     </row>
-    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5708,63 +5920,69 @@
       <c r="U101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>17800</v>
+      </c>
+      <c r="E102" s="3">
         <v>15900</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-52600</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-800</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>43500</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>18900</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-40500</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>16300</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>4600</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-42200</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>11300</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>72700</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>7400</v>
-      </c>
-      <c r="P102" s="3">
-        <v>200</v>
       </c>
       <c r="Q102" s="3">
         <v>200</v>
       </c>
       <c r="R102" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="S102" s="3">
+        <v>0</v>
+      </c>
+      <c r="T102" s="3">
         <v>-200</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-1200</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-3100</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/PGNY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/PGNY_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="92">
   <si>
     <t>PGNY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:V102"/>
+  <dimension ref="A5:W102"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="O1" workbookViewId="0"/>
   </sheetViews>
@@ -665,283 +665,295 @@
     <col min="1" max="1" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E7" s="2">
         <v>44834</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44742</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44651</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44561</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44469</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44377</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44286</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44196</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44104</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44012</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43921</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43830</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43738</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43646</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43555</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43465</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43373</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43281</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43190</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>214300</v>
+      </c>
+      <c r="E8" s="3">
         <v>205400</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>195000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>172200</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>127600</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>122300</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>128700</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>122100</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>100300</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>98900</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>64600</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>81000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>65100</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>61200</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>103400</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>47200</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>29200</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>27800</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>26200</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>22300</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>169800</v>
+      </c>
+      <c r="E9" s="3">
         <v>159400</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>151100</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>139300</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>102400</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>93800</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>99000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>93200</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>79600</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>78100</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>52700</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>64400</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>53400</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>48900</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>81900</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>37200</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>23800</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>22800</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>21100</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>18300</v>
       </c>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>44500</v>
+      </c>
+      <c r="E10" s="3">
         <v>46000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>43900</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>32900</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>25200</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>28500</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>29700</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>28900</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>20700</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>20800</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>12000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>16600</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>11700</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>12300</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>21500</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>10000</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>5400</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>5000</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>5100</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>4000</v>
       </c>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -964,8 +976,9 @@
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W11" s="3"/>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1026,8 +1039,11 @@
       <c r="V12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1088,8 +1104,11 @@
       <c r="V13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1114,29 +1133,29 @@
       <c r="J14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K14" s="3">
+      <c r="K14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L14" s="3">
         <v>900</v>
       </c>
-      <c r="L14" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M14" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O14" s="3">
+      <c r="O14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P14" s="3">
         <v>2000</v>
-      </c>
-      <c r="P14" s="3">
-        <v>200</v>
       </c>
       <c r="Q14" s="3">
         <v>200</v>
       </c>
-      <c r="R14" s="3" t="s">
-        <v>3</v>
+      <c r="R14" s="3">
+        <v>200</v>
       </c>
       <c r="S14" s="3" t="s">
         <v>3</v>
@@ -1150,8 +1169,11 @@
       <c r="V14" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W14" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1212,8 +1234,11 @@
       <c r="V15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1233,132 +1258,139 @@
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
-    </row>
-    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W16" s="3"/>
+    </row>
+    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>211000</v>
+      </c>
+      <c r="E17" s="3">
         <v>194100</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>186200</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>172300</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>127700</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>113200</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>117000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>110300</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>99400</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>94100</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>65700</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>77600</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>64000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>58100</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>97900</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>44100</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>29900</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>28400</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>26500</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>24100</v>
       </c>
     </row>
-    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>3300</v>
+      </c>
+      <c r="E18" s="3">
         <v>11300</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>8800</v>
-      </c>
-      <c r="F18" s="3">
-        <v>-100</v>
       </c>
       <c r="G18" s="3">
         <v>-100</v>
       </c>
       <c r="H18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="I18" s="3">
         <v>9100</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>11700</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>11800</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>900</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>4800</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-1100</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>3400</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>1100</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>3100</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>5500</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>3100</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-700</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-600</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>-300</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>-1800</v>
       </c>
     </row>
-    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1381,32 +1413,33 @@
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
-    </row>
-    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W19" s="3"/>
+    </row>
+    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>900</v>
+      </c>
+      <c r="E20" s="3">
         <v>300</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>100</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-100</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-300</v>
       </c>
-      <c r="H20" s="3">
-        <v>0</v>
-      </c>
       <c r="I20" s="3">
+        <v>0</v>
+      </c>
+      <c r="J20" s="3">
         <v>200</v>
       </c>
-      <c r="J20" s="3">
-        <v>0</v>
-      </c>
       <c r="K20" s="3">
         <v>0</v>
       </c>
@@ -1417,119 +1450,125 @@
         <v>0</v>
       </c>
       <c r="N20" s="3">
+        <v>0</v>
+      </c>
+      <c r="O20" s="3">
         <v>300</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-5600</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-11200</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-1200</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-600</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-1400</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-900</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-500</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>4600</v>
+      </c>
+      <c r="E21" s="3">
         <v>11900</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>9300</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>200</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-100</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>9400</v>
-      </c>
-      <c r="I21" s="3">
-        <v>12200</v>
       </c>
       <c r="J21" s="3">
         <v>12200</v>
       </c>
       <c r="K21" s="3">
+        <v>12200</v>
+      </c>
+      <c r="L21" s="3">
         <v>1400</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>5300</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-600</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>4300</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-3900</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-7600</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>5300</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>3100</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>-1600</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>-1000</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>-300</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>-1600</v>
       </c>
     </row>
-    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E22" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F22" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G22" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H22" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I22" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J22" s="3" t="s">
-        <v>3</v>
+      <c r="D22" s="3">
+        <v>0</v>
+      </c>
+      <c r="E22" s="3">
+        <v>0</v>
+      </c>
+      <c r="F22" s="3">
+        <v>0</v>
+      </c>
+      <c r="G22" s="3">
+        <v>0</v>
+      </c>
+      <c r="H22" s="3">
+        <v>0</v>
+      </c>
+      <c r="I22" s="3">
+        <v>0</v>
+      </c>
+      <c r="J22" s="3">
+        <v>0</v>
       </c>
       <c r="K22" s="3" t="s">
         <v>3</v>
@@ -1546,15 +1585,15 @@
       <c r="O22" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P22" s="3">
-        <v>0</v>
+      <c r="P22" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="Q22" s="3">
+        <v>0</v>
+      </c>
+      <c r="R22" s="3">
         <v>200</v>
       </c>
-      <c r="R22" s="3">
-        <v>0</v>
-      </c>
       <c r="S22" s="3">
         <v>0</v>
       </c>
@@ -1562,137 +1601,146 @@
         <v>0</v>
       </c>
       <c r="U22" s="3">
+        <v>0</v>
+      </c>
+      <c r="V22" s="3">
         <v>300</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>4100</v>
+      </c>
+      <c r="E23" s="3">
         <v>11500</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>8900</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-100</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-400</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>9100</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>11900</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>11800</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>1000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>4800</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-1100</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>3700</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-4500</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-8200</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>4100</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>2500</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-2100</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-1500</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-1100</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>-2100</v>
       </c>
     </row>
-    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>700</v>
+      </c>
+      <c r="E24" s="3">
         <v>-1700</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>100</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>-5100</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>-15500</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>-7700</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>-6800</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>-3400</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>-37900</v>
       </c>
-      <c r="L24" s="3">
-        <v>0</v>
-      </c>
       <c r="M24" s="3">
         <v>0</v>
       </c>
       <c r="N24" s="3">
+        <v>0</v>
+      </c>
+      <c r="O24" s="3">
         <v>100</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>-100</v>
       </c>
-      <c r="P24" s="3">
-        <v>0</v>
-      </c>
       <c r="Q24" s="3">
+        <v>0</v>
+      </c>
+      <c r="R24" s="3">
         <v>100</v>
       </c>
-      <c r="R24" s="3">
-        <v>0</v>
-      </c>
       <c r="S24" s="3">
+        <v>0</v>
+      </c>
+      <c r="T24" s="3">
         <v>-500</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>-400</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>-300</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1753,132 +1801,141 @@
       <c r="V25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>3400</v>
+      </c>
+      <c r="E26" s="3">
         <v>13200</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>8800</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>5000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>15100</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>16800</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>18700</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>15200</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>38900</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>4800</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-1100</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>3600</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-4400</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-8200</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>4000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>2500</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-1600</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-1100</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-800</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>-1600</v>
       </c>
     </row>
-    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>3400</v>
+      </c>
+      <c r="E27" s="3">
         <v>13200</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>8800</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>5000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>15100</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>16800</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>18700</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>15200</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>38900</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>4800</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-1100</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>3600</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-4400</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-8200</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>4400</v>
       </c>
-      <c r="R27" s="3">
-        <v>0</v>
-      </c>
       <c r="S27" s="3">
+        <v>0</v>
+      </c>
+      <c r="T27" s="3">
         <v>-1600</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-1100</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-1300</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>-7300</v>
       </c>
     </row>
-    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1939,8 +1996,11 @@
       <c r="V28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1971,14 +2031,14 @@
       <c r="L29" s="3">
         <v>0</v>
       </c>
-      <c r="M29" s="3" t="s">
-        <v>3</v>
+      <c r="M29" s="3">
+        <v>0</v>
       </c>
       <c r="N29" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O29" s="3">
-        <v>0</v>
+      <c r="O29" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="P29" s="3">
         <v>0</v>
@@ -1990,19 +2050,22 @@
         <v>0</v>
       </c>
       <c r="S29" s="3">
+        <v>0</v>
+      </c>
+      <c r="T29" s="3">
         <v>100</v>
       </c>
-      <c r="T29" s="3">
-        <v>0</v>
-      </c>
       <c r="U29" s="3">
         <v>0</v>
       </c>
       <c r="V29" s="3">
+        <v>0</v>
+      </c>
+      <c r="W29" s="3">
         <v>5700</v>
       </c>
     </row>
-    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2063,8 +2126,11 @@
       <c r="V30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2125,32 +2191,35 @@
       <c r="V31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-900</v>
+      </c>
+      <c r="E32" s="3">
         <v>-300</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-100</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>100</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>300</v>
       </c>
-      <c r="H32" s="3">
-        <v>0</v>
-      </c>
       <c r="I32" s="3">
+        <v>0</v>
+      </c>
+      <c r="J32" s="3">
         <v>-200</v>
       </c>
-      <c r="J32" s="3">
-        <v>0</v>
-      </c>
       <c r="K32" s="3">
         <v>0</v>
       </c>
@@ -2161,96 +2230,102 @@
         <v>0</v>
       </c>
       <c r="N32" s="3">
+        <v>0</v>
+      </c>
+      <c r="O32" s="3">
         <v>-300</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>5600</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>11200</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>1200</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>600</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>1400</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>900</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>500</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>3400</v>
+      </c>
+      <c r="E33" s="3">
         <v>13200</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>8800</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>5000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>15100</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>16800</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>18700</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>15200</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>38900</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>4800</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-1100</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>3600</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-4400</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-8200</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>4400</v>
       </c>
-      <c r="R33" s="3">
-        <v>0</v>
-      </c>
       <c r="S33" s="3">
+        <v>0</v>
+      </c>
+      <c r="T33" s="3">
         <v>-1600</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-1100</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-1300</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-1600</v>
       </c>
     </row>
-    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2311,137 +2386,146 @@
       <c r="V34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>3400</v>
+      </c>
+      <c r="E35" s="3">
         <v>13200</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>8800</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>5000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>15100</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>16800</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>18700</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>15200</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>38900</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>4800</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-1100</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>3600</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-4400</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-8200</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>4400</v>
       </c>
-      <c r="R35" s="3">
-        <v>0</v>
-      </c>
       <c r="S35" s="3">
+        <v>0</v>
+      </c>
+      <c r="T35" s="3">
         <v>-1600</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-1100</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-1300</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-1600</v>
       </c>
     </row>
-    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E38" s="2">
         <v>44834</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44742</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44651</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44561</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44469</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44377</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44286</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44196</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44104</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44012</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43921</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43830</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43738</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43646</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43555</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43465</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43373</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43281</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43190</v>
       </c>
     </row>
-    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2464,8 +2548,9 @@
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
-    </row>
-    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W39" s="3"/>
+    </row>
+    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2488,59 +2573,60 @@
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
-    </row>
-    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W40" s="3"/>
+    </row>
+    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>120100</v>
+      </c>
+      <c r="E41" s="3">
         <v>72500</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>54700</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>38800</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>91400</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>92200</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>48700</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>29800</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>70300</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>54000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>49400</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>91600</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>80400</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>7700</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>300</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>400</v>
       </c>
-      <c r="S41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T41" s="3" t="s">
         <v>3</v>
       </c>
@@ -2550,44 +2636,47 @@
       <c r="V41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>69200</v>
+      </c>
+      <c r="E42" s="3">
         <v>68500</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>67700</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>66900</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>28000</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>22100</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>45200</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>77100</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>39000</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>51000</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>42000</v>
       </c>
-      <c r="N42" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O42" s="3" t="s">
         <v>3</v>
       </c>
@@ -2600,8 +2689,8 @@
       <c r="R42" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="S42" s="3">
-        <v>0</v>
+      <c r="S42" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="T42" s="3">
         <v>0</v>
@@ -2612,59 +2701,62 @@
       <c r="V42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>240100</v>
+      </c>
+      <c r="E43" s="3">
         <v>258000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>229900</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>198100</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>134600</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>135200</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>140800</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>116700</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>75700</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>78300</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>65000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>65900</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>47100</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>44300</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>44200</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>40700</v>
       </c>
-      <c r="S43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T43" s="3" t="s">
         <v>3</v>
       </c>
@@ -2674,8 +2766,11 @@
       <c r="V43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2736,58 +2831,61 @@
       <c r="V44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>4500</v>
+      </c>
+      <c r="E45" s="3">
         <v>2800</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>4100</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>5200</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>4600</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>4900</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>3800</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>4200</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>5300</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>1300</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>3300</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>4400</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>5000</v>
-      </c>
-      <c r="P45" s="3">
-        <v>1300</v>
       </c>
       <c r="Q45" s="3">
         <v>1300</v>
       </c>
       <c r="R45" s="3">
-        <v>0</v>
-      </c>
-      <c r="S45" s="3" t="s">
-        <v>3</v>
+        <v>1300</v>
+      </c>
+      <c r="S45" s="3">
+        <v>0</v>
       </c>
       <c r="T45" s="3" t="s">
         <v>3</v>
@@ -2798,59 +2896,62 @@
       <c r="V45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>433900</v>
+      </c>
+      <c r="E46" s="3">
         <v>401900</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>356400</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>309000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>258500</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>254400</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>238500</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>227800</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>190200</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>184600</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>159700</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>161900</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>132400</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>53300</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>45800</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>41100</v>
       </c>
-      <c r="S46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2860,8 +2961,11 @@
       <c r="V46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2922,59 +3026,62 @@
       <c r="V47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>15300</v>
+      </c>
+      <c r="E48" s="3">
         <v>14300</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>13600</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>13400</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>12800</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>12700</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>12200</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>12000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>12100</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>3500</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>3600</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>3700</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>3100</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>1000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>700</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>800</v>
       </c>
-      <c r="S48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T48" s="3" t="s">
         <v>3</v>
       </c>
@@ -2984,59 +3091,62 @@
       <c r="V48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>12000</v>
+      </c>
+      <c r="E49" s="3">
         <v>12100</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>12200</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>12400</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>12500</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>12600</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>12700</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>12900</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>13100</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>13400</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>13600</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>13900</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>14300</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>14600</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>15000</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>15400</v>
       </c>
-      <c r="S49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T49" s="3" t="s">
         <v>3</v>
       </c>
@@ -3046,8 +3156,11 @@
       <c r="V49" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3108,8 +3221,11 @@
       <c r="V50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3170,37 +3286,40 @@
       <c r="V51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>81900</v>
+      </c>
+      <c r="E52" s="3">
         <v>82100</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>80600</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>80700</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>74200</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>56900</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>48700</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>41900</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>38500</v>
-      </c>
-      <c r="L52" s="3">
-        <v>600</v>
       </c>
       <c r="M52" s="3">
         <v>600</v>
@@ -3209,20 +3328,20 @@
         <v>600</v>
       </c>
       <c r="O52" s="3">
+        <v>600</v>
+      </c>
+      <c r="P52" s="3">
         <v>700</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>3600</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>1600</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>300</v>
       </c>
-      <c r="S52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T52" s="3" t="s">
         <v>3</v>
       </c>
@@ -3232,8 +3351,11 @@
       <c r="V52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3294,59 +3416,62 @@
       <c r="V53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>543000</v>
+      </c>
+      <c r="E54" s="3">
         <v>510400</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>462900</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>415500</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>358100</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>336700</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>312100</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>294600</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>253900</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>202100</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>177600</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>180100</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>150400</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>72600</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>63100</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>57500</v>
       </c>
-      <c r="S54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T54" s="3" t="s">
         <v>3</v>
       </c>
@@ -3356,8 +3481,11 @@
       <c r="V54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3380,8 +3508,9 @@
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
-    </row>
-    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W55" s="3"/>
+    </row>
+    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3404,59 +3533,60 @@
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
-    </row>
-    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W56" s="3"/>
+    </row>
+    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>109300</v>
+      </c>
+      <c r="E57" s="3">
         <v>104200</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>92700</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>84700</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>61400</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>55400</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>54700</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>57300</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>43500</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>42200</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>31900</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>39400</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>19400</v>
-      </c>
-      <c r="P57" s="3">
-        <v>23500</v>
       </c>
       <c r="Q57" s="3">
         <v>23500</v>
       </c>
       <c r="R57" s="3">
+        <v>23500</v>
+      </c>
+      <c r="S57" s="3">
         <v>19000</v>
       </c>
-      <c r="S57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T57" s="3" t="s">
         <v>3</v>
       </c>
@@ -3466,8 +3596,11 @@
       <c r="V57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3511,14 +3644,14 @@
         <v>0</v>
       </c>
       <c r="Q58" s="3">
+        <v>0</v>
+      </c>
+      <c r="R58" s="3">
         <v>3100</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>6600</v>
       </c>
-      <c r="S58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T58" s="3" t="s">
         <v>3</v>
       </c>
@@ -3528,59 +3661,62 @@
       <c r="V58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>50200</v>
+      </c>
+      <c r="E59" s="3">
         <v>52700</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>52200</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>44000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>37400</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>49100</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>44100</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>43700</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>34300</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>32000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>25700</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>19600</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>16800</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>34100</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>19700</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>17800</v>
       </c>
-      <c r="S59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T59" s="3" t="s">
         <v>3</v>
       </c>
@@ -3590,59 +3726,62 @@
       <c r="V59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>159500</v>
+      </c>
+      <c r="E60" s="3">
         <v>156900</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>144900</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>128700</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>98800</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>104500</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>98800</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>101000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>77800</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>74200</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>57700</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>59100</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>36200</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>57600</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>46400</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>43300</v>
       </c>
-      <c r="S60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T60" s="3" t="s">
         <v>3</v>
       </c>
@@ -3652,8 +3791,11 @@
       <c r="V60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3714,61 +3856,64 @@
       <c r="V61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>6500</v>
+      </c>
+      <c r="E62" s="3">
         <v>6700</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>7000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>7200</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>7400</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>8100</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>8700</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>9000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>9200</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>600</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>300</v>
       </c>
-      <c r="N62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O62" s="3" t="s">
         <v>3</v>
       </c>
       <c r="P62" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="Q62" s="3">
-        <v>0</v>
+      <c r="Q62" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="R62" s="3">
         <v>0</v>
       </c>
-      <c r="S62" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="T62" s="3">
-        <v>0</v>
+      <c r="S62" s="3">
+        <v>0</v>
+      </c>
+      <c r="T62" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="U62" s="3">
         <v>0</v>
@@ -3776,8 +3921,11 @@
       <c r="V62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3838,8 +3986,11 @@
       <c r="V63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3900,8 +4051,11 @@
       <c r="V64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3962,59 +4116,62 @@
       <c r="V65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>166000</v>
+      </c>
+      <c r="E66" s="3">
         <v>163600</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>151900</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>135900</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>106200</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>112600</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>107500</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>110000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>87000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>74800</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>58000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>59100</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>36200</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>57600</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>46400</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>43300</v>
       </c>
-      <c r="S66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T66" s="3" t="s">
         <v>3</v>
       </c>
@@ -4024,8 +4181,11 @@
       <c r="V66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4048,8 +4208,9 @@
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
-    </row>
-    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W67" s="3"/>
+    </row>
+    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4110,8 +4271,11 @@
       <c r="V68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4172,8 +4336,11 @@
       <c r="V69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4214,7 +4381,7 @@
         <v>0</v>
       </c>
       <c r="P70" s="3">
-        <v>106200</v>
+        <v>0</v>
       </c>
       <c r="Q70" s="3">
         <v>106200</v>
@@ -4223,7 +4390,7 @@
         <v>106200</v>
       </c>
       <c r="S70" s="3">
-        <v>0</v>
+        <v>106200</v>
       </c>
       <c r="T70" s="3">
         <v>0</v>
@@ -4234,8 +4401,11 @@
       <c r="V70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4296,59 +4466,62 @@
       <c r="V71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>27900</v>
+      </c>
+      <c r="E72" s="3">
         <v>24500</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>11300</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>2500</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-2400</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-17500</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-34300</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-53000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-68200</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-105900</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-111200</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-109400</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-113500</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-109100</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-100800</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-102300</v>
       </c>
-      <c r="S72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T72" s="3" t="s">
         <v>3</v>
       </c>
@@ -4358,8 +4531,11 @@
       <c r="V72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4420,8 +4596,11 @@
       <c r="V73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4482,8 +4661,11 @@
       <c r="V74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4544,59 +4726,62 @@
       <c r="V75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>377000</v>
+      </c>
+      <c r="E76" s="3">
         <v>346900</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>311000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>279600</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>251800</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>224100</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>204500</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>184600</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>166900</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>127300</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>119600</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>121100</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>114300</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>-91300</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>-89500</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>-92100</v>
       </c>
-      <c r="S76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T76" s="3" t="s">
         <v>3</v>
       </c>
@@ -4606,8 +4791,11 @@
       <c r="V76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4668,137 +4856,146 @@
       <c r="V77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E80" s="2">
         <v>44834</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44742</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44651</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44561</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44469</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44377</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44286</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44196</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44104</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44012</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43921</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43830</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43738</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43646</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43555</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43465</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43373</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43281</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43190</v>
       </c>
     </row>
-    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>3400</v>
+      </c>
+      <c r="E81" s="3">
         <v>13200</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>8800</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>5000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>15100</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>16800</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>18700</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>15200</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>38900</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>4800</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-1100</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>3600</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-4400</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-8200</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>4400</v>
       </c>
-      <c r="R81" s="3">
-        <v>0</v>
-      </c>
       <c r="S81" s="3">
+        <v>0</v>
+      </c>
+      <c r="T81" s="3">
         <v>-1600</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-1100</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-1300</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-1600</v>
       </c>
     </row>
-    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4821,8 +5018,9 @@
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
-    </row>
-    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W82" s="3"/>
+    </row>
+    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4836,7 +5034,7 @@
         <v>400</v>
       </c>
       <c r="G83" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="H83" s="3">
         <v>300</v>
@@ -4845,10 +5043,10 @@
         <v>300</v>
       </c>
       <c r="J83" s="3">
+        <v>300</v>
+      </c>
+      <c r="K83" s="3">
         <v>400</v>
-      </c>
-      <c r="K83" s="3">
-        <v>500</v>
       </c>
       <c r="L83" s="3">
         <v>500</v>
@@ -4866,10 +5064,10 @@
         <v>500</v>
       </c>
       <c r="Q83" s="3">
+        <v>500</v>
+      </c>
+      <c r="R83" s="3">
         <v>1100</v>
-      </c>
-      <c r="R83" s="3">
-        <v>500</v>
       </c>
       <c r="S83" s="3">
         <v>500</v>
@@ -4881,10 +5079,13 @@
         <v>500</v>
       </c>
       <c r="V83" s="3">
+        <v>500</v>
+      </c>
+      <c r="W83" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4945,8 +5146,11 @@
       <c r="V84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5007,8 +5211,11 @@
       <c r="V85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5069,8 +5276,11 @@
       <c r="V86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5131,8 +5341,11 @@
       <c r="V87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5193,70 +5406,76 @@
       <c r="V88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>51500</v>
+      </c>
+      <c r="E89" s="3">
         <v>20900</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>19200</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-11300</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>8800</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>24200</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-7500</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>500</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>6500</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>15300</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>2200</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>12100</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-5500</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>5900</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-1900</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-6200</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>4100</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-500</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>3100</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>-4300</v>
       </c>
     </row>
-    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5279,34 +5498,35 @@
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
-    </row>
-    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W90" s="3"/>
+    </row>
+    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-700</v>
+      </c>
+      <c r="E91" s="3">
         <v>-1200</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-500</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-800</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-600</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-700</v>
-      </c>
-      <c r="I91" s="3">
-        <v>-400</v>
       </c>
       <c r="J91" s="3">
         <v>-400</v>
       </c>
       <c r="K91" s="3">
-        <v>-100</v>
+        <v>-400</v>
       </c>
       <c r="L91" s="3">
         <v>-100</v>
@@ -5315,34 +5535,37 @@
         <v>-100</v>
       </c>
       <c r="N91" s="3">
+        <v>-100</v>
+      </c>
+      <c r="O91" s="3">
         <v>-700</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-2300</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-400</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-300</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-100</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-200</v>
       </c>
-      <c r="T91" s="3">
-        <v>0</v>
-      </c>
       <c r="U91" s="3">
+        <v>0</v>
+      </c>
+      <c r="V91" s="3">
         <v>-100</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5403,8 +5626,11 @@
       <c r="V92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5465,70 +5691,76 @@
       <c r="V93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="E94" s="3">
         <v>-1900</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-1300</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-39600</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-6300</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>22400</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>31200</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-38500</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>11900</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-9100</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-42100</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-700</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-2300</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-400</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-100</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>100</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-100</v>
       </c>
-      <c r="T94" s="3">
-        <v>0</v>
-      </c>
       <c r="U94" s="3">
+        <v>0</v>
+      </c>
+      <c r="V94" s="3">
         <v>-100</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>2200</v>
       </c>
     </row>
-    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5551,8 +5783,9 @@
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
-    </row>
-    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W95" s="3"/>
+    </row>
+    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5613,8 +5846,11 @@
       <c r="V96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5675,8 +5911,11 @@
       <c r="V97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5737,8 +5976,11 @@
       <c r="V98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5799,70 +6041,76 @@
       <c r="V99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-2800</v>
+      </c>
+      <c r="E100" s="3">
         <v>-1200</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-2100</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-1800</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-3300</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-3100</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-4800</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-2500</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-2100</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-1600</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-2400</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-200</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>80500</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>1900</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>2200</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>6300</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-4000</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>400</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-4200</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-900</v>
       </c>
     </row>
-    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5923,66 +6171,72 @@
       <c r="V101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>47600</v>
+      </c>
+      <c r="E102" s="3">
         <v>17800</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>15900</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-52600</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-800</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>43500</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>18900</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-40500</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>16300</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>4600</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-42200</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>11300</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>72700</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>7400</v>
-      </c>
-      <c r="Q102" s="3">
-        <v>200</v>
       </c>
       <c r="R102" s="3">
         <v>200</v>
       </c>
       <c r="S102" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="T102" s="3">
+        <v>0</v>
+      </c>
+      <c r="U102" s="3">
         <v>-200</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-1200</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-3100</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/PGNY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/PGNY_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="92">
   <si>
     <t>PGNY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:W102"/>
+  <dimension ref="A5:X102"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="O1" workbookViewId="0"/>
   </sheetViews>
@@ -665,295 +665,308 @@
     <col min="1" max="1" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E7" s="2">
         <v>44926</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44834</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44742</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44651</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44561</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44469</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44377</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44286</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44196</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44104</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44012</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43921</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43830</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43738</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43646</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43555</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43465</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43373</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43281</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43190</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>258400</v>
+      </c>
+      <c r="E8" s="3">
         <v>214300</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>205400</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>195000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>172200</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>127600</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>122300</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>128700</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>122100</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>100300</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>98900</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>64600</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>81000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>65100</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>61200</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>103400</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>47200</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>29200</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>27800</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>26200</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>22300</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>199800</v>
+      </c>
+      <c r="E9" s="3">
         <v>169800</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>159400</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>151100</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>139300</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>102400</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>93800</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>99000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>93200</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>79600</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>78100</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>52700</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>64400</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>53400</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>48900</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>81900</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>37200</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>23800</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>22800</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>21100</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>18300</v>
       </c>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>58600</v>
+      </c>
+      <c r="E10" s="3">
         <v>44500</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>46000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>43900</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>32900</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>25200</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>28500</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>29700</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>28900</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>20700</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>20800</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>12000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>16600</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>11700</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>12300</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>21500</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>10000</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>5400</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>5000</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>5100</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>4000</v>
       </c>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -977,8 +990,9 @@
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X11" s="3"/>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1042,8 +1056,11 @@
       <c r="W12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1107,8 +1124,11 @@
       <c r="W13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1136,29 +1156,29 @@
       <c r="K14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L14" s="3">
+      <c r="L14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M14" s="3">
         <v>900</v>
       </c>
-      <c r="M14" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N14" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P14" s="3">
+      <c r="P14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q14" s="3">
         <v>2000</v>
-      </c>
-      <c r="Q14" s="3">
-        <v>200</v>
       </c>
       <c r="R14" s="3">
         <v>200</v>
       </c>
-      <c r="S14" s="3" t="s">
-        <v>3</v>
+      <c r="S14" s="3">
+        <v>200</v>
       </c>
       <c r="T14" s="3" t="s">
         <v>3</v>
@@ -1172,8 +1192,11 @@
       <c r="W14" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X14" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1237,8 +1260,11 @@
       <c r="W15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1259,138 +1285,145 @@
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
-    </row>
-    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X16" s="3"/>
+    </row>
+    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>243400</v>
+      </c>
+      <c r="E17" s="3">
         <v>211000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>194100</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>186200</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>172300</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>127700</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>113200</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>117000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>110300</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>99400</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>94100</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>65700</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>77600</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>64000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>58100</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>97900</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>44100</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>29900</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>28400</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>26500</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>24100</v>
       </c>
     </row>
-    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>15000</v>
+      </c>
+      <c r="E18" s="3">
         <v>3300</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>11300</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>8800</v>
-      </c>
-      <c r="G18" s="3">
-        <v>-100</v>
       </c>
       <c r="H18" s="3">
         <v>-100</v>
       </c>
       <c r="I18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="J18" s="3">
         <v>9100</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>11700</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>11800</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>900</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>4800</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-1100</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>3400</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>1100</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>3100</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>5500</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>3100</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-700</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>-600</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>-300</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>-1800</v>
       </c>
     </row>
-    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1414,35 +1447,36 @@
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
-    </row>
-    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X19" s="3"/>
+    </row>
+    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E20" s="3">
         <v>900</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>300</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>100</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-100</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-300</v>
       </c>
-      <c r="I20" s="3">
-        <v>0</v>
-      </c>
       <c r="J20" s="3">
+        <v>0</v>
+      </c>
+      <c r="K20" s="3">
         <v>200</v>
       </c>
-      <c r="K20" s="3">
-        <v>0</v>
-      </c>
       <c r="L20" s="3">
         <v>0</v>
       </c>
@@ -1453,99 +1487,105 @@
         <v>0</v>
       </c>
       <c r="O20" s="3">
+        <v>0</v>
+      </c>
+      <c r="P20" s="3">
         <v>300</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-5600</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-11200</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-1200</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-600</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-1400</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-900</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>-500</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>16900</v>
+      </c>
+      <c r="E21" s="3">
         <v>4600</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>11900</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>9300</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>200</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-100</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>9400</v>
-      </c>
-      <c r="J21" s="3">
-        <v>12200</v>
       </c>
       <c r="K21" s="3">
         <v>12200</v>
       </c>
       <c r="L21" s="3">
+        <v>12200</v>
+      </c>
+      <c r="M21" s="3">
         <v>1400</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>5300</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-600</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>4300</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-3900</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-7600</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>5300</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>3100</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>-1600</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>-1000</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>-300</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>-1600</v>
       </c>
     </row>
-    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1570,8 +1610,8 @@
       <c r="J22" s="3">
         <v>0</v>
       </c>
-      <c r="K22" s="3" t="s">
-        <v>3</v>
+      <c r="K22" s="3">
+        <v>0</v>
       </c>
       <c r="L22" s="3" t="s">
         <v>3</v>
@@ -1588,15 +1628,15 @@
       <c r="P22" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="Q22" s="3">
-        <v>0</v>
+      <c r="Q22" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="R22" s="3">
+        <v>0</v>
+      </c>
+      <c r="S22" s="3">
         <v>200</v>
       </c>
-      <c r="S22" s="3">
-        <v>0</v>
-      </c>
       <c r="T22" s="3">
         <v>0</v>
       </c>
@@ -1604,143 +1644,152 @@
         <v>0</v>
       </c>
       <c r="V22" s="3">
+        <v>0</v>
+      </c>
+      <c r="W22" s="3">
         <v>300</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>16300</v>
+      </c>
+      <c r="E23" s="3">
         <v>4100</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>11500</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>8900</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-100</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-400</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>9100</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>11900</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>11800</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>1000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>4800</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-1100</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>3700</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-4500</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-8200</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>4100</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>2500</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-2100</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-1500</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>-1100</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>-2100</v>
       </c>
     </row>
-    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="E24" s="3">
         <v>700</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>-1700</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>100</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>-5100</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>-15500</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>-7700</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>-6800</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>-3400</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>-37900</v>
       </c>
-      <c r="M24" s="3">
-        <v>0</v>
-      </c>
       <c r="N24" s="3">
         <v>0</v>
       </c>
       <c r="O24" s="3">
+        <v>0</v>
+      </c>
+      <c r="P24" s="3">
         <v>100</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>-100</v>
       </c>
-      <c r="Q24" s="3">
-        <v>0</v>
-      </c>
       <c r="R24" s="3">
+        <v>0</v>
+      </c>
+      <c r="S24" s="3">
         <v>100</v>
       </c>
-      <c r="S24" s="3">
-        <v>0</v>
-      </c>
       <c r="T24" s="3">
+        <v>0</v>
+      </c>
+      <c r="U24" s="3">
         <v>-500</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>-400</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>-300</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1804,138 +1853,147 @@
       <c r="W25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>17700</v>
+      </c>
+      <c r="E26" s="3">
         <v>3400</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>13200</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>8800</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>5000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>15100</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>16800</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>18700</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>15200</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>38900</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>4800</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-1100</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>3600</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-4400</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-8200</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>4000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>2500</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-1600</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-1100</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>-800</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>-1600</v>
       </c>
     </row>
-    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>17700</v>
+      </c>
+      <c r="E27" s="3">
         <v>3400</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>13200</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>8800</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>5000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>15100</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>16800</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>18700</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>15200</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>38900</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>4800</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-1100</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>3600</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-4400</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-8200</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>4400</v>
       </c>
-      <c r="S27" s="3">
-        <v>0</v>
-      </c>
       <c r="T27" s="3">
+        <v>0</v>
+      </c>
+      <c r="U27" s="3">
         <v>-1600</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-1100</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>-1300</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>-7300</v>
       </c>
     </row>
-    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1999,8 +2057,11 @@
       <c r="W28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2034,14 +2095,14 @@
       <c r="M29" s="3">
         <v>0</v>
       </c>
-      <c r="N29" s="3" t="s">
-        <v>3</v>
+      <c r="N29" s="3">
+        <v>0</v>
       </c>
       <c r="O29" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P29" s="3">
-        <v>0</v>
+      <c r="P29" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="Q29" s="3">
         <v>0</v>
@@ -2053,19 +2114,22 @@
         <v>0</v>
       </c>
       <c r="T29" s="3">
+        <v>0</v>
+      </c>
+      <c r="U29" s="3">
         <v>100</v>
       </c>
-      <c r="U29" s="3">
-        <v>0</v>
-      </c>
       <c r="V29" s="3">
         <v>0</v>
       </c>
       <c r="W29" s="3">
+        <v>0</v>
+      </c>
+      <c r="X29" s="3">
         <v>5700</v>
       </c>
     </row>
-    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2129,8 +2193,11 @@
       <c r="W30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2194,35 +2261,38 @@
       <c r="W31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="E32" s="3">
         <v>-900</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-300</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-100</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>100</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>300</v>
       </c>
-      <c r="I32" s="3">
-        <v>0</v>
-      </c>
       <c r="J32" s="3">
+        <v>0</v>
+      </c>
+      <c r="K32" s="3">
         <v>-200</v>
       </c>
-      <c r="K32" s="3">
-        <v>0</v>
-      </c>
       <c r="L32" s="3">
         <v>0</v>
       </c>
@@ -2233,99 +2303,105 @@
         <v>0</v>
       </c>
       <c r="O32" s="3">
+        <v>0</v>
+      </c>
+      <c r="P32" s="3">
         <v>-300</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>5600</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>11200</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>1200</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>600</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>1400</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>900</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>500</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>17700</v>
+      </c>
+      <c r="E33" s="3">
         <v>3400</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>13200</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>8800</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>5000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>15100</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>16800</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>18700</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>15200</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>38900</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>4800</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-1100</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>3600</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-4400</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-8200</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>4400</v>
       </c>
-      <c r="S33" s="3">
-        <v>0</v>
-      </c>
       <c r="T33" s="3">
+        <v>0</v>
+      </c>
+      <c r="U33" s="3">
         <v>-1600</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-1100</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-1300</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>-1600</v>
       </c>
     </row>
-    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2389,143 +2465,152 @@
       <c r="W34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>17700</v>
+      </c>
+      <c r="E35" s="3">
         <v>3400</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>13200</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>8800</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>5000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>15100</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>16800</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>18700</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>15200</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>38900</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>4800</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-1100</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>3600</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-4400</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-8200</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>4400</v>
       </c>
-      <c r="S35" s="3">
-        <v>0</v>
-      </c>
       <c r="T35" s="3">
+        <v>0</v>
+      </c>
+      <c r="U35" s="3">
         <v>-1600</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-1100</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-1300</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>-1600</v>
       </c>
     </row>
-    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E38" s="2">
         <v>44926</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44834</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44742</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44651</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44561</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44469</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44377</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44286</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44196</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44104</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44012</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43921</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43830</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43738</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43646</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43555</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43465</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43373</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43281</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43190</v>
       </c>
     </row>
-    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2549,8 +2634,9 @@
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
-    </row>
-    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X39" s="3"/>
+    </row>
+    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2574,62 +2660,63 @@
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
-    </row>
-    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X40" s="3"/>
+    </row>
+    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>155300</v>
+      </c>
+      <c r="E41" s="3">
         <v>120100</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>72500</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>54700</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>38800</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>91400</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>92200</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>48700</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>29800</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>70300</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>54000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>49400</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>91600</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>80400</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>7700</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>300</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>400</v>
       </c>
-      <c r="T41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U41" s="3" t="s">
         <v>3</v>
       </c>
@@ -2639,47 +2726,50 @@
       <c r="W41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>52600</v>
+      </c>
+      <c r="E42" s="3">
         <v>69200</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>68500</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>67700</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>66900</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>28000</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>22100</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>45200</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>77100</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>39000</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>51000</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>42000</v>
       </c>
-      <c r="O42" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P42" s="3" t="s">
         <v>3</v>
       </c>
@@ -2692,8 +2782,8 @@
       <c r="S42" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="T42" s="3">
-        <v>0</v>
+      <c r="T42" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="U42" s="3">
         <v>0</v>
@@ -2704,62 +2794,65 @@
       <c r="W42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>313200</v>
+      </c>
+      <c r="E43" s="3">
         <v>240100</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>258000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>229900</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>198100</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>134600</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>135200</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>140800</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>116700</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>75700</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>78300</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>65000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>65900</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>47100</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>44300</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>44200</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>40700</v>
       </c>
-      <c r="T43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U43" s="3" t="s">
         <v>3</v>
       </c>
@@ -2769,8 +2862,11 @@
       <c r="W43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2834,61 +2930,64 @@
       <c r="W44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>5900</v>
+      </c>
+      <c r="E45" s="3">
         <v>4500</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>2800</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>4100</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>5200</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>4600</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>4900</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>3800</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>4200</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>5300</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>1300</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>3300</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>4400</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>5000</v>
-      </c>
-      <c r="Q45" s="3">
-        <v>1300</v>
       </c>
       <c r="R45" s="3">
         <v>1300</v>
       </c>
       <c r="S45" s="3">
-        <v>0</v>
-      </c>
-      <c r="T45" s="3" t="s">
-        <v>3</v>
+        <v>1300</v>
+      </c>
+      <c r="T45" s="3">
+        <v>0</v>
       </c>
       <c r="U45" s="3" t="s">
         <v>3</v>
@@ -2899,62 +2998,65 @@
       <c r="W45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>527100</v>
+      </c>
+      <c r="E46" s="3">
         <v>433900</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>401900</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>356400</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>309000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>258500</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>254400</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>238500</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>227800</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>190200</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>184600</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>159700</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>161900</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>132400</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>53300</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>45800</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>41100</v>
       </c>
-      <c r="T46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2964,8 +3066,11 @@
       <c r="W46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3029,62 +3134,65 @@
       <c r="W47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>27800</v>
+      </c>
+      <c r="E48" s="3">
         <v>15300</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>14300</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>13600</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>13400</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>12800</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>12700</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>12200</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>12000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>12100</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>3500</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>3600</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>3700</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>3100</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>1000</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>700</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>800</v>
       </c>
-      <c r="T48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U48" s="3" t="s">
         <v>3</v>
       </c>
@@ -3094,62 +3202,65 @@
       <c r="W48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>11900</v>
+      </c>
+      <c r="E49" s="3">
         <v>12000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>12100</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>12200</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>12400</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>12500</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>12600</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>12700</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>12900</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>13100</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>13400</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>13600</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>13900</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>14300</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>14600</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>15000</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>15400</v>
       </c>
-      <c r="T49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U49" s="3" t="s">
         <v>3</v>
       </c>
@@ -3159,8 +3270,11 @@
       <c r="W49" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3224,8 +3338,11 @@
       <c r="W50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3289,40 +3406,43 @@
       <c r="W51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>83000</v>
+      </c>
+      <c r="E52" s="3">
         <v>81900</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>82100</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>80600</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>80700</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>74200</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>56900</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>48700</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>41900</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>38500</v>
-      </c>
-      <c r="M52" s="3">
-        <v>600</v>
       </c>
       <c r="N52" s="3">
         <v>600</v>
@@ -3331,20 +3451,20 @@
         <v>600</v>
       </c>
       <c r="P52" s="3">
+        <v>600</v>
+      </c>
+      <c r="Q52" s="3">
         <v>700</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>3600</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>1600</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>300</v>
       </c>
-      <c r="T52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U52" s="3" t="s">
         <v>3</v>
       </c>
@@ -3354,8 +3474,11 @@
       <c r="W52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3419,62 +3542,65 @@
       <c r="W53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>649700</v>
+      </c>
+      <c r="E54" s="3">
         <v>543000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>510400</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>462900</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>415500</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>358100</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>336700</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>312100</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>294600</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>253900</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>202100</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>177600</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>180100</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>150400</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>72600</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>63100</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>57500</v>
       </c>
-      <c r="T54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U54" s="3" t="s">
         <v>3</v>
       </c>
@@ -3484,8 +3610,11 @@
       <c r="W54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3509,8 +3638,9 @@
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
-    </row>
-    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X55" s="3"/>
+    </row>
+    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3534,62 +3664,63 @@
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
-    </row>
-    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X56" s="3"/>
+    </row>
+    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>145600</v>
+      </c>
+      <c r="E57" s="3">
         <v>109300</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>104200</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>92700</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>84700</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>61400</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>55400</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>54700</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>57300</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>43500</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>42200</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>31900</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>39400</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>19400</v>
-      </c>
-      <c r="Q57" s="3">
-        <v>23500</v>
       </c>
       <c r="R57" s="3">
         <v>23500</v>
       </c>
       <c r="S57" s="3">
+        <v>23500</v>
+      </c>
+      <c r="T57" s="3">
         <v>19000</v>
       </c>
-      <c r="T57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U57" s="3" t="s">
         <v>3</v>
       </c>
@@ -3599,8 +3730,11 @@
       <c r="W57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3647,14 +3781,14 @@
         <v>0</v>
       </c>
       <c r="R58" s="3">
+        <v>0</v>
+      </c>
+      <c r="S58" s="3">
         <v>3100</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>6600</v>
       </c>
-      <c r="T58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U58" s="3" t="s">
         <v>3</v>
       </c>
@@ -3664,62 +3798,65 @@
       <c r="W58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>61200</v>
+      </c>
+      <c r="E59" s="3">
         <v>50200</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>52700</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>52200</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>44000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>37400</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>49100</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>44100</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>43700</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>34300</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>32000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>25700</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>19600</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>16800</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>34100</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>19700</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>17800</v>
       </c>
-      <c r="T59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U59" s="3" t="s">
         <v>3</v>
       </c>
@@ -3729,62 +3866,65 @@
       <c r="W59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>206900</v>
+      </c>
+      <c r="E60" s="3">
         <v>159500</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>156900</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>144900</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>128700</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>98800</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>104500</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>98800</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>101000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>77800</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>74200</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>57700</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>59100</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>36200</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>57600</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>46400</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>43300</v>
       </c>
-      <c r="T60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U60" s="3" t="s">
         <v>3</v>
       </c>
@@ -3794,8 +3934,11 @@
       <c r="W60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3859,64 +4002,67 @@
       <c r="W61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>18500</v>
+      </c>
+      <c r="E62" s="3">
         <v>6500</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>6700</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>7000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>7200</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>7400</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>8100</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>8700</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>9000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>9200</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>600</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>300</v>
       </c>
-      <c r="O62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P62" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Q62" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="R62" s="3">
-        <v>0</v>
+      <c r="R62" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="S62" s="3">
         <v>0</v>
       </c>
-      <c r="T62" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="U62" s="3">
-        <v>0</v>
+      <c r="T62" s="3">
+        <v>0</v>
+      </c>
+      <c r="U62" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="V62" s="3">
         <v>0</v>
@@ -3924,8 +4070,11 @@
       <c r="W62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3989,8 +4138,11 @@
       <c r="W63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4054,8 +4206,11 @@
       <c r="W64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4119,62 +4274,65 @@
       <c r="W65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>225300</v>
+      </c>
+      <c r="E66" s="3">
         <v>166000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>163600</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>151900</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>135900</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>106200</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>112600</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>107500</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>110000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>87000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>74800</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>58000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>59100</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>36200</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>57600</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>46400</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>43300</v>
       </c>
-      <c r="T66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U66" s="3" t="s">
         <v>3</v>
       </c>
@@ -4184,8 +4342,11 @@
       <c r="W66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4209,8 +4370,9 @@
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
-    </row>
-    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X67" s="3"/>
+    </row>
+    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4274,8 +4436,11 @@
       <c r="W68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4339,8 +4504,11 @@
       <c r="W69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4384,7 +4552,7 @@
         <v>0</v>
       </c>
       <c r="Q70" s="3">
-        <v>106200</v>
+        <v>0</v>
       </c>
       <c r="R70" s="3">
         <v>106200</v>
@@ -4393,7 +4561,7 @@
         <v>106200</v>
       </c>
       <c r="T70" s="3">
-        <v>0</v>
+        <v>106200</v>
       </c>
       <c r="U70" s="3">
         <v>0</v>
@@ -4404,8 +4572,11 @@
       <c r="W70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4469,62 +4640,65 @@
       <c r="W71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>45600</v>
+      </c>
+      <c r="E72" s="3">
         <v>27900</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>24500</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>11300</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>2500</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-2400</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-17500</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-34300</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-53000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-68200</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-105900</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-111200</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-109400</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-113500</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-109100</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-100800</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-102300</v>
       </c>
-      <c r="T72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U72" s="3" t="s">
         <v>3</v>
       </c>
@@ -4534,8 +4708,11 @@
       <c r="W72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4599,8 +4776,11 @@
       <c r="W73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4664,8 +4844,11 @@
       <c r="W74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4729,62 +4912,65 @@
       <c r="W75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>424400</v>
+      </c>
+      <c r="E76" s="3">
         <v>377000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>346900</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>311000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>279600</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>251800</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>224100</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>204500</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>184600</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>166900</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>127300</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>119600</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>121100</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>114300</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>-91300</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>-89500</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>-92100</v>
       </c>
-      <c r="T76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U76" s="3" t="s">
         <v>3</v>
       </c>
@@ -4794,8 +4980,11 @@
       <c r="W76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4859,143 +5048,152 @@
       <c r="W77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E80" s="2">
         <v>44926</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44834</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44742</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44651</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44561</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44469</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44377</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44286</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44196</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44104</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44012</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43921</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43830</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43738</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43646</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43555</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43465</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43373</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43281</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43190</v>
       </c>
     </row>
-    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>17700</v>
+      </c>
+      <c r="E81" s="3">
         <v>3400</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>13200</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>8800</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>5000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>15100</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>16800</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>18700</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>15200</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>38900</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>4800</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-1100</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>3600</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-4400</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-8200</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>4400</v>
       </c>
-      <c r="S81" s="3">
-        <v>0</v>
-      </c>
       <c r="T81" s="3">
+        <v>0</v>
+      </c>
+      <c r="U81" s="3">
         <v>-1600</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-1100</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-1300</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>-1600</v>
       </c>
     </row>
-    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5019,13 +5217,14 @@
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
-    </row>
-    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X82" s="3"/>
+    </row>
+    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="E83" s="3">
         <v>400</v>
@@ -5037,7 +5236,7 @@
         <v>400</v>
       </c>
       <c r="H83" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="I83" s="3">
         <v>300</v>
@@ -5046,10 +5245,10 @@
         <v>300</v>
       </c>
       <c r="K83" s="3">
+        <v>300</v>
+      </c>
+      <c r="L83" s="3">
         <v>400</v>
-      </c>
-      <c r="L83" s="3">
-        <v>500</v>
       </c>
       <c r="M83" s="3">
         <v>500</v>
@@ -5067,10 +5266,10 @@
         <v>500</v>
       </c>
       <c r="R83" s="3">
+        <v>500</v>
+      </c>
+      <c r="S83" s="3">
         <v>1100</v>
-      </c>
-      <c r="S83" s="3">
-        <v>500</v>
       </c>
       <c r="T83" s="3">
         <v>500</v>
@@ -5082,10 +5281,13 @@
         <v>500</v>
       </c>
       <c r="W83" s="3">
+        <v>500</v>
+      </c>
+      <c r="X83" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5149,8 +5351,11 @@
       <c r="W84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5214,8 +5419,11 @@
       <c r="W85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5279,8 +5487,11 @@
       <c r="W86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5344,8 +5555,11 @@
       <c r="W87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5409,73 +5623,79 @@
       <c r="W88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>21000</v>
+      </c>
+      <c r="E89" s="3">
         <v>51500</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>20900</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>19200</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-11300</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>8800</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>24200</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-7500</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>500</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>6500</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>15300</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>2200</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>12100</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-5500</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>5900</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-1900</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-6200</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>4100</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>-500</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>3100</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>-4300</v>
       </c>
     </row>
-    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5499,37 +5719,38 @@
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
-    </row>
-    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X90" s="3"/>
+    </row>
+    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="E91" s="3">
         <v>-700</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-1200</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-500</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-800</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-600</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-700</v>
-      </c>
-      <c r="J91" s="3">
-        <v>-400</v>
       </c>
       <c r="K91" s="3">
         <v>-400</v>
       </c>
       <c r="L91" s="3">
-        <v>-100</v>
+        <v>-400</v>
       </c>
       <c r="M91" s="3">
         <v>-100</v>
@@ -5538,34 +5759,37 @@
         <v>-100</v>
       </c>
       <c r="O91" s="3">
+        <v>-100</v>
+      </c>
+      <c r="P91" s="3">
         <v>-700</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-2300</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-400</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-300</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-100</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-200</v>
       </c>
-      <c r="U91" s="3">
-        <v>0</v>
-      </c>
       <c r="V91" s="3">
+        <v>0</v>
+      </c>
+      <c r="W91" s="3">
         <v>-100</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5629,8 +5853,11 @@
       <c r="W92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5694,73 +5921,79 @@
       <c r="W93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>16100</v>
+      </c>
+      <c r="E94" s="3">
         <v>-1200</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-1900</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-1300</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-39600</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-6300</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>22400</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>31200</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-38500</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>11900</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-9100</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-42100</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-700</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-2300</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-400</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-100</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>100</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-100</v>
       </c>
-      <c r="U94" s="3">
-        <v>0</v>
-      </c>
       <c r="V94" s="3">
+        <v>0</v>
+      </c>
+      <c r="W94" s="3">
         <v>-100</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>2200</v>
       </c>
     </row>
-    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5784,8 +6017,9 @@
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
-    </row>
-    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X95" s="3"/>
+    </row>
+    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5849,8 +6083,11 @@
       <c r="W96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5914,8 +6151,11 @@
       <c r="W97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5979,8 +6219,11 @@
       <c r="W98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6044,73 +6287,79 @@
       <c r="W99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="E100" s="3">
         <v>-2800</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-1200</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-2100</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-1800</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-3300</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-3100</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-4800</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-2500</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-2100</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-1600</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-2400</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-200</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>80500</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>1900</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>2200</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>6300</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-4000</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>400</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-4200</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-900</v>
       </c>
     </row>
-    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6174,69 +6423,75 @@
       <c r="W101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>35200</v>
+      </c>
+      <c r="E102" s="3">
         <v>47600</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>17800</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>15900</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-52600</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-800</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>43500</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>18900</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-40500</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>16300</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>4600</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-42200</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>11300</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>72700</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>7400</v>
-      </c>
-      <c r="R102" s="3">
-        <v>200</v>
       </c>
       <c r="S102" s="3">
         <v>200</v>
       </c>
       <c r="T102" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="U102" s="3">
+        <v>0</v>
+      </c>
+      <c r="V102" s="3">
         <v>-200</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-1200</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-3100</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/PGNY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/PGNY_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="92">
   <si>
     <t>PGNY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:X102"/>
+  <dimension ref="A5:Y102"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="O1" workbookViewId="0"/>
   </sheetViews>
@@ -665,308 +665,321 @@
     <col min="1" max="1" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E7" s="2">
         <v>45016</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44926</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44834</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44742</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44651</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44561</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44469</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44377</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44286</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44196</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44104</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>44012</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43921</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43830</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43738</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43646</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43555</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43465</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43373</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43281</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43190</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>279400</v>
+      </c>
+      <c r="E8" s="3">
         <v>258400</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>214300</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>205400</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>195000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>172200</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>127600</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>122300</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>128700</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>122100</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>100300</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>98900</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>64600</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>81000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>65100</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>61200</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>103400</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>47200</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>29200</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>27800</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>26200</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>22300</v>
       </c>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>218700</v>
+      </c>
+      <c r="E9" s="3">
         <v>199800</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>169800</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>159400</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>151100</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>139300</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>102400</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>93800</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>99000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>93200</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>79600</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>78100</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>52700</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>64400</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>53400</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>48900</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>81900</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>37200</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>23800</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>22800</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>21100</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>18300</v>
       </c>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>60700</v>
+      </c>
+      <c r="E10" s="3">
         <v>58600</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>44500</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>46000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>43900</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>32900</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>25200</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>28500</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>29700</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>28900</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>20700</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>20800</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>12000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>16600</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>11700</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>12300</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>21500</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>10000</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>5400</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>5000</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>5100</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>4000</v>
       </c>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -991,8 +1004,9 @@
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
-    </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y11" s="3"/>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1059,8 +1073,11 @@
       <c r="X12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1127,8 +1144,11 @@
       <c r="X13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1159,29 +1179,29 @@
       <c r="L14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M14" s="3">
+      <c r="M14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N14" s="3">
         <v>900</v>
       </c>
-      <c r="N14" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O14" s="3" t="s">
         <v>3</v>
       </c>
       <c r="P14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="Q14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R14" s="3">
         <v>2000</v>
-      </c>
-      <c r="R14" s="3">
-        <v>200</v>
       </c>
       <c r="S14" s="3">
         <v>200</v>
       </c>
-      <c r="T14" s="3" t="s">
-        <v>3</v>
+      <c r="T14" s="3">
+        <v>200</v>
       </c>
       <c r="U14" s="3" t="s">
         <v>3</v>
@@ -1195,8 +1215,11 @@
       <c r="X14" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y14" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1263,8 +1286,11 @@
       <c r="X15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1286,144 +1312,151 @@
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
-    </row>
-    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y16" s="3"/>
+    </row>
+    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>264200</v>
+      </c>
+      <c r="E17" s="3">
         <v>243400</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>211000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>194100</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>186200</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>172300</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>127700</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>113200</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>117000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>110300</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>99400</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>94100</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>65700</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>77600</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>64000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>58100</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>97900</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>44100</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>29900</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>28400</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>26500</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>24100</v>
       </c>
     </row>
-    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>15200</v>
+      </c>
+      <c r="E18" s="3">
         <v>15000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>3300</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>11300</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>8800</v>
-      </c>
-      <c r="H18" s="3">
-        <v>-100</v>
       </c>
       <c r="I18" s="3">
         <v>-100</v>
       </c>
       <c r="J18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="K18" s="3">
         <v>9100</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>11700</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>11800</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>900</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>4800</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-1100</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>3400</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>1100</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>3100</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>5500</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>3100</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>-700</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>-600</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>-300</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>-1800</v>
       </c>
     </row>
-    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1448,38 +1481,39 @@
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
-    </row>
-    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y19" s="3"/>
+    </row>
+    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E20" s="3">
         <v>1300</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>900</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>300</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>100</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-100</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-300</v>
       </c>
-      <c r="J20" s="3">
-        <v>0</v>
-      </c>
       <c r="K20" s="3">
+        <v>0</v>
+      </c>
+      <c r="L20" s="3">
         <v>200</v>
       </c>
-      <c r="L20" s="3">
-        <v>0</v>
-      </c>
       <c r="M20" s="3">
         <v>0</v>
       </c>
@@ -1490,102 +1524,108 @@
         <v>0</v>
       </c>
       <c r="P20" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="3">
         <v>300</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-5600</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-11200</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-1200</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-600</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-1400</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>-900</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>-500</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>17700</v>
+      </c>
+      <c r="E21" s="3">
         <v>16900</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>4600</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>11900</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>9300</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>200</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-100</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>9400</v>
-      </c>
-      <c r="K21" s="3">
-        <v>12200</v>
       </c>
       <c r="L21" s="3">
         <v>12200</v>
       </c>
       <c r="M21" s="3">
+        <v>12200</v>
+      </c>
+      <c r="N21" s="3">
         <v>1400</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>5300</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-600</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>4300</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-3900</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-7600</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>5300</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>3100</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>-1600</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>-1000</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>-300</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>-1600</v>
       </c>
     </row>
-    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1613,8 +1653,8 @@
       <c r="K22" s="3">
         <v>0</v>
       </c>
-      <c r="L22" s="3" t="s">
-        <v>3</v>
+      <c r="L22" s="3">
+        <v>0</v>
       </c>
       <c r="M22" s="3" t="s">
         <v>3</v>
@@ -1631,15 +1671,15 @@
       <c r="Q22" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="R22" s="3">
-        <v>0</v>
+      <c r="R22" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="S22" s="3">
+        <v>0</v>
+      </c>
+      <c r="T22" s="3">
         <v>200</v>
       </c>
-      <c r="T22" s="3">
-        <v>0</v>
-      </c>
       <c r="U22" s="3">
         <v>0</v>
       </c>
@@ -1647,149 +1687,158 @@
         <v>0</v>
       </c>
       <c r="W22" s="3">
+        <v>0</v>
+      </c>
+      <c r="X22" s="3">
         <v>300</v>
       </c>
-      <c r="X22" s="3">
+      <c r="Y22" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>17200</v>
+      </c>
+      <c r="E23" s="3">
         <v>16300</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>4100</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>11500</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>8900</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-100</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-400</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>9100</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>11900</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>11800</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>1000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>4800</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-1100</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>3700</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-4500</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-8200</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>4100</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>2500</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-2100</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>-1500</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>-1100</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>-2100</v>
       </c>
     </row>
-    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>2200</v>
+      </c>
+      <c r="E24" s="3">
         <v>-1300</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>700</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>-1700</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>100</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>-5100</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>-15500</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>-7700</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>-6800</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>-3400</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>-37900</v>
       </c>
-      <c r="N24" s="3">
-        <v>0</v>
-      </c>
       <c r="O24" s="3">
         <v>0</v>
       </c>
       <c r="P24" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q24" s="3">
         <v>100</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>-100</v>
       </c>
-      <c r="R24" s="3">
-        <v>0</v>
-      </c>
       <c r="S24" s="3">
+        <v>0</v>
+      </c>
+      <c r="T24" s="3">
         <v>100</v>
       </c>
-      <c r="T24" s="3">
-        <v>0</v>
-      </c>
       <c r="U24" s="3">
+        <v>0</v>
+      </c>
+      <c r="V24" s="3">
         <v>-500</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>-400</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>-300</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1856,144 +1905,153 @@
       <c r="X25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>15000</v>
+      </c>
+      <c r="E26" s="3">
         <v>17700</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>3400</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>13200</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>8800</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>5000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>15100</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>16800</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>18700</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>15200</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>38900</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>4800</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-1100</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>3600</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-4400</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-8200</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>4000</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>2500</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-1600</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>-1100</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>-800</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>-1600</v>
       </c>
     </row>
-    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>15000</v>
+      </c>
+      <c r="E27" s="3">
         <v>17700</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>3400</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>13200</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>8800</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>5000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>15100</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>16800</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>18700</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>15200</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>38900</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>4800</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-1100</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>3600</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-4400</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-8200</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>4400</v>
       </c>
-      <c r="T27" s="3">
-        <v>0</v>
-      </c>
       <c r="U27" s="3">
+        <v>0</v>
+      </c>
+      <c r="V27" s="3">
         <v>-1600</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>-1100</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>-1300</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>-7300</v>
       </c>
     </row>
-    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2060,8 +2118,11 @@
       <c r="X28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2098,14 +2159,14 @@
       <c r="N29" s="3">
         <v>0</v>
       </c>
-      <c r="O29" s="3" t="s">
-        <v>3</v>
+      <c r="O29" s="3">
+        <v>0</v>
       </c>
       <c r="P29" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="Q29" s="3">
-        <v>0</v>
+      <c r="Q29" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="R29" s="3">
         <v>0</v>
@@ -2117,19 +2178,22 @@
         <v>0</v>
       </c>
       <c r="U29" s="3">
+        <v>0</v>
+      </c>
+      <c r="V29" s="3">
         <v>100</v>
       </c>
-      <c r="V29" s="3">
-        <v>0</v>
-      </c>
       <c r="W29" s="3">
         <v>0</v>
       </c>
       <c r="X29" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y29" s="3">
         <v>5700</v>
       </c>
     </row>
-    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2196,8 +2260,11 @@
       <c r="X30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2264,38 +2331,41 @@
       <c r="X31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="E32" s="3">
         <v>-1300</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-900</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-300</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-100</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>100</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>300</v>
       </c>
-      <c r="J32" s="3">
-        <v>0</v>
-      </c>
       <c r="K32" s="3">
+        <v>0</v>
+      </c>
+      <c r="L32" s="3">
         <v>-200</v>
       </c>
-      <c r="L32" s="3">
-        <v>0</v>
-      </c>
       <c r="M32" s="3">
         <v>0</v>
       </c>
@@ -2306,102 +2376,108 @@
         <v>0</v>
       </c>
       <c r="P32" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q32" s="3">
         <v>-300</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>5600</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>11200</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>1200</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>600</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>1400</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>900</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>500</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>15000</v>
+      </c>
+      <c r="E33" s="3">
         <v>17700</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>3400</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>13200</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>8800</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>5000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>15100</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>16800</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>18700</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>15200</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>38900</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>4800</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-1100</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>3600</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-4400</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-8200</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>4400</v>
       </c>
-      <c r="T33" s="3">
-        <v>0</v>
-      </c>
       <c r="U33" s="3">
+        <v>0</v>
+      </c>
+      <c r="V33" s="3">
         <v>-1600</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-1100</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>-1300</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>-1600</v>
       </c>
     </row>
-    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2468,149 +2544,158 @@
       <c r="X34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>15000</v>
+      </c>
+      <c r="E35" s="3">
         <v>17700</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>3400</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>13200</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>8800</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>5000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>15100</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>16800</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>18700</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>15200</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>38900</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>4800</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-1100</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>3600</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-4400</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-8200</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>4400</v>
       </c>
-      <c r="T35" s="3">
-        <v>0</v>
-      </c>
       <c r="U35" s="3">
+        <v>0</v>
+      </c>
+      <c r="V35" s="3">
         <v>-1600</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-1100</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>-1300</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>-1600</v>
       </c>
     </row>
-    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E38" s="2">
         <v>45016</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44926</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44834</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44742</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44651</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44561</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44469</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44377</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44286</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44196</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44104</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>44012</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43921</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43830</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43738</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43646</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43555</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43465</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43373</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43281</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43190</v>
       </c>
     </row>
-    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2635,8 +2720,9 @@
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
-    </row>
-    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y39" s="3"/>
+    </row>
+    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2661,65 +2747,66 @@
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
-    </row>
-    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y40" s="3"/>
+    </row>
+    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>170600</v>
+      </c>
+      <c r="E41" s="3">
         <v>155300</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>120100</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>72500</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>54700</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>38800</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>91400</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>92200</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>48700</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>29800</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>70300</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>54000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>49400</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>91600</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>80400</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>7700</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>300</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>400</v>
       </c>
-      <c r="U41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V41" s="3" t="s">
         <v>3</v>
       </c>
@@ -2729,50 +2816,53 @@
       <c r="X41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>111900</v>
+      </c>
+      <c r="E42" s="3">
         <v>52600</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>69200</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>68500</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>67700</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>66900</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>28000</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>22100</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>45200</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>77100</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>39000</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>51000</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>42000</v>
       </c>
-      <c r="P42" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q42" s="3" t="s">
         <v>3</v>
       </c>
@@ -2785,8 +2875,8 @@
       <c r="T42" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="U42" s="3">
-        <v>0</v>
+      <c r="U42" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="V42" s="3">
         <v>0</v>
@@ -2797,65 +2887,68 @@
       <c r="X42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>265000</v>
+      </c>
+      <c r="E43" s="3">
         <v>313200</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>240100</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>258000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>229900</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>198100</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>134600</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>135200</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>140800</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>116700</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>75700</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>78300</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>65000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>65900</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>47100</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>44300</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>44200</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>40700</v>
       </c>
-      <c r="U43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V43" s="3" t="s">
         <v>3</v>
       </c>
@@ -2865,8 +2958,11 @@
       <c r="X43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2933,64 +3029,67 @@
       <c r="X44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>13700</v>
+      </c>
+      <c r="E45" s="3">
         <v>5900</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>4500</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>2800</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>4100</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>5200</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>4600</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>4900</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>3800</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>4200</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>5300</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>1300</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>3300</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>4400</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>5000</v>
-      </c>
-      <c r="R45" s="3">
-        <v>1300</v>
       </c>
       <c r="S45" s="3">
         <v>1300</v>
       </c>
       <c r="T45" s="3">
-        <v>0</v>
-      </c>
-      <c r="U45" s="3" t="s">
-        <v>3</v>
+        <v>1300</v>
+      </c>
+      <c r="U45" s="3">
+        <v>0</v>
       </c>
       <c r="V45" s="3" t="s">
         <v>3</v>
@@ -3001,65 +3100,68 @@
       <c r="X45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>561100</v>
+      </c>
+      <c r="E46" s="3">
         <v>527100</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>433900</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>401900</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>356400</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>309000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>258500</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>254400</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>238500</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>227800</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>190200</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>184600</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>159700</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>161900</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>132400</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>53300</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>45800</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>41100</v>
       </c>
-      <c r="U46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V46" s="3" t="s">
         <v>3</v>
       </c>
@@ -3069,8 +3171,11 @@
       <c r="X46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3137,65 +3242,68 @@
       <c r="X47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>27900</v>
+      </c>
+      <c r="E48" s="3">
         <v>27800</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>15300</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>14300</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>13600</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>13400</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>12800</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>12700</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>12200</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>12000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>12100</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>3500</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>3600</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>3700</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>3100</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>1000</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>700</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>800</v>
       </c>
-      <c r="U48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V48" s="3" t="s">
         <v>3</v>
       </c>
@@ -3205,8 +3313,11 @@
       <c r="X48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3214,56 +3325,56 @@
         <v>11900</v>
       </c>
       <c r="E49" s="3">
+        <v>11900</v>
+      </c>
+      <c r="F49" s="3">
         <v>12000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>12100</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>12200</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>12400</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>12500</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>12600</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>12700</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>12900</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>13100</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>13400</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>13600</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>13900</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>14300</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>14600</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>15000</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>15400</v>
       </c>
-      <c r="U49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V49" s="3" t="s">
         <v>3</v>
       </c>
@@ -3273,8 +3384,11 @@
       <c r="X49" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3341,8 +3455,11 @@
       <c r="X50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3409,43 +3526,46 @@
       <c r="X51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>80600</v>
+      </c>
+      <c r="E52" s="3">
         <v>83000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>81900</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>82100</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>80600</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>80700</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>74200</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>56900</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>48700</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>41900</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>38500</v>
-      </c>
-      <c r="N52" s="3">
-        <v>600</v>
       </c>
       <c r="O52" s="3">
         <v>600</v>
@@ -3454,20 +3574,20 @@
         <v>600</v>
       </c>
       <c r="Q52" s="3">
+        <v>600</v>
+      </c>
+      <c r="R52" s="3">
         <v>700</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>3600</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>1600</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>300</v>
       </c>
-      <c r="U52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V52" s="3" t="s">
         <v>3</v>
       </c>
@@ -3477,8 +3597,11 @@
       <c r="X52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3545,65 +3668,68 @@
       <c r="X53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>681500</v>
+      </c>
+      <c r="E54" s="3">
         <v>649700</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>543000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>510400</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>462900</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>415500</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>358100</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>336700</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>312100</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>294600</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>253900</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>202100</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>177600</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>180100</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>150400</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>72600</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>63100</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>57500</v>
       </c>
-      <c r="U54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V54" s="3" t="s">
         <v>3</v>
       </c>
@@ -3613,8 +3739,11 @@
       <c r="X54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3639,8 +3768,9 @@
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
-    </row>
-    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y55" s="3"/>
+    </row>
+    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3665,65 +3795,66 @@
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
-    </row>
-    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y56" s="3"/>
+    </row>
+    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>130200</v>
+      </c>
+      <c r="E57" s="3">
         <v>145600</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>109300</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>104200</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>92700</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>84700</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>61400</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>55400</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>54700</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>57300</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>43500</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>42200</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>31900</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>39400</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>19400</v>
-      </c>
-      <c r="R57" s="3">
-        <v>23500</v>
       </c>
       <c r="S57" s="3">
         <v>23500</v>
       </c>
       <c r="T57" s="3">
+        <v>23500</v>
+      </c>
+      <c r="U57" s="3">
         <v>19000</v>
       </c>
-      <c r="U57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V57" s="3" t="s">
         <v>3</v>
       </c>
@@ -3733,8 +3864,11 @@
       <c r="X57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3784,14 +3918,14 @@
         <v>0</v>
       </c>
       <c r="S58" s="3">
+        <v>0</v>
+      </c>
+      <c r="T58" s="3">
         <v>3100</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>6600</v>
       </c>
-      <c r="U58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V58" s="3" t="s">
         <v>3</v>
       </c>
@@ -3801,65 +3935,68 @@
       <c r="X58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>63700</v>
+      </c>
+      <c r="E59" s="3">
         <v>61200</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>50200</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>52700</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>52200</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>44000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>37400</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>49100</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>44100</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>43700</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>34300</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>32000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>25700</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>19600</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>16800</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>34100</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>19700</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>17800</v>
       </c>
-      <c r="U59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V59" s="3" t="s">
         <v>3</v>
       </c>
@@ -3869,65 +4006,68 @@
       <c r="X59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>193900</v>
+      </c>
+      <c r="E60" s="3">
         <v>206900</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>159500</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>156900</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>144900</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>128700</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>98800</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>104500</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>98800</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>101000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>77800</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>74200</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>57700</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>59100</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>36200</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>57600</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>46400</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>43300</v>
       </c>
-      <c r="U60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V60" s="3" t="s">
         <v>3</v>
       </c>
@@ -3937,8 +4077,11 @@
       <c r="X60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -4005,67 +4148,70 @@
       <c r="X61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>18100</v>
+      </c>
+      <c r="E62" s="3">
         <v>18500</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>6500</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>6700</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>7000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>7200</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>7400</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>8100</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>8700</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>9000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>9200</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>600</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>300</v>
       </c>
-      <c r="P62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q62" s="3" t="s">
         <v>3</v>
       </c>
       <c r="R62" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="S62" s="3">
-        <v>0</v>
+      <c r="S62" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="T62" s="3">
         <v>0</v>
       </c>
-      <c r="U62" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="V62" s="3">
-        <v>0</v>
+      <c r="U62" s="3">
+        <v>0</v>
+      </c>
+      <c r="V62" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="W62" s="3">
         <v>0</v>
@@ -4073,8 +4219,11 @@
       <c r="X62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4141,8 +4290,11 @@
       <c r="X63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4209,8 +4361,11 @@
       <c r="X64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4277,65 +4432,68 @@
       <c r="X65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>212000</v>
+      </c>
+      <c r="E66" s="3">
         <v>225300</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>166000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>163600</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>151900</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>135900</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>106200</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>112600</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>107500</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>110000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>87000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>74800</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>58000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>59100</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>36200</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>57600</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>46400</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>43300</v>
       </c>
-      <c r="U66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V66" s="3" t="s">
         <v>3</v>
       </c>
@@ -4345,8 +4503,11 @@
       <c r="X66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4371,8 +4532,9 @@
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
-    </row>
-    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y67" s="3"/>
+    </row>
+    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4439,8 +4601,11 @@
       <c r="X68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4507,8 +4672,11 @@
       <c r="X69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4555,7 +4723,7 @@
         <v>0</v>
       </c>
       <c r="R70" s="3">
-        <v>106200</v>
+        <v>0</v>
       </c>
       <c r="S70" s="3">
         <v>106200</v>
@@ -4564,7 +4732,7 @@
         <v>106200</v>
       </c>
       <c r="U70" s="3">
-        <v>0</v>
+        <v>106200</v>
       </c>
       <c r="V70" s="3">
         <v>0</v>
@@ -4575,8 +4743,11 @@
       <c r="X70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4643,65 +4814,68 @@
       <c r="X71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>60600</v>
+      </c>
+      <c r="E72" s="3">
         <v>45600</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>27900</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>24500</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>11300</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>2500</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-2400</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-17500</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-34300</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-53000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-68200</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-105900</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-111200</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-109400</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-113500</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-109100</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-100800</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-102300</v>
       </c>
-      <c r="U72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V72" s="3" t="s">
         <v>3</v>
       </c>
@@ -4711,8 +4885,11 @@
       <c r="X72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4779,8 +4956,11 @@
       <c r="X73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4847,8 +5027,11 @@
       <c r="X74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4915,65 +5098,68 @@
       <c r="X75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>469500</v>
+      </c>
+      <c r="E76" s="3">
         <v>424400</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>377000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>346900</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>311000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>279600</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>251800</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>224100</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>204500</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>184600</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>166900</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>127300</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>119600</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>121100</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>114300</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>-91300</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>-89500</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>-92100</v>
       </c>
-      <c r="U76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V76" s="3" t="s">
         <v>3</v>
       </c>
@@ -4983,8 +5169,11 @@
       <c r="X76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5051,149 +5240,158 @@
       <c r="X77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E80" s="2">
         <v>45016</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44926</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44834</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44742</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44651</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44561</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44469</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44377</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44286</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44196</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44104</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>44012</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43921</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43830</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43738</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43646</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43555</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43465</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43373</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43281</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43190</v>
       </c>
     </row>
-    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>15000</v>
+      </c>
+      <c r="E81" s="3">
         <v>17700</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>3400</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>13200</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>8800</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>5000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>15100</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>16800</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>18700</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>15200</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>38900</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>4800</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-1100</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>3600</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-4400</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-8200</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>4400</v>
       </c>
-      <c r="T81" s="3">
-        <v>0</v>
-      </c>
       <c r="U81" s="3">
+        <v>0</v>
+      </c>
+      <c r="V81" s="3">
         <v>-1600</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-1100</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>-1300</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>-1600</v>
       </c>
     </row>
-    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5218,8 +5416,9 @@
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
-    </row>
-    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y82" s="3"/>
+    </row>
+    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5227,7 +5426,7 @@
         <v>500</v>
       </c>
       <c r="E83" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="F83" s="3">
         <v>400</v>
@@ -5239,7 +5438,7 @@
         <v>400</v>
       </c>
       <c r="I83" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="J83" s="3">
         <v>300</v>
@@ -5248,10 +5447,10 @@
         <v>300</v>
       </c>
       <c r="L83" s="3">
+        <v>300</v>
+      </c>
+      <c r="M83" s="3">
         <v>400</v>
-      </c>
-      <c r="M83" s="3">
-        <v>500</v>
       </c>
       <c r="N83" s="3">
         <v>500</v>
@@ -5269,10 +5468,10 @@
         <v>500</v>
       </c>
       <c r="S83" s="3">
+        <v>500</v>
+      </c>
+      <c r="T83" s="3">
         <v>1100</v>
-      </c>
-      <c r="T83" s="3">
-        <v>500</v>
       </c>
       <c r="U83" s="3">
         <v>500</v>
@@ -5284,10 +5483,13 @@
         <v>500</v>
       </c>
       <c r="X83" s="3">
+        <v>500</v>
+      </c>
+      <c r="Y83" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5354,8 +5556,11 @@
       <c r="X84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5422,8 +5627,11 @@
       <c r="X85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5490,8 +5698,11 @@
       <c r="X86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5558,8 +5769,11 @@
       <c r="X87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5626,76 +5840,82 @@
       <c r="X88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>76000</v>
+      </c>
+      <c r="E89" s="3">
         <v>21000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>51500</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>20900</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>19200</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-11300</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>8800</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>24200</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-7500</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>500</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>6500</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>15300</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>2200</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>12100</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-5500</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>5900</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-1900</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-6200</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>4100</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>-500</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>3100</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>-4300</v>
       </c>
     </row>
-    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5720,40 +5940,41 @@
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
-    </row>
-    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y90" s="3"/>
+    </row>
+    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-800</v>
+      </c>
+      <c r="E91" s="3">
         <v>-1300</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-700</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-1200</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-500</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-800</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-600</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-700</v>
-      </c>
-      <c r="K91" s="3">
-        <v>-400</v>
       </c>
       <c r="L91" s="3">
         <v>-400</v>
       </c>
       <c r="M91" s="3">
-        <v>-100</v>
+        <v>-400</v>
       </c>
       <c r="N91" s="3">
         <v>-100</v>
@@ -5762,34 +5983,37 @@
         <v>-100</v>
       </c>
       <c r="P91" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Q91" s="3">
         <v>-700</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-2300</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-400</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-300</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-100</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-200</v>
       </c>
-      <c r="V91" s="3">
-        <v>0</v>
-      </c>
       <c r="W91" s="3">
+        <v>0</v>
+      </c>
+      <c r="X91" s="3">
         <v>-100</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5856,8 +6080,11 @@
       <c r="X92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5924,76 +6151,82 @@
       <c r="X93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-58900</v>
+      </c>
+      <c r="E94" s="3">
         <v>16100</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-1200</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-1900</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-1300</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-39600</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-6300</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>22400</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>31200</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-38500</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>11900</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-9100</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-42100</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-700</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-2300</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-400</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-100</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>100</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-100</v>
       </c>
-      <c r="V94" s="3">
-        <v>0</v>
-      </c>
       <c r="W94" s="3">
+        <v>0</v>
+      </c>
+      <c r="X94" s="3">
         <v>-100</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>2200</v>
       </c>
     </row>
-    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6018,8 +6251,9 @@
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
-    </row>
-    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y95" s="3"/>
+    </row>
+    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6086,8 +6320,11 @@
       <c r="X96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6154,8 +6391,11 @@
       <c r="X97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6222,8 +6462,11 @@
       <c r="X98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6290,8 +6533,11 @@
       <c r="X99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -6299,67 +6545,70 @@
         <v>-1800</v>
       </c>
       <c r="E100" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="F100" s="3">
         <v>-2800</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-1200</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-2100</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-1800</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-3300</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-3100</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-4800</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-2500</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-2100</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-1600</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-2400</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-200</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>80500</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>1900</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>2200</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>6300</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-4000</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>400</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-4200</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-900</v>
       </c>
     </row>
-    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6426,72 +6675,78 @@
       <c r="X101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>15300</v>
+      </c>
+      <c r="E102" s="3">
         <v>35200</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>47600</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>17800</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>15900</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-52600</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-800</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>43500</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>18900</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-40500</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>16300</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>4600</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-42200</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>11300</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>72700</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>7400</v>
-      </c>
-      <c r="S102" s="3">
-        <v>200</v>
       </c>
       <c r="T102" s="3">
         <v>200</v>
       </c>
       <c r="U102" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="V102" s="3">
+        <v>0</v>
+      </c>
+      <c r="W102" s="3">
         <v>-200</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-1200</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>-3100</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/PGNY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/PGNY_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="92">
   <si>
     <t>PGNY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Y102"/>
+  <dimension ref="A5:Z102"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="O1" workbookViewId="0"/>
   </sheetViews>
@@ -665,321 +665,334 @@
     <col min="1" max="1" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E7" s="2">
         <v>45107</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>45016</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44926</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44834</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44742</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44651</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44561</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44469</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44377</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44286</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44196</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>44104</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>44012</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43921</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43830</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43738</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43646</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43555</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43465</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43373</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43281</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>43190</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>280900</v>
+      </c>
+      <c r="E8" s="3">
         <v>279400</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>258400</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>214300</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>205400</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>195000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>172200</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>127600</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>122300</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>128700</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>122100</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>100300</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>98900</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>64600</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>81000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>65100</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>61200</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>103400</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>47200</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>29200</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>27800</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>26200</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>22300</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>218300</v>
+      </c>
+      <c r="E9" s="3">
         <v>218700</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>199800</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>169800</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>159400</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>151100</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>139300</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>102400</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>93800</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>99000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>93200</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>79600</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>78100</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>52700</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>64400</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>53400</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>48900</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>81900</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>37200</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>23800</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>22800</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>21100</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>18300</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>62600</v>
+      </c>
+      <c r="E10" s="3">
         <v>60700</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>58600</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>44500</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>46000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>43900</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>32900</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>25200</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>28500</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>29700</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>28900</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>20700</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>20800</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>12000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>16600</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>11700</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>12300</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>21500</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>10000</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>5400</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>5000</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>5100</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>4000</v>
       </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1005,8 +1018,9 @@
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
-    </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z11" s="3"/>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1076,8 +1090,11 @@
       <c r="Y12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1147,8 +1164,11 @@
       <c r="Y13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1182,29 +1202,29 @@
       <c r="M14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N14" s="3">
+      <c r="N14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O14" s="3">
         <v>900</v>
       </c>
-      <c r="O14" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P14" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Q14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="R14" s="3">
+      <c r="R14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S14" s="3">
         <v>2000</v>
-      </c>
-      <c r="S14" s="3">
-        <v>200</v>
       </c>
       <c r="T14" s="3">
         <v>200</v>
       </c>
-      <c r="U14" s="3" t="s">
-        <v>3</v>
+      <c r="U14" s="3">
+        <v>200</v>
       </c>
       <c r="V14" s="3" t="s">
         <v>3</v>
@@ -1218,8 +1238,11 @@
       <c r="Y14" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z14" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1289,8 +1312,11 @@
       <c r="Y15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1313,150 +1339,157 @@
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
-    </row>
-    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z16" s="3"/>
+    </row>
+    <row r="17" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>262700</v>
+      </c>
+      <c r="E17" s="3">
         <v>264200</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>243400</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>211000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>194100</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>186200</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>172300</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>127700</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>113200</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>117000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>110300</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>99400</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>94100</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>65700</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>77600</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>64000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>58100</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>97900</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>44100</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>29900</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>28400</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>26500</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>24100</v>
       </c>
     </row>
-    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>18200</v>
+      </c>
+      <c r="E18" s="3">
         <v>15200</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>15000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>3300</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>11300</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>8800</v>
-      </c>
-      <c r="I18" s="3">
-        <v>-100</v>
       </c>
       <c r="J18" s="3">
         <v>-100</v>
       </c>
       <c r="K18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="L18" s="3">
         <v>9100</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>11700</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>11800</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>900</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>4800</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-1100</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>3400</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>1100</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>3100</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>5500</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>3100</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>-700</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>-600</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>-300</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>-1800</v>
       </c>
     </row>
-    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1482,41 +1515,42 @@
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
-    </row>
-    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z19" s="3"/>
+    </row>
+    <row r="20" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>2700</v>
+      </c>
+      <c r="E20" s="3">
         <v>2000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>1300</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>900</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>300</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>100</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-100</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-300</v>
       </c>
-      <c r="K20" s="3">
-        <v>0</v>
-      </c>
       <c r="L20" s="3">
+        <v>0</v>
+      </c>
+      <c r="M20" s="3">
         <v>200</v>
       </c>
-      <c r="M20" s="3">
-        <v>0</v>
-      </c>
       <c r="N20" s="3">
         <v>0</v>
       </c>
@@ -1527,105 +1561,111 @@
         <v>0</v>
       </c>
       <c r="Q20" s="3">
+        <v>0</v>
+      </c>
+      <c r="R20" s="3">
         <v>300</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-5600</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-11200</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-1200</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-600</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>-1400</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>-900</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>-500</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>21500</v>
+      </c>
+      <c r="E21" s="3">
         <v>17700</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>16900</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>4600</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>11900</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>9300</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>200</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-100</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>9400</v>
-      </c>
-      <c r="L21" s="3">
-        <v>12200</v>
       </c>
       <c r="M21" s="3">
         <v>12200</v>
       </c>
       <c r="N21" s="3">
+        <v>12200</v>
+      </c>
+      <c r="O21" s="3">
         <v>1400</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>5300</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-600</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>4300</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-3900</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>-7600</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>5300</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>3100</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>-1600</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>-1000</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>-300</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>-1600</v>
       </c>
     </row>
-    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1656,8 +1696,8 @@
       <c r="L22" s="3">
         <v>0</v>
       </c>
-      <c r="M22" s="3" t="s">
-        <v>3</v>
+      <c r="M22" s="3">
+        <v>0</v>
       </c>
       <c r="N22" s="3" t="s">
         <v>3</v>
@@ -1674,15 +1714,15 @@
       <c r="R22" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="S22" s="3">
-        <v>0</v>
+      <c r="S22" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="T22" s="3">
+        <v>0</v>
+      </c>
+      <c r="U22" s="3">
         <v>200</v>
       </c>
-      <c r="U22" s="3">
-        <v>0</v>
-      </c>
       <c r="V22" s="3">
         <v>0</v>
       </c>
@@ -1690,155 +1730,164 @@
         <v>0</v>
       </c>
       <c r="X22" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y22" s="3">
         <v>300</v>
       </c>
-      <c r="Y22" s="3">
+      <c r="Z22" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>20900</v>
+      </c>
+      <c r="E23" s="3">
         <v>17200</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>16300</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>4100</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>11500</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>8900</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-100</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-400</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>9100</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>11900</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>11800</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>1000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>4800</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-1100</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>3700</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-4500</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-8200</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>4100</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>2500</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>-2100</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>-1500</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>-1100</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>-2100</v>
       </c>
     </row>
-    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>5000</v>
+      </c>
+      <c r="E24" s="3">
         <v>2200</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>-1300</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>700</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>-1700</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>100</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>-5100</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>-15500</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>-7700</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>-6800</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>-3400</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>-37900</v>
       </c>
-      <c r="O24" s="3">
-        <v>0</v>
-      </c>
       <c r="P24" s="3">
         <v>0</v>
       </c>
       <c r="Q24" s="3">
+        <v>0</v>
+      </c>
+      <c r="R24" s="3">
         <v>100</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>-100</v>
       </c>
-      <c r="S24" s="3">
-        <v>0</v>
-      </c>
       <c r="T24" s="3">
+        <v>0</v>
+      </c>
+      <c r="U24" s="3">
         <v>100</v>
       </c>
-      <c r="U24" s="3">
-        <v>0</v>
-      </c>
       <c r="V24" s="3">
+        <v>0</v>
+      </c>
+      <c r="W24" s="3">
         <v>-500</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>-400</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>-300</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1908,150 +1957,159 @@
       <c r="Y25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>15900</v>
+      </c>
+      <c r="E26" s="3">
         <v>15000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>17700</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>3400</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>13200</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>8800</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>5000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>15100</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>16800</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>18700</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>15200</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>38900</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>4800</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-1100</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>3600</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-4400</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-8200</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>4000</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>2500</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>-1600</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>-1100</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>-800</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>-1600</v>
       </c>
     </row>
-    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>15900</v>
+      </c>
+      <c r="E27" s="3">
         <v>15000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>17700</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>3400</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>13200</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>8800</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>5000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>15100</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>16800</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>18700</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>15200</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>38900</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>4800</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-1100</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>3600</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-4400</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-8200</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>4400</v>
       </c>
-      <c r="U27" s="3">
-        <v>0</v>
-      </c>
       <c r="V27" s="3">
+        <v>0</v>
+      </c>
+      <c r="W27" s="3">
         <v>-1600</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>-1100</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>-1300</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>-7300</v>
       </c>
     </row>
-    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2121,8 +2179,11 @@
       <c r="Y28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2162,14 +2223,14 @@
       <c r="O29" s="3">
         <v>0</v>
       </c>
-      <c r="P29" s="3" t="s">
-        <v>3</v>
+      <c r="P29" s="3">
+        <v>0</v>
       </c>
       <c r="Q29" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="R29" s="3">
-        <v>0</v>
+      <c r="R29" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="S29" s="3">
         <v>0</v>
@@ -2181,19 +2242,22 @@
         <v>0</v>
       </c>
       <c r="V29" s="3">
+        <v>0</v>
+      </c>
+      <c r="W29" s="3">
         <v>100</v>
       </c>
-      <c r="W29" s="3">
-        <v>0</v>
-      </c>
       <c r="X29" s="3">
         <v>0</v>
       </c>
       <c r="Y29" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z29" s="3">
         <v>5700</v>
       </c>
     </row>
-    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2263,8 +2327,11 @@
       <c r="Y30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2334,41 +2401,44 @@
       <c r="Y31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-2700</v>
+      </c>
+      <c r="E32" s="3">
         <v>-2000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-1300</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-900</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-300</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-100</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>100</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>300</v>
       </c>
-      <c r="K32" s="3">
-        <v>0</v>
-      </c>
       <c r="L32" s="3">
+        <v>0</v>
+      </c>
+      <c r="M32" s="3">
         <v>-200</v>
       </c>
-      <c r="M32" s="3">
-        <v>0</v>
-      </c>
       <c r="N32" s="3">
         <v>0</v>
       </c>
@@ -2379,105 +2449,111 @@
         <v>0</v>
       </c>
       <c r="Q32" s="3">
+        <v>0</v>
+      </c>
+      <c r="R32" s="3">
         <v>-300</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>5600</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>11200</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>1200</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>600</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>1400</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>900</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>500</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>15900</v>
+      </c>
+      <c r="E33" s="3">
         <v>15000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>17700</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>3400</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>13200</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>8800</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>5000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>15100</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>16800</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>18700</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>15200</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>38900</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>4800</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-1100</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>3600</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-4400</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-8200</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>4400</v>
       </c>
-      <c r="U33" s="3">
-        <v>0</v>
-      </c>
       <c r="V33" s="3">
+        <v>0</v>
+      </c>
+      <c r="W33" s="3">
         <v>-1600</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>-1100</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>-1300</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>-1600</v>
       </c>
     </row>
-    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2547,155 +2623,164 @@
       <c r="Y34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>15900</v>
+      </c>
+      <c r="E35" s="3">
         <v>15000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>17700</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>3400</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>13200</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>8800</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>5000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>15100</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>16800</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>18700</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>15200</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>38900</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>4800</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-1100</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>3600</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-4400</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-8200</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>4400</v>
       </c>
-      <c r="U35" s="3">
-        <v>0</v>
-      </c>
       <c r="V35" s="3">
+        <v>0</v>
+      </c>
+      <c r="W35" s="3">
         <v>-1600</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>-1100</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>-1300</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>-1600</v>
       </c>
     </row>
-    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E38" s="2">
         <v>45107</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>45016</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44926</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44834</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44742</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44651</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44561</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44469</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44377</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44286</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44196</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>44104</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>44012</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43921</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43830</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43738</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43646</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43555</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43465</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43373</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43281</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>43190</v>
       </c>
     </row>
-    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2721,8 +2806,9 @@
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
-    </row>
-    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z39" s="3"/>
+    </row>
+    <row r="40" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2748,68 +2834,69 @@
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
-    </row>
-    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z40" s="3"/>
+    </row>
+    <row r="41" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>158100</v>
+      </c>
+      <c r="E41" s="3">
         <v>170600</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>155300</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>120100</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>72500</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>54700</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>38800</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>91400</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>92200</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>48700</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>29800</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>70300</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>54000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>49400</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>91600</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>80400</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>7700</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>300</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>400</v>
       </c>
-      <c r="V41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W41" s="3" t="s">
         <v>3</v>
       </c>
@@ -2819,53 +2906,56 @@
       <c r="Y41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>177500</v>
+      </c>
+      <c r="E42" s="3">
         <v>111900</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>52600</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>69200</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>68500</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>67700</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>66900</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>28000</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>22100</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>45200</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>77100</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>39000</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>51000</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>42000</v>
       </c>
-      <c r="Q42" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R42" s="3" t="s">
         <v>3</v>
       </c>
@@ -2878,8 +2968,8 @@
       <c r="U42" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="V42" s="3">
-        <v>0</v>
+      <c r="V42" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="W42" s="3">
         <v>0</v>
@@ -2890,68 +2980,71 @@
       <c r="Y42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>268800</v>
+      </c>
+      <c r="E43" s="3">
         <v>265000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>313200</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>240100</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>258000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>229900</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>198100</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>134600</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>135200</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>140800</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>116700</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>75700</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>78300</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>65000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>65900</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>47100</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>44300</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>44200</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>40700</v>
       </c>
-      <c r="V43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W43" s="3" t="s">
         <v>3</v>
       </c>
@@ -2961,8 +3054,11 @@
       <c r="Y43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3032,67 +3128,70 @@
       <c r="Y44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>7000</v>
+      </c>
+      <c r="E45" s="3">
         <v>13700</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>5900</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>4500</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>2800</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>4100</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>5200</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>4600</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>4900</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>3800</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>4200</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>5300</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>1300</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>3300</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>4400</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>5000</v>
-      </c>
-      <c r="S45" s="3">
-        <v>1300</v>
       </c>
       <c r="T45" s="3">
         <v>1300</v>
       </c>
       <c r="U45" s="3">
-        <v>0</v>
-      </c>
-      <c r="V45" s="3" t="s">
-        <v>3</v>
+        <v>1300</v>
+      </c>
+      <c r="V45" s="3">
+        <v>0</v>
       </c>
       <c r="W45" s="3" t="s">
         <v>3</v>
@@ -3103,68 +3202,71 @@
       <c r="Y45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>611300</v>
+      </c>
+      <c r="E46" s="3">
         <v>561100</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>527100</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>433900</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>401900</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>356400</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>309000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>258500</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>254400</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>238500</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>227800</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>190200</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>184600</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>159700</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>161900</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>132400</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>53300</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>45800</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>41100</v>
       </c>
-      <c r="V46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W46" s="3" t="s">
         <v>3</v>
       </c>
@@ -3174,8 +3276,11 @@
       <c r="Y46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3245,68 +3350,71 @@
       <c r="Y47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>27700</v>
+      </c>
+      <c r="E48" s="3">
         <v>27900</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>27800</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>15300</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>14300</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>13600</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>13400</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>12800</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>12700</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>12200</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>12000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>12100</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>3500</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>3600</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>3700</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>3100</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>1000</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>700</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>800</v>
       </c>
-      <c r="V48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W48" s="3" t="s">
         <v>3</v>
       </c>
@@ -3316,8 +3424,11 @@
       <c r="Y48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3328,56 +3439,56 @@
         <v>11900</v>
       </c>
       <c r="F49" s="3">
+        <v>11900</v>
+      </c>
+      <c r="G49" s="3">
         <v>12000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>12100</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>12200</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>12400</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>12500</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>12600</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>12700</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>12900</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>13100</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>13400</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>13600</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>13900</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>14300</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>14600</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>15000</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>15400</v>
       </c>
-      <c r="V49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W49" s="3" t="s">
         <v>3</v>
       </c>
@@ -3387,8 +3498,11 @@
       <c r="Y49" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3458,8 +3572,11 @@
       <c r="Y50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3529,46 +3646,49 @@
       <c r="Y51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>75600</v>
+      </c>
+      <c r="E52" s="3">
         <v>80600</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>83000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>81900</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>82100</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>80600</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>80700</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>74200</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>56900</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>48700</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>41900</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>38500</v>
-      </c>
-      <c r="O52" s="3">
-        <v>600</v>
       </c>
       <c r="P52" s="3">
         <v>600</v>
@@ -3577,20 +3697,20 @@
         <v>600</v>
       </c>
       <c r="R52" s="3">
+        <v>600</v>
+      </c>
+      <c r="S52" s="3">
         <v>700</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>3600</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>1600</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>300</v>
       </c>
-      <c r="V52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W52" s="3" t="s">
         <v>3</v>
       </c>
@@ -3600,8 +3720,11 @@
       <c r="Y52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3671,68 +3794,71 @@
       <c r="Y53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>726500</v>
+      </c>
+      <c r="E54" s="3">
         <v>681500</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>649700</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>543000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>510400</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>462900</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>415500</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>358100</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>336700</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>312100</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>294600</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>253900</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>202100</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>177600</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>180100</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>150400</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>72600</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>63100</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>57500</v>
       </c>
-      <c r="V54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W54" s="3" t="s">
         <v>3</v>
       </c>
@@ -3742,8 +3868,11 @@
       <c r="Y54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3769,8 +3898,9 @@
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
       <c r="Y55" s="3"/>
-    </row>
-    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z55" s="3"/>
+    </row>
+    <row r="56" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3796,68 +3926,69 @@
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
-    </row>
-    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z56" s="3"/>
+    </row>
+    <row r="57" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>132000</v>
+      </c>
+      <c r="E57" s="3">
         <v>130200</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>145600</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>109300</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>104200</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>92700</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>84700</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>61400</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>55400</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>54700</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>57300</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>43500</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>42200</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>31900</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>39400</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>19400</v>
-      </c>
-      <c r="S57" s="3">
-        <v>23500</v>
       </c>
       <c r="T57" s="3">
         <v>23500</v>
       </c>
       <c r="U57" s="3">
+        <v>23500</v>
+      </c>
+      <c r="V57" s="3">
         <v>19000</v>
       </c>
-      <c r="V57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W57" s="3" t="s">
         <v>3</v>
       </c>
@@ -3867,8 +3998,11 @@
       <c r="Y57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3921,14 +4055,14 @@
         <v>0</v>
       </c>
       <c r="T58" s="3">
+        <v>0</v>
+      </c>
+      <c r="U58" s="3">
         <v>3100</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>6600</v>
       </c>
-      <c r="V58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W58" s="3" t="s">
         <v>3</v>
       </c>
@@ -3938,68 +4072,71 @@
       <c r="Y58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>61400</v>
+      </c>
+      <c r="E59" s="3">
         <v>63700</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>61200</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>50200</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>52700</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>52200</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>44000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>37400</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>49100</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>44100</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>43700</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>34300</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>32000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>25700</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>19600</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>16800</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>34100</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>19700</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>17800</v>
       </c>
-      <c r="V59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W59" s="3" t="s">
         <v>3</v>
       </c>
@@ -4009,68 +4146,71 @@
       <c r="Y59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>193400</v>
+      </c>
+      <c r="E60" s="3">
         <v>193900</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>206900</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>159500</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>156900</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>144900</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>128700</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>98800</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>104500</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>98800</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>101000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>77800</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>74200</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>57700</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>59100</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>36200</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>57600</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>46400</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>43300</v>
       </c>
-      <c r="V60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W60" s="3" t="s">
         <v>3</v>
       </c>
@@ -4080,8 +4220,11 @@
       <c r="Y60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -4151,70 +4294,73 @@
       <c r="Y61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>17700</v>
+      </c>
+      <c r="E62" s="3">
         <v>18100</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>18500</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>6500</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>6700</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>7000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>7200</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>7400</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>8100</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>8700</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>9000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>9200</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>600</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>300</v>
       </c>
-      <c r="Q62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R62" s="3" t="s">
         <v>3</v>
       </c>
       <c r="S62" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="T62" s="3">
-        <v>0</v>
+      <c r="T62" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="U62" s="3">
         <v>0</v>
       </c>
-      <c r="V62" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="W62" s="3">
-        <v>0</v>
+      <c r="V62" s="3">
+        <v>0</v>
+      </c>
+      <c r="W62" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="X62" s="3">
         <v>0</v>
@@ -4222,8 +4368,11 @@
       <c r="Y62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4293,8 +4442,11 @@
       <c r="Y63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4364,8 +4516,11 @@
       <c r="Y64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4435,68 +4590,71 @@
       <c r="Y65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>211100</v>
+      </c>
+      <c r="E66" s="3">
         <v>212000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>225300</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>166000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>163600</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>151900</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>135900</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>106200</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>112600</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>107500</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>110000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>87000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>74800</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>58000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>59100</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>36200</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>57600</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>46400</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>43300</v>
       </c>
-      <c r="V66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W66" s="3" t="s">
         <v>3</v>
       </c>
@@ -4506,8 +4664,11 @@
       <c r="Y66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4533,8 +4694,9 @@
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
       <c r="Y67" s="3"/>
-    </row>
-    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z67" s="3"/>
+    </row>
+    <row r="68" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4604,8 +4766,11 @@
       <c r="Y68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4675,8 +4840,11 @@
       <c r="Y69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4726,7 +4894,7 @@
         <v>0</v>
       </c>
       <c r="S70" s="3">
-        <v>106200</v>
+        <v>0</v>
       </c>
       <c r="T70" s="3">
         <v>106200</v>
@@ -4735,7 +4903,7 @@
         <v>106200</v>
       </c>
       <c r="V70" s="3">
-        <v>0</v>
+        <v>106200</v>
       </c>
       <c r="W70" s="3">
         <v>0</v>
@@ -4746,8 +4914,11 @@
       <c r="Y70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4817,68 +4988,71 @@
       <c r="Y71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>76500</v>
+      </c>
+      <c r="E72" s="3">
         <v>60600</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>45600</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>27900</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>24500</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>11300</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>2500</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-2400</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-17500</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-34300</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-53000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-68200</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-105900</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-111200</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-109400</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-113500</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-109100</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-100800</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-102300</v>
       </c>
-      <c r="V72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W72" s="3" t="s">
         <v>3</v>
       </c>
@@ -4888,8 +5062,11 @@
       <c r="Y72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4959,8 +5136,11 @@
       <c r="Y73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5030,8 +5210,11 @@
       <c r="Y74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5101,68 +5284,71 @@
       <c r="Y75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>515400</v>
+      </c>
+      <c r="E76" s="3">
         <v>469500</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>424400</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>377000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>346900</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>311000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>279600</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>251800</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>224100</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>204500</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>184600</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>166900</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>127300</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>119600</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>121100</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>114300</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>-91300</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>-89500</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>-92100</v>
       </c>
-      <c r="V76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W76" s="3" t="s">
         <v>3</v>
       </c>
@@ -5172,8 +5358,11 @@
       <c r="Y76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5243,155 +5432,164 @@
       <c r="Y77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E80" s="2">
         <v>45107</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>45016</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44926</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44834</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44742</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44651</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44561</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44469</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44377</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44286</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44196</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>44104</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>44012</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43921</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43830</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43738</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43646</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43555</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43465</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43373</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43281</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>43190</v>
       </c>
     </row>
-    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>15900</v>
+      </c>
+      <c r="E81" s="3">
         <v>15000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>17700</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>3400</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>13200</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>8800</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>5000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>15100</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>16800</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>18700</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>15200</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>38900</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>4800</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-1100</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>3600</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-4400</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-8200</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>4400</v>
       </c>
-      <c r="U81" s="3">
-        <v>0</v>
-      </c>
       <c r="V81" s="3">
+        <v>0</v>
+      </c>
+      <c r="W81" s="3">
         <v>-1600</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>-1100</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>-1300</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>-1600</v>
       </c>
     </row>
-    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5417,19 +5615,20 @@
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
       <c r="Y82" s="3"/>
-    </row>
-    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z82" s="3"/>
+    </row>
+    <row r="83" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="E83" s="3">
         <v>500</v>
       </c>
       <c r="F83" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="G83" s="3">
         <v>400</v>
@@ -5441,7 +5640,7 @@
         <v>400</v>
       </c>
       <c r="J83" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="K83" s="3">
         <v>300</v>
@@ -5450,10 +5649,10 @@
         <v>300</v>
       </c>
       <c r="M83" s="3">
+        <v>300</v>
+      </c>
+      <c r="N83" s="3">
         <v>400</v>
-      </c>
-      <c r="N83" s="3">
-        <v>500</v>
       </c>
       <c r="O83" s="3">
         <v>500</v>
@@ -5471,10 +5670,10 @@
         <v>500</v>
       </c>
       <c r="T83" s="3">
+        <v>500</v>
+      </c>
+      <c r="U83" s="3">
         <v>1100</v>
-      </c>
-      <c r="U83" s="3">
-        <v>500</v>
       </c>
       <c r="V83" s="3">
         <v>500</v>
@@ -5486,10 +5685,13 @@
         <v>500</v>
       </c>
       <c r="Y83" s="3">
+        <v>500</v>
+      </c>
+      <c r="Z83" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5559,8 +5761,11 @@
       <c r="Y84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5630,8 +5835,11 @@
       <c r="Y85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5701,8 +5909,11 @@
       <c r="Y86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5772,8 +5983,11 @@
       <c r="Y87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5843,79 +6057,85 @@
       <c r="Y88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>54200</v>
+      </c>
+      <c r="E89" s="3">
         <v>76000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>21000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>51500</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>20900</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>19200</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-11300</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>8800</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>24200</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-7500</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>500</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>6500</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>15300</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>2200</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>12100</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-5500</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>5900</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-1900</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>-6200</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>4100</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>-500</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>3100</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>-4300</v>
       </c>
     </row>
-    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5941,43 +6161,44 @@
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
       <c r="Y90" s="3"/>
-    </row>
-    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z90" s="3"/>
+    </row>
+    <row r="91" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-800</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-1300</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-700</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-1200</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-500</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-800</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-600</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-700</v>
-      </c>
-      <c r="L91" s="3">
-        <v>-400</v>
       </c>
       <c r="M91" s="3">
         <v>-400</v>
       </c>
       <c r="N91" s="3">
-        <v>-100</v>
+        <v>-400</v>
       </c>
       <c r="O91" s="3">
         <v>-100</v>
@@ -5986,34 +6207,37 @@
         <v>-100</v>
       </c>
       <c r="Q91" s="3">
+        <v>-100</v>
+      </c>
+      <c r="R91" s="3">
         <v>-700</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-2300</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-400</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-300</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-100</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-200</v>
       </c>
-      <c r="W91" s="3">
-        <v>0</v>
-      </c>
       <c r="X91" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y91" s="3">
         <v>-100</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6083,8 +6307,11 @@
       <c r="Y92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6154,79 +6381,85 @@
       <c r="Y93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-64300</v>
+      </c>
+      <c r="E94" s="3">
         <v>-58900</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>16100</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-1200</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-1900</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-1300</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-39600</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-6300</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>22400</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>31200</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-38500</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>11900</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-9100</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-42100</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-700</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-2300</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-400</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-100</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>100</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-100</v>
       </c>
-      <c r="W94" s="3">
-        <v>0</v>
-      </c>
       <c r="X94" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y94" s="3">
         <v>-100</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>2200</v>
       </c>
     </row>
-    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6252,8 +6485,9 @@
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
       <c r="Y95" s="3"/>
-    </row>
-    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z95" s="3"/>
+    </row>
+    <row r="96" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6323,8 +6557,11 @@
       <c r="Y96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6394,8 +6631,11 @@
       <c r="Y97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6465,8 +6705,11 @@
       <c r="Y98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6536,79 +6779,85 @@
       <c r="Y99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-1800</v>
+        <v>-2400</v>
       </c>
       <c r="E100" s="3">
         <v>-1800</v>
       </c>
       <c r="F100" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="G100" s="3">
         <v>-2800</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-1200</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-2100</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-1800</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-3300</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-3100</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-4800</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-2500</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-2100</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-1600</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-2400</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-200</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>80500</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>1900</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>2200</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>6300</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-4000</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>400</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-4200</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>-900</v>
       </c>
     </row>
-    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6678,75 +6927,81 @@
       <c r="Y101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-12500</v>
+      </c>
+      <c r="E102" s="3">
         <v>15300</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>35200</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>47600</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>17800</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>15900</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-52600</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-800</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>43500</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>18900</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-40500</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>16300</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>4600</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-42200</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>11300</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>72700</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>7400</v>
-      </c>
-      <c r="T102" s="3">
-        <v>200</v>
       </c>
       <c r="U102" s="3">
         <v>200</v>
       </c>
       <c r="V102" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="W102" s="3">
+        <v>0</v>
+      </c>
+      <c r="X102" s="3">
         <v>-200</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>-1200</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>-3100</v>
       </c>
     </row>
